--- a/client/public/templates/all_data.xlsx
+++ b/client/public/templates/all_data.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Ki2Nam3\CongNghePhanMemHuongDoiTuong\project\StudyToeicWeb\client\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tienanh\Desktop\StudyToeicWeb\client\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E842F98E-F64E-4AE6-AE90-59EA22700AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D2423C-5ED3-4128-A257-AF61EE046965}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="1149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="1158">
   <si>
     <t>content</t>
   </si>
@@ -148,9 +148,6 @@
     <t>&lt;p&gt;31. What type of job are you looking for?&lt;br&gt;(A) No, at ten am.&lt;br&gt;&lt;span&gt;&lt;strong&gt;(B) I really like working with computers.&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(C) Just a résumé is needed.&lt;/p&gt;&lt;p&gt;31. Bạn đang tìm kiếm loại công việc nào?&lt;br&gt;(A) Không, vào lúc 10 giờ.&lt;br&gt;&lt;span&gt;&lt;strong&gt;(B) Tôi thực sự thích làm việc với máy tính.&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(C) Chỉ cần một bản sơ yếu lý lịch. &lt;/p&gt;</t>
   </si>
   <si>
-    <t>32. What event does the woman mention?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;32. Người phụ nữ nhắc đến sự kiện gì?&lt;br&gt;(A) Một hội chợ việc làm&lt;br&gt;(B) Một lớp học nấu ăn&lt;br&gt;(C) Một sự kiện gây quỹ&lt;br&gt;&lt;span&gt;&lt;strong&gt;(D) Một chuyến dã ngoại của công ty&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -166,9 +163,6 @@
     <t>A company picnic</t>
   </si>
   <si>
-    <t>33. What does the woman ask for?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;33. Người phụ nữ yêu cầu điều gì?&lt;br&gt;(A) Một danh sách khách mời&lt;br&gt;&lt;span&gt;&lt;strong&gt;(B) Công thức món tráng miệng&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(C) Một tấm danh thiếp&lt;br&gt;(D) Mã khuyến mại&lt;/p&gt;</t>
   </si>
   <si>
@@ -184,9 +178,6 @@
     <t>A promotional code</t>
   </si>
   <si>
-    <t>34. What does the man recommend doing?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;34. Người đàn ông đã khuyên nên làm gì?&lt;br&gt;(A) Trả lại một số hàng hóa&lt;br&gt;&lt;span&gt;&lt;strong&gt;(B) Xem một video&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(C) Tạo một tài khoản&lt;br&gt;(D) Đọc bài đánh giá&lt;/p&gt;</t>
   </si>
   <si>
@@ -202,9 +193,6 @@
     <t>Reading a review</t>
   </si>
   <si>
-    <t>35. What department do the speakers most likely work in?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;35. Người nói có khả năng làm việc ở bộ phận nào nhất?&lt;br&gt;&lt;span&gt;&lt;strong&gt;(A) Kế toán&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(B) Nghiên cứu và phát triển&lt;br&gt;(C) Bảo trì&lt;br&gt;(D) Tiếp thị&lt;/p&gt;</t>
   </si>
   <si>
@@ -220,9 +208,6 @@
     <t>Marketing</t>
   </si>
   <si>
-    <t>36. What problem does the woman mention?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;36. Người phụ nữ đề cập đến vấn đề gì?&lt;br&gt;(A) Một báo cáo chưa được gửi.&lt;br&gt;(B) Hóa đơn không chính xác.&lt;br&gt;&lt;span&gt;&lt;strong&gt;(C) Một chính sách đã không được tuân theo.&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(D) Đơn hàng chưa được giao.&lt;/p&gt;</t>
   </si>
   <si>
@@ -238,9 +223,6 @@
     <t>An order has not been delivered.</t>
   </si>
   <si>
-    <t>37. What does the man say he will do?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;37. Người đàn ông nói anh ta sẽ làm gì?&lt;br&gt;(A) Xóa một tập tin điện tử&lt;br&gt;&lt;span&gt;&lt;strong&gt;(B) Cho phép hoàn trả chi phí&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(C) Tổ chức một cuộc họp bán hàng&lt;br&gt;(D) Xem lại bảng tính&lt;/p&gt;</t>
   </si>
   <si>
@@ -256,9 +238,6 @@
     <t>Review a spreadsheet</t>
   </si>
   <si>
-    <t>38. What industry do the speakers most likely work in?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;38. Người nói có khả năng làm việc trong ngành nào nhất?&lt;br&gt;&lt;span&gt;&lt;strong&gt;(A) Vận chuyển&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(B) Sản xuất&lt;br&gt;(C) Dịch vụ du lịch&lt;br&gt;(D) Khí tượng học&lt;/p&gt;</t>
   </si>
   <si>
@@ -274,9 +253,6 @@
     <t>(D) Meteorology</t>
   </si>
   <si>
-    <t>39. What is the reason for a delay?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;39. Lý do chậm trễ là gì?&lt;br&gt;(A) Một lịch trình đã bị viết sai.&lt;br&gt;(B) Một số thiết bị không được thiết lập đúng cách.&lt;br&gt;&lt;span&gt;&lt;strong&gt;(C) Điều kiện thời tiết xấu. &lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(D) Một số nhân viên vắng mặt.&lt;/p&gt;</t>
   </si>
   <si>
@@ -292,9 +268,6 @@
     <t>Several staff members are absent.</t>
   </si>
   <si>
-    <t>40. What does the man say he will do?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;40. Người đàn ông nói anh ta sẽ làm gì?&lt;br&gt;(A) Cập nhật lịch làm việc&lt;br&gt;(B) Dọn dẹp không gian làm việc&lt;br&gt;(C) Hoàn thành danh sách kiểm tra&lt;br&gt;&lt;span&gt;&lt;strong&gt;(D) Thực hiện cuộc gọi&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -310,9 +283,6 @@
     <t>Place a call</t>
   </si>
   <si>
-    <t>41. Why is the woman at the restaurant?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;41. Tại sao người phụ nữ lại ở nhà hàng?&lt;br&gt;(A) Để ăn mừng việc nghỉ hưu&lt;br&gt;(B) Để thực hiện kiểm tra&lt;br&gt;&lt;span&gt;&lt;strong&gt; (C) Để gặp một số khách hàng&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(D) Để viết một bài báo&lt;/p&gt;</t>
   </si>
   <si>
@@ -328,9 +298,6 @@
     <t>To write an article</t>
   </si>
   <si>
-    <t>42. What does the woman mean when she says, “it’s very hot today”?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;42. Người phụ nữ có ý gì khi nói “hôm nay trời rất nóng”?&lt;br&gt;(A) Cô ấy không thể chấp nhận lời mời.&lt;br&gt;(B) Hệ thống làm mát đang kết nối mạng.&lt;br&gt;(C) Cuộc họp sẽ sớm kết thúc.&lt;br&gt;&lt;span&gt;&lt;strong&gt; (D) Cô ấy muốn thay đổi yêu cầu chỗ ngồi. &lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -346,9 +313,6 @@
     <t>She wants to change a seating request.</t>
   </si>
   <si>
-    <t>43. What does the man say about a parking garage?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;43. Người đàn ông nói gì về gara để xe?&lt;br&gt;&lt;span&gt;&lt;strong&gt; (A) Nó miễn phí cho khách hàng. &lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(B) Nó đang được xây dựng.&lt;br&gt;(C) Nó sắp đóng cửa.&lt;br&gt;(D) Nó cung cấp các hợp đồng hàng tháng.&lt;/p&gt;</t>
   </si>
   <si>
@@ -364,9 +328,6 @@
     <t>It offers monthly contracts.</t>
   </si>
   <si>
-    <t>44. Where does the woman most likely work?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;44. Người phụ nữ có khả năng làm việc ở đâu nhất?&lt;br&gt;(A) Tại một trường đại học&lt;br&gt;(B) Tại một công ty xuất bản&lt;br&gt;&lt;span&gt;&lt;strong&gt;(C) Tại một cửa hàng điện tử&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(D) Tại một cửa hàng tạp hóa&lt;/p&gt;</t>
   </si>
   <si>
@@ -382,9 +343,6 @@
     <t>At a grocery store</t>
   </si>
   <si>
-    <t>45. What does Murat ask about?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;45. Murat hỏi về điều gì?&lt;br&gt;(A) Một món đồ có giá bao nhiêu&lt;br&gt;(B) Khi nào một sự kiện sẽ bắt đầu&lt;br&gt;(C) Có bao nhiêu người sẽ tham gia&lt;br&gt;&lt;span&gt;&lt;strong&gt;(D) Nơi lắp đặt một số thiết bị&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -400,9 +358,6 @@
     <t>Where to set up some equipment</t>
   </si>
   <si>
-    <t>46. What does the woman suggest doing?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;46. Người phụ nữ đề nghị làm gì?&lt;br&gt;(A) Cung cấp giảm giá&lt;br&gt;&lt;span&gt;&lt;strong&gt;(B) Trưng bày các tài liệu chứa thông tin&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(C) Tổ chức một cuộc thi&lt;br&gt;(D) Tham quan bảng đăng ký&lt;/p&gt;</t>
   </si>
   <si>
@@ -418,9 +373,6 @@
     <t>Visiting a registration table</t>
   </si>
   <si>
-    <t>47. What type of industry do the speakers most likely work in?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;47. Người nói có khả năng làm việc trong ngành nào nhất?&lt;br&gt;(A) Sản xuất dệt may&lt;br&gt;&lt;span&gt;&lt;strong&gt;(B) Sản xuất thực phẩm&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(C) Chăm sóc sức khỏe&lt;br&gt;(D) Nhà hàng và khách sạn&lt;/p&gt;</t>
   </si>
   <si>
@@ -436,9 +388,6 @@
     <t>(D) Hospitality</t>
   </si>
   <si>
-    <t>48. What business challenge are the speakers discussing?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;48. Các diễn giả đang thảo luận về thách thức kinh doanh nào?&lt;br&gt;(A) Thiếu nhân sự có trình độ&lt;br&gt;(B) Chi phí sản xuất tăng&lt;br&gt;&lt;span&gt;&lt;strong&gt;(C) Thay đổi sở thích của người tiêu dùng&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(D) Sự cạnh tranh gia tăng&lt;/p&gt;</t>
   </si>
   <si>
@@ -454,9 +403,6 @@
     <t>Increased competition</t>
   </si>
   <si>
-    <t>49. What does the man say he will do?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;49. Người đàn ông nói anh ta sẽ làm gì?&lt;br&gt;&lt;span&gt;&lt;strong&gt;(A) Nghiên cứu thêm thông tin&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(B) Thương lượng giảm giá&lt;br&gt;(C) Nâng cấp một số máy móc&lt;br&gt;(D) Đào tạo nhân viên mới&lt;/p&gt;</t>
   </si>
   <si>
@@ -472,9 +418,6 @@
     <t>Train a new employee</t>
   </si>
   <si>
-    <t>50. Why is the man calling?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;50. Tại sao người đàn ông lại gọi điện?&lt;br&gt;(A) Để giải thích việc sáp nhập doanh nghiệp&lt;br&gt;(B) Để mô tả chính sách mới của công ty&lt;br&gt;&lt;span&gt;&lt;strong&gt;(C) Để đề nghị người phụ nữ một công việc&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(D) Để mời người phụ nữ phát biểu tại một hội nghị&lt;/p&gt;</t>
   </si>
   <si>
@@ -490,9 +433,6 @@
     <t>To invite the woman to speak at a conference</t>
   </si>
   <si>
-    <t>51. What does the man say a client is interested in doing?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;51. Người đàn ông nói khách hàng quan tâm đến việc gì?&lt;br&gt;(A) Mua một doanh nghiệp khác&lt;br&gt;(B) Tìm một không gian văn phòng mới&lt;br&gt;(C) Sửa đổi đề xuất ngân sách&lt;br&gt;&lt;span&gt;&lt;strong&gt;(D) Tạo một chiến dịch tiếp thị&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -508,9 +448,6 @@
     <t>Creating a marketing campaign</t>
   </si>
   <si>
-    <t>52. What does the woman ask the man to send?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;52. Người phụ nữ yêu cầu người đàn ông gửi gì?&lt;br&gt;&lt;span&gt;&lt;strong&gt;(A) Một bản mô tả dự án&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(B) Một lời mời sự kiện&lt;br&gt;(C) Một số liên kết truyền thông xã hội&lt;br&gt;(D) Một số thông tin liên lạc&lt;/p&gt;</t>
   </si>
   <si>
@@ -526,9 +463,6 @@
     <t>Some contact information</t>
   </si>
   <si>
-    <t>53. What problem does the woman mention?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;53. Người phụ nữ đề cập đến vấn đề gì?&lt;br&gt;&lt;span&gt;&lt;strong&gt;(A) Một chiếc xe không hoạt động được.&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(B) Một nhân viên đến muộn.&lt;br&gt;(C) Một lô hàng bị hư hỏng.&lt;br&gt;(D) Giao thông đông đúc.&lt;/p&gt;</t>
   </si>
   <si>
@@ -544,9 +478,6 @@
     <t>Traffic is heavy.</t>
   </si>
   <si>
-    <t>54. Where do the speakers most likely work?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;54. Những người nói có khả năng làm việc ở đâu nhất?&lt;br&gt;(A) Tại phòng thu âm&lt;br&gt;&lt;span&gt;&lt;strong&gt;(B) Tại một công ty cung cấp dịch vụ ăn uống&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(C) Tại một đài phát thanh&lt;br&gt;(D) Tại một đại lý ô tô&lt;/p&gt;</t>
   </si>
   <si>
@@ -562,9 +493,6 @@
     <t>At a car dealership</t>
   </si>
   <si>
-    <t>55. What does the man say he will do next?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;55. Người đàn ông nói anh ta sẽ làm gì tiếp theo?&lt;br&gt;(A) Sắp xếp sửa chữa ô tô&lt;br&gt;(B) Đặt mua một số đồ dùng nhà bếp&lt;br&gt;&lt;span&gt;&lt;strong&gt;(C) Mang theo một số vật dụng&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(D) Đề nghị hoàn lại tiền&lt;/p&gt;</t>
   </si>
   <si>
@@ -580,9 +508,6 @@
     <t>Offer a refund</t>
   </si>
   <si>
-    <t>56. Why is the man calling the woman?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;56. Tại sao người đàn ông lại gọi người phụ nữ?&lt;br&gt;(A) Để lên kế hoạch cho một sự kiện của công ty&lt;br&gt;(B) Để xác nhận thời hạn làm việc&lt;br&gt;&lt;span&gt;&lt;strong&gt;(C) Để thảo luận về con đường sự nghiệp&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(D) Để chấp nhận lời mời làm việc&lt;/p&gt;</t>
   </si>
   <si>
@@ -598,9 +523,6 @@
     <t>To accept a job offer</t>
   </si>
   <si>
-    <t>57. Who most likely is the woman?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;57. Người phụ nữ có khả năng nhất là ai?&lt;br&gt;&lt;span&gt;&lt;strong&gt;(A) Một biên tập viên báo chí&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(B) Một giáo sư đại học&lt;br&gt;(C) Một người giao hàng&lt;br&gt;(D) Một diễn viên chuyên nghiệp&lt;/p&gt;</t>
   </si>
   <si>
@@ -616,9 +538,6 @@
     <t>A professional actor</t>
   </si>
   <si>
-    <t>58. What will the woman most likely do next?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;58. Người phụ nữ rất có thể sẽ làm gì tiếp theo?&lt;br&gt;(A) Đàm phán hợp đồng&lt;br&gt;(B) Giải thích chính sách văn phòng&lt;br&gt;(C) Xem lại sơ yếu lý lịch&lt;br&gt;&lt;span&gt;&lt;strong&gt;(D) Mô tả lịch trình làm việc&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -634,9 +553,6 @@
     <t>Describe a work schedule</t>
   </si>
   <si>
-    <t>59. What are the speakers mainly discussing?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;59. Họ đang chủ yếu thảo luận về vấn đề gì?&lt;br&gt;(A) Một tuyến đường giao thông mới&lt;br&gt;&lt;span&gt;&lt;strong&gt;(B) Sáp nhập công ty&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(C) Một sáng kiến quan hệ công chúng&lt;br&gt;(D) Thiết kế cơ sở y tế&lt;/p&gt;</t>
   </si>
   <si>
@@ -652,9 +568,6 @@
     <t>A medical facility design</t>
   </si>
   <si>
-    <t>60. Why does the woman say, “they also talked about it last year”?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;60. Tại sao người phụ nữ nói “họ cũng đã nói về nó vào năm ngoái”?&lt;br&gt;&lt;span&gt;&lt;strong&gt;(A) Để bày tỏ sự nghi ngờ&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(B) Để giải thích một quá trình&lt;br&gt;(C) Để đưa ra một đề nghị&lt;br&gt;(D) Để cập nhật một số thông tin&lt;/p&gt;</t>
   </si>
   <si>
@@ -670,9 +583,6 @@
     <t>To update some information</t>
   </si>
   <si>
-    <t>61. What does the woman want to avoid?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;61. Người phụ nữ muốn tránh điều gì?&lt;br&gt;(A) Trả phí chứng nhận&lt;br&gt;(B) Đào tạo nhân viên bổ sung&lt;br&gt;(C) Nâng cấp một số công nghệ&lt;br&gt;&lt;span&gt;&lt;strong&gt;(D) Chuyển đến thành phố khác&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -688,9 +598,6 @@
     <t>Relocating to another city</t>
   </si>
   <si>
-    <t>62. Who is a gift for?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;62. Quà tặng dành cho ai?&lt;br&gt;(A) Các nhà tài trợ&lt;br&gt;(B) Tình nguyện viên&lt;br&gt;&lt;span&gt;&lt;strong&gt;(C) Nhân viên&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(D) Khách hàng&lt;/p&gt;</t>
   </si>
   <si>
@@ -706,9 +613,6 @@
     <t>Clients</t>
   </si>
   <si>
-    <t>63. Look at the graphic. What is the price of the item the man recommends?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;63. Nhìn vào hình minh họa. Giá của món hàng mà người đàn ông giới thiệu là bao nhiêu?&lt;br&gt;(A) $21&lt;br&gt;(B) $18&lt;br&gt;&lt;span&gt;&lt;strong&gt;(C) $24&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(D) $15&lt;/p&gt;</t>
   </si>
   <si>
@@ -724,9 +628,6 @@
     <t>$15</t>
   </si>
   <si>
-    <t>64. What is the woman going to send to the man?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;64. Người phụ nữ định gửi gì cho người đàn ông?&lt;br&gt;&lt;span&gt;&lt;strong&gt;(A) Một tệp đồ họa&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(B) Danh sách tên&lt;br&gt;(C) Địa chỉ giao hàng&lt;br&gt;(D) Số tài khoản&lt;/p&gt;</t>
   </si>
   <si>
@@ -742,9 +643,6 @@
     <t>An account number</t>
   </si>
   <si>
-    <t>65. What type of art will be displayed in an exhibit?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;65. Loại hình nghệ thuật nào sẽ được trưng bày trong triển lãm?&lt;br&gt;(A) Tác phẩm điêu khắc bằng đất sét&lt;br&gt;(B) Tranh sơn dầu&lt;br&gt;(C) Những bức ảnh đen trắng&lt;br&gt;&lt;span&gt;&lt;strong&gt;(D) Những bức tranh vẽ bằng bút chì&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -760,9 +658,6 @@
     <t>Pencil drawings</t>
   </si>
   <si>
-    <t>66. Look at the graphic. Which piece of artwork will no longer be included?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;66. Nhìn vào hình minh họa. Tác phẩm nghệ thuật nào sẽ không còn được đưa vào nữa?&lt;br&gt;(A) A Careful Glance&lt;br&gt;(B) Promises&lt;br&gt;&lt;span&gt;&lt;strong&gt;(C) Stormy Sea&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(D) The Moment&lt;/p&gt;</t>
   </si>
   <si>
@@ -778,9 +673,6 @@
     <t>The Moment</t>
   </si>
   <si>
-    <t>67. What does the woman say she will do right away?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;67. Người phụ nữ nói cô ấy sẽ làm gì ngay?&lt;br&gt;(A) Nói chuyện với một nghệ sĩ&lt;br&gt;&lt;span&gt;&lt;strong&gt;(B) Chỉnh sửa bản ghi âm&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(C) Dọn dẹp không gian trưng bày&lt;br&gt;(D) Chào một số du khách&lt;/p&gt;</t>
   </si>
   <si>
@@ -796,9 +688,6 @@
     <t>Greet some visitors</t>
   </si>
   <si>
-    <t>68. Who most likely are the speakers?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;68. Những người nói có khả năng là ai?&lt;br&gt;(A) Các nhà quy hoạch đô thị&lt;br&gt;&lt;span&gt;&lt;strong&gt;(B) Nhà báo&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(C) Kỹ sư&lt;br&gt;(D) Các nhà khoa học môi trường&lt;/p&gt;</t>
   </si>
   <si>
@@ -814,9 +703,6 @@
     <t>Environmental scientists</t>
   </si>
   <si>
-    <t>69. Look at the graphic. Which site has already been completed?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;69. Nhìn vào hình minh họa. Địa điểm nào đã được hoàn thành?&lt;br&gt;(A) Địa điểm A&lt;br&gt;(B) Địa điểm B&lt;br&gt;(C) Địa điểm C&lt;br&gt;&lt;span&gt;&lt;strong&gt;(D) Địa điểm D&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -832,9 +718,6 @@
     <t>Site D</t>
   </si>
   <si>
-    <t>70. What does the man suggest focusing on?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;70. Người đàn ông gợi ý nên tập trung vào điều gì?&lt;br&gt;&lt;span&gt;&lt;strong&gt;(A) Cơ hội việc làm&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(B) Chi phí tuabin gió&lt;br&gt;(C) Các vấn đề về chuỗi cung ứng&lt;br&gt;(D) Công suất điện&lt;/p&gt;</t>
   </si>
   <si>
@@ -850,9 +733,6 @@
     <t>Power capacity</t>
   </si>
   <si>
-    <t>71. Who has recorded the message?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;71. Ai đã ghi âm tin nhắn này?&lt;br&gt;(A) Văn phòng thị trưởng thành phố&lt;br&gt;(B) Phòng bảo trì&lt;br&gt;(C) Một đại lý ô tô&lt;br&gt;&lt;span&gt;&lt;strong&gt;(D) Văn phòng quản lý tòa nhà&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -868,9 +748,6 @@
     <t>A building management office</t>
   </si>
   <si>
-    <t>72. What are the listeners asked to do?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;72. Người nghe được yêu cầu làm gì?&lt;br&gt;&lt;span&gt;&lt;strong&gt;(A) Di chuyển phương tiện của họ&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(B) Trả tiền phạt đỗ xe&lt;br&gt;(C) Sử dụng lối vào thay thế&lt;br&gt;(D) Tham gia vào một cuộc họp&lt;/p&gt;</t>
   </si>
   <si>
@@ -886,9 +763,6 @@
     <t>Participate in a meeting</t>
   </si>
   <si>
-    <t>73. What does the speaker say was mailed last week?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;73. Người nói nói cái gì đã được gửi vào tuần trước?&lt;br&gt;(A) Một lá phiếu bầu cử&lt;br&gt;(B) Kế hoạch bảo trì&lt;br&gt;&lt;span&gt;&lt;strong&gt;(C) Một tấm bản đồ&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(D) Một phiếu giảm giá&lt;/p&gt;</t>
   </si>
   <si>
@@ -904,9 +778,6 @@
     <t>A coupon</t>
   </si>
   <si>
-    <t>74. What is the topic of the episode?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;74. Chủ đề của đoạn này là gì?&lt;br&gt;(A) Cảnh quan sân vườn&lt;br&gt;(B) Lắp đặt cửa sổ&lt;br&gt;&lt;span&gt;&lt;strong&gt;(C) Bảo trì mái nhà&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(D) Cải tạo nhà bếp&lt;/p&gt;</t>
   </si>
   <si>
@@ -922,9 +793,6 @@
     <t>Kitchen renovations</t>
   </si>
   <si>
-    <t>75. What does the speaker emphasize about some tools?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;75. Người nói nhấn mạnh điều gì về một số công cụ?&lt;br&gt;(A) Chúng nên được làm sạch thường xuyên.&lt;br&gt;&lt;span&gt;&lt;strong&gt;(B) Chúng phải có chất lượng cao.&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(C) Chúng mới được phát minh gần đây.&lt;br&gt;(D) Chúng có thể được lưu trữ dễ dàng.&lt;/p&gt;</t>
   </si>
   <si>
@@ -940,9 +808,6 @@
     <t>They can be easily stored.</t>
   </si>
   <si>
-    <t>76. What does the speaker recommend doing every year?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;76. Người nói khuyên nên làm gì hàng năm?&lt;br&gt;(A) Xử lý một số gỗ&lt;br&gt;(B) Tư vấn cho một thợ điện&lt;br&gt;&lt;span&gt;&lt;strong&gt;(C) Chụp vài bức ảnh&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(D) Xả một ít nước&lt;/p&gt;</t>
   </si>
   <si>
@@ -958,9 +823,6 @@
     <t>Draining some water</t>
   </si>
   <si>
-    <t>77. Who most likely is the speaker?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;77. Người nói có khả năng là ai nhất?&lt;br&gt;(A) Người dẫn chương trình radio&lt;br&gt;&lt;span&gt;&lt;strong&gt;(B) Một hướng dẫn viên du lịch&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(C) Một cộng tác viên bán hàng&lt;br&gt;(D) Một giáo sư&lt;/p&gt;</t>
   </si>
   <si>
@@ -976,9 +838,6 @@
     <t>A professor</t>
   </si>
   <si>
-    <t>78. What will happen at two o’clock?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;78. Điều gì sẽ diễn ra vào lúc hai giờ?&lt;br&gt;&lt;span&gt;&lt;strong&gt;(A) Một bài giảng sẽ bắt đầu.&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(B) Một buổi trưng bày sẽ diễn ra.&lt;br&gt;(C) Một cuộc phỏng vấn sẽ được tiến hành.&lt;br&gt;(D) Một công viên sẽ đóng cửa.&lt;/p&gt;</t>
   </si>
   <si>
@@ -994,9 +853,6 @@
     <t>A park will close.</t>
   </si>
   <si>
-    <t>79. What is Orchid Caretakers?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;79. Orchid Caretakers là gì?&lt;br&gt;(A) Một cuốn sách&lt;br&gt;(B) Một album&lt;br&gt;&lt;span&gt;&lt;strong&gt;(C) Một bộ phim&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(D) Một tạp chí&lt;/p&gt;</t>
   </si>
   <si>
@@ -1012,9 +868,6 @@
     <t>A magazine</t>
   </si>
   <si>
-    <t>80. What event is taking place?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;80. Sự kiện gì đang diễn ra?&lt;br&gt;&lt;span&gt;&lt;strong&gt;(A) Buổi hòa nhạc gây quỹ&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(B) Một cuộc thi thể thao&lt;br&gt;(C) Một buổi tập kịch&lt;br&gt;(D) Một lễ trao giải&lt;/p&gt;</t>
   </si>
   <si>
@@ -1030,9 +883,6 @@
     <t>An awards ceremony</t>
   </si>
   <si>
-    <t>81. What does the organization plan to do?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;81. Tổ chức có kế hoạch làm gì?&lt;br&gt;(A) Thay đổi chính sách&lt;br&gt;&lt;span&gt;&lt;strong&gt;(B) Sửa chữa một tòa nhà&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(C) Chọn người chiến thắng&lt;br&gt;(D) Tài trợ cho một đội&lt;/p&gt;</t>
   </si>
   <si>
@@ -1048,9 +898,6 @@
     <t>Sponsor a team</t>
   </si>
   <si>
-    <t>82. What does the speaker encourage the listeners to do?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;82. Người nói khuyến khích người nghe làm gì?&lt;br&gt;(A) Đặt vé sớm&lt;br&gt;(B) Thăm một trung tâm cộng đồng&lt;br&gt;&lt;span&gt;&lt;strong&gt;(C) Mua đồ giải khát&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(D) Quyên góp quần áo&lt;/p&gt;</t>
   </si>
   <si>
@@ -1066,9 +913,6 @@
     <t>Donate clothing</t>
   </si>
   <si>
-    <t>83. What is the topic of the workshop?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;83. Chủ đề của hội thảo là gì?&lt;br&gt;&lt;span&gt;&lt;strong&gt;(A) Quản lý thời gian&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(B) Nói trước công chúng&lt;br&gt;(C) Kỹ năng lãnh đạo&lt;br&gt;(D) Mạng lưới chuyên nghiệp&lt;/p&gt;</t>
   </si>
   <si>
@@ -1084,9 +928,6 @@
     <t>Professional networking</t>
   </si>
   <si>
-    <t>84. What does the speaker imply when he says, “Erina’s at the back of the room”?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;84. Người nói có ý gì khi nói “Erina ở cuối phòng”?&lt;br&gt;(A) Một diễn giả khách mời vừa đến.&lt;br&gt;&lt;span&gt;&lt;strong&gt;(B) Có sẵn sự hỗ trợ.&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(C) Người tham dự nên nói rõ ràng và to.&lt;br&gt;(D) Nên cung cấp thêm một chiếc ghế.&lt;/p&gt;</t>
   </si>
   <si>
@@ -1102,9 +943,6 @@
     <t>An extra chair should be provided.</t>
   </si>
   <si>
-    <t>85. What will the listeners do next?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;85. Người nghe sẽ làm gì tiếp theo?&lt;br&gt;(A) Ký tên của họ vào một danh sách&lt;br&gt;(B) Nghỉ giải lao&lt;br&gt;&lt;span&gt;&lt;strong&gt;(C) Tham gia vào một hoạt động giới thiệu&lt;br&gt;(D) Điền vào bảng câu hỏi&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -1120,9 +958,6 @@
     <t>Fill out a questionnaire</t>
   </si>
   <si>
-    <t>86. What is a historical site famous for?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;86. Di tích lịch sử nổi tiếng vì điều gì?&lt;br&gt;(A) Những bức tường phòng thủ của nó&lt;br&gt;(B) Cư dân hoàng gia của nó&lt;br&gt;(C) Một sự kiện đã xảy ra ở đó&lt;br&gt;&lt;span&gt;&lt;strong&gt;(D) Một số tác phẩm nghệ thuật&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -1138,9 +973,6 @@
     <t>Some artwork</t>
   </si>
   <si>
-    <t>87. Why does the speaker apologize?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;87. Tại sao người nói lại xin lỗi?&lt;br&gt;&lt;span&gt;&lt;strong&gt;(A) Người nghe không thể chụp ảnh.&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(B) Một khu vực bị đóng cửa đối với người nghe.&lt;br&gt;(C) Không có cửa hàng quà tặng.&lt;br&gt;(D) Chuyến tham quan bắt đầu muộn.&lt;/p&gt;</t>
   </si>
   <si>
@@ -1156,9 +988,6 @@
     <t>A tour started late.</t>
   </si>
   <si>
-    <t>88. What does the speaker ask the listeners to do?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;88. Người nói yêu cầu người nghe làm gì?&lt;br&gt;(A) Cho họ xem vé của họ&lt;br&gt;(B) Mặc quần áo bảo hộ&lt;br&gt;&lt;span&gt;&lt;strong&gt;(C) Sử dụng một số tay vịn&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(D) Nói nhỏ nhẹ&lt;/p&gt;</t>
   </si>
   <si>
@@ -1174,9 +1003,6 @@
     <t>Speak quietly</t>
   </si>
   <si>
-    <t>89. What is the speaker mainly discussing?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;89. Người nói chủ yếu thảo luận về điều gì?&lt;br&gt;&lt;span&gt;&lt;strong&gt;(A) Một chiến dịch quảng cáo&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(B) Mở rộng thị trường&lt;br&gt;(C) Một số cuộc đàm phán hợp đồng&lt;br&gt;(D) Một số thủ tục kiểm toán&lt;/p&gt;</t>
   </si>
   <si>
@@ -1192,9 +1018,6 @@
     <t>Some audit procedures</t>
   </si>
   <si>
-    <t>90. What does the speaker imply when he says, “this is a priority”?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;90. Người nói ám chỉ điều gì khi nói “đây là ưu tiên hàng đầu”?&lt;br&gt;(A) Tiền lương làm thêm giờ đã được phê duyệt.&lt;br&gt;&lt;span&gt;&lt;strong&gt;(B) Phải đáp ứng đúng thời hạn.&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(C) Một khách hàng bày tỏ mối quan ngại.&lt;br&gt;(D) Người giám sát sẽ quan sát chặt chẽ.&lt;/p&gt;</t>
   </si>
   <si>
@@ -1210,9 +1033,6 @@
     <t>A supervisor will be observing closely.</t>
   </si>
   <si>
-    <t>91. What will the listeners do next?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;91. Người nghe sẽ làm gì tiếp theo?&lt;br&gt;(A) Xem bản trình bày&lt;br&gt;(B) Xem xét ngân sách&lt;br&gt;&lt;span&gt;&lt;strong&gt;(C) Sửa lại một số sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(D) Thực hiện một số nghiên cứu&lt;/p&gt;</t>
   </si>
   <si>
@@ -1228,9 +1048,6 @@
     <t>Do some research</t>
   </si>
   <si>
-    <t>92. Where do the listeners most likely work?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;92. Người nghe thường làm việc ở đâu nhất?&lt;br&gt;&lt;span&gt;&lt;strong&gt;(A) Tại bệnh viện&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(B) Tại một nhà hàng&lt;br&gt;(C) Tại một cửa hàng tạp hóa&lt;br&gt;(D) Tại một cửa hàng điện tử&lt;/p&gt;</t>
   </si>
   <si>
@@ -1240,9 +1057,6 @@
     <t>At a restaurant</t>
   </si>
   <si>
-    <t>93. What is the main purpose of the talk?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;93. Mục đích chính của bài nói chuyện là gì?&lt;br&gt;(A) Để đưa ra một yêu cầu&lt;br&gt;&lt;span&gt;&lt;strong&gt;(B) Để giải quyết khiếu nại của nhân viên&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(C) Để trình bày một lịch trình mới&lt;br&gt;(D) Để giải thích một quy trình kỹ thuật&lt;/p&gt;</t>
   </si>
   <si>
@@ -1258,9 +1072,6 @@
     <t>To explain a technical process</t>
   </si>
   <si>
-    <t>94. What does the speaker imply when she says, “That will require management approval”?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;94. Người nói ám chỉ điều gì khi nói, “Điều đó sẽ cần có sự chấp thuận của ban quản lý”?&lt;br&gt;(A) Một quy trình chưa được tuân theo.&lt;br&gt;(B) Người nghe có thể được yêu cầu làm việc ca làm thêm.&lt;br&gt;(C) Người nghe nên liên hệ với người quản lý.&lt;br&gt;&lt;span&gt;&lt;strong&gt;(D) Một sự thay đổi sẽ không diễn ra ngay lập tức.&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -1276,9 +1087,6 @@
     <t>A change will not be immediate.</t>
   </si>
   <si>
-    <t>95. According to the speaker, what was recently completed?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;95. Theo người nói, điều gì đã được hoàn thành gần đây?&lt;br&gt;(A) Việc tổ chức lại công ty&lt;br&gt;&lt;span&gt;&lt;strong&gt;(B) Cải tạo công viên&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(C) Một khóa đào tạo tình nguyện viên&lt;br&gt;(D) Một dự án bảo tồn&lt;/p&gt;</t>
   </si>
   <si>
@@ -1294,9 +1102,6 @@
     <t>A conservation project</t>
   </si>
   <si>
-    <t>96. Look at the graphic. Where does the speaker say refreshments will be served?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;96. Nhìn vào hình minh họa. Người nói nói đồ ăn uống sẽ được phục vụ ở đâu?&lt;br&gt;&lt;span&gt;&lt;strong&gt;(A) Địa điểm 1&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(B) Địa điểm 2&lt;br&gt;(C) Địa điểm 3&lt;br&gt;(D) Địa điểm 4&lt;/p&gt;</t>
   </si>
   <si>
@@ -1312,9 +1117,6 @@
     <t>Location 4</t>
   </si>
   <si>
-    <t>97. What are the listeners reminded to do?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;97. Người nghe được nhắc nhở làm gì?&lt;br&gt;(A) Hoàn thành một cuộc khảo sát&lt;br&gt;(B) Đóng góp một số tiền&lt;br&gt;(C) Tham gia một tổ chức&lt;br&gt;&lt;span&gt;&lt;strong&gt;(D) Đăng một số bức ảnh&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -1330,9 +1132,6 @@
     <t>Post some photographs</t>
   </si>
   <si>
-    <t>98. What is the topic of today’s lecture?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;98. Chủ đề của bài giảng hôm nay là gì?&lt;br&gt;(A) Khi nào thu hoạch cây trồng&lt;br&gt;(B) Nơi trồng cây&lt;br&gt;&lt;span&gt;&lt;strong&gt;(C) Cách trồng rau&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(D) Những bông hoa nào cần nhiều ánh nắng hơn&lt;/p&gt;</t>
   </si>
   <si>
@@ -1348,9 +1147,6 @@
     <t>Which flowers need more sun</t>
   </si>
   <si>
-    <t>99. Look at the graphic. At what depth should samples be collected this month?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;99. Nhìn vào đồ họa. Mẫu nên được thu thập ở độ sâu nào trong tháng này?&lt;br&gt;&lt;span&gt;&lt;strong&gt;(A) 12 inch&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(B) 4 inch&lt;br&gt;(C) 6 inch&lt;br&gt;(D) 8 inch&lt;/p&gt;</t>
   </si>
   <si>
@@ -1366,9 +1162,6 @@
     <t>8 inches</t>
   </si>
   <si>
-    <t>100. What does the speaker encourage the listeners to do?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;100. Người nói khuyến khích người nghe làm gì?&lt;br&gt;(A) Tắt điện thoại di động&lt;br&gt;(B) Thưởng thức đồ uống giải khát&lt;br&gt;(C) Mua một số hạt giống&lt;br&gt;&lt;span&gt;&lt;strong&gt;(D) Đăng ký danh sách gửi thư&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -1834,9 +1627,6 @@
     <t>potential</t>
   </si>
   <si>
-    <t>131.</t>
-  </si>
-  <si>
     <t>&lt;p&gt;131. &lt;span style="color: red;"&gt;Giải thích: Câu đầu tiên đang giới thiệu về 1 dịch vụ thiết kế cây cảnh, vị trí sau chỗ trống đang nhắc đến chi tiết công việc sẽ được thực hiện khi tham gia lớp học. Vậy nên cần điền câu D vì đây là câu giới thiệu về khóa học &lt;/span&gt;&lt;br&gt;– Trẻ em ở mọi lứa tuổi sẽ thích thú với các cuộc triển lãm mới.&lt;br&gt;– Tìm hiểu về lượng mưa trên toàn khu vực.&lt;br&gt;– Xây dựng một bộ bàn ghế sân hiên đơn giản với những vật liệu dễ kiếm.&lt;br&gt;&lt;span&gt;&lt;strong&gt;– Thứ Bảy tới lúc 4 giờ chiều, chúng tôi sẽ tổ chức một buổi hội thảo miễn phí cho công chúng. &lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -1852,9 +1642,6 @@
     <t>Next Saturday at 4 P.M., we are hosting a free workshop for the public.</t>
   </si>
   <si>
-    <t>132.</t>
-  </si>
-  <si>
     <t>&lt;p&gt;132. &lt;span style="color: red;"&gt;Giải thích: Vị trí chỗ điền MĐQH để bổ sung nghĩa cho shadow sunken garden &lt;/span&gt;&lt;br&gt;– to use&lt;br&gt;– used to&lt;br&gt;– by using&lt;br&gt;&lt;span&gt;&lt;strong&gt;– that uses&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -1870,9 +1657,6 @@
     <t>that uses</t>
   </si>
   <si>
-    <t>133.</t>
-  </si>
-  <si>
     <t>&lt;p&gt;133. Giải thích:&lt;br&gt;&lt;span&gt;&lt;strong&gt;– Best of all: Hơn tất cả&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;– For example: Ví dụ&lt;br&gt;– In any event: Trong mọi trường hợp&lt;br&gt;– As a matter of fact: Trên thực tế&lt;/p&gt;</t>
   </si>
   <si>
@@ -1888,9 +1672,6 @@
     <t>As a matter of fact</t>
   </si>
   <si>
-    <t>134.</t>
-  </si>
-  <si>
     <t>&lt;p&gt;134. Giải thích:&lt;br&gt;– we: chúng tôi&lt;br&gt;&lt;span&gt;&lt;strong&gt;– they: họ&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;– both: cả 2&lt;br&gt;– yours: của bạn&lt;/p&gt;</t>
   </si>
   <si>
@@ -1906,9 +1687,6 @@
     <t>yours</t>
   </si>
   <si>
-    <t>135.</t>
-  </si>
-  <si>
     <t>&lt;p&gt;135. &lt;span style="color: red;"&gt;Giải thích: Vị trí chỗ trống cần điền tính từ bổ sung nghĩa cho “support” &lt;/span&gt;&lt;br&gt;– amazed (Ved/adj): Bị Ngạc nhiên&lt;br&gt;– amazement (n): Sự ngạc nhiên&lt;br&gt;&lt;span&gt;&lt;strong&gt;– Amazing (Ving/Adj): Tuyệt vời&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;– Amazingly (Adv): 1 cách tuyệt vời&lt;/p&gt;</t>
   </si>
   <si>
@@ -1924,9 +1702,6 @@
     <t>amazingly</t>
   </si>
   <si>
-    <t>136.</t>
-  </si>
-  <si>
     <t>&lt;p&gt;136. &lt;span style="color: red;"&gt;Giải thích: Câu từ vựng &lt;/span&gt;&lt;br&gt;&lt;span&gt;&lt;strong&gt;– attention (n): Sự chú ý&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;– proposals (n): Những đề xuất&lt;br&gt;– innovation (n): Sự sáng tạo, đổi mới&lt;br&gt;-Criticism (n): Chỉ trích&lt;/p&gt;</t>
   </si>
   <si>
@@ -1942,9 +1717,6 @@
     <t>criticism</t>
   </si>
   <si>
-    <t>137.</t>
-  </si>
-  <si>
     <t>&lt;p&gt;137. &lt;span style="color: red;"&gt;Giải thích: Câu sau chỗ trống đang là đưa ra các vấn đề khó khan khi cần phải lên lịch sự kiện nên cần điền 1 câu cũng đang nhắc đến chủ đề sự kiện &lt;/span&gt;&lt;br&gt;– Một số sự kiện khác đã diễn ra tốt đẹp một cách đáng ngạc nhiên.&lt;br&gt;&lt;span&gt;&lt;strong&gt;– Cũng cảm ơn bạn vì sự linh hoạt trong việc lên kế hoạch cho sự kiện. &lt;/strong&gt;&lt;/span&gt;&lt;br&gt;– Lần sau khi ở trong thành phố hãy ghé qua văn phòng chúng tôi nhé.&lt;br&gt;– Tokyo là điểm đến du lịch hàng đầu vì nhiều lý do.&lt;/p&gt;</t>
   </si>
   <si>
@@ -1960,9 +1732,6 @@
     <t>Tokyo is a top tourism destination for many reasons.</t>
   </si>
   <si>
-    <t>138.</t>
-  </si>
-  <si>
     <t>&lt;p&gt;138. &lt;span style="color: red;"&gt;Giải thích: Đã có động từ chính là “is coming” nên không thể điền động từ chính &lt;/span&gt;&lt;br&gt;– will benefit&lt;br&gt;&lt;span&gt;&lt;strong&gt;– to benefit&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;– has benefited&lt;br&gt;– benefits&lt;/p&gt;</t>
   </si>
   <si>
@@ -1978,9 +1747,6 @@
     <t>benefits</t>
   </si>
   <si>
-    <t>139.</t>
-  </si>
-  <si>
     <t>&lt;p&gt;139. &lt;span style="color: red;"&gt;Giải thích: Nhân diện động từ đang ở dạng bị động nên chủ ngữ sẽ là vật được gia hạn. Dùng It để thay thế cho Card &lt;/span&gt;&lt;br&gt;&lt;span&gt;&lt;strong&gt;– It: Nó &lt;/strong&gt;&lt;/span&gt;&lt;br&gt;– You: Bạn&lt;br&gt;– Our: Của chúng ta&lt;br&gt;– Each: Mỗi&lt;/p&gt;</t>
   </si>
   <si>
@@ -1996,9 +1762,6 @@
     <t>Each</t>
   </si>
   <si>
-    <t>140.</t>
-  </si>
-  <si>
     <t>&lt;p&gt;140. &lt;span style="color: red;"&gt;Giải thích: Câu trước chỗ trống đang nhắc về việc gia hạn, làm mới thẻ thành viên nên chỗ trống cũng cần nhắc về việc gia hạn thẻ thành viên &lt;/span&gt;&lt;br&gt;– Để đăng ký thẻ, hãy đến chi nhánh thư viện địa phương của bạn.&lt;br&gt;– Đối với các câu hỏi về thành viên thư viện, xin vui lòng truy cập trang web của chúng tôi.&lt;br&gt;&lt;span&gt;&lt;strong&gt;– Việc gia hạn phải được hoàn tất ít nhất một tuần trước khi thẻ hết hạn. &lt;/strong&gt;&lt;/span&gt;&lt;br&gt;– Bạn có thể chọn không tham gia chương trình này bất cứ lúc nào.&lt;/p&gt;</t>
   </si>
   <si>
@@ -2014,9 +1777,6 @@
     <t>You may opt out of this program at any time.</t>
   </si>
   <si>
-    <t>141.</t>
-  </si>
-  <si>
     <t>&lt;p&gt;141. &lt;span style="color: red;"&gt;Giải thích: Sử dụng từ Should thay thế cho từ If ở câu điều kiện loại 0&lt;br&gt;Should + S + V + O, S + V + O&lt;br&gt;– Also: Cũng&lt;br&gt;&lt;span&gt;&lt;strong&gt;– Should: Nên/nếu&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;– Because: Bởi vì&lt;br&gt;– Although: Mặc dù&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -2032,9 +1792,6 @@
     <t>Although</t>
   </si>
   <si>
-    <t>142.</t>
-  </si>
-  <si>
     <t>&lt;p&gt;142. &lt;span style="color: red;"&gt;Giải thích: Chỗ trống cần điền tính từ bổ sung nghĩa cho Date &lt;/span&gt;&lt;br&gt;– specifically (adv)&lt;br&gt;– specifics (n)&lt;br&gt;&lt;span&gt;&lt;strong&gt;– specified (adj) &lt;/strong&gt;&lt;/span&gt;&lt;br&gt;– specificity (n)&lt;/p&gt;</t>
   </si>
   <si>
@@ -2050,9 +1807,6 @@
     <t>specificity</t>
   </si>
   <si>
-    <t>143.</t>
-  </si>
-  <si>
     <t>&lt;p&gt;143. &lt;span style="color: red;"&gt;Giải thích: Câu trước là 1 lời chào, câu sau giới thiệu luôn về chi tiết dịch vụ, công việc của Studio. Cần 1 câu dẫn về việc giới thiệu dịch vụ &lt;/span&gt;&lt;br&gt;&lt;span&gt;&lt;strong&gt;– Tôi muốn giới thiệu với bạn về công việc kinh doanh của chúng tôi. &lt;/strong&gt;&lt;/span&gt;&lt;br&gt;– Những bức ảnh đẹp có thể làm cho cơ sở kinh doanh của bạn nổi bật.&lt;br&gt;– Chúng tôi đang mong đợi chuyến thăm của bạn.&lt;br&gt;– Đây là studio đầu tiên thuộc loại này được mở ở khu vực này.&lt;/p&gt;</t>
   </si>
   <si>
@@ -2068,9 +1822,6 @@
     <t>It was the first studio of its kind to open in this area.</t>
   </si>
   <si>
-    <t>144.</t>
-  </si>
-  <si>
     <t>&lt;p&gt;144. &lt;span style="color: red;"&gt;Giải thích: Dạng câu từ vựng &lt;/span&gt;&lt;br&gt;(A) nghiên cứu&lt;br&gt;&lt;span&gt;&lt;strong&gt; (B) tạo ra&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;(C) mua hàng&lt;br&gt;(D) hiển thị&lt;/p&gt;</t>
   </si>
   <si>
@@ -2086,9 +1837,6 @@
     <t>displaying</t>
   </si>
   <si>
-    <t>145.</t>
-  </si>
-  <si>
     <t>&lt;p&gt;145. &lt;span style="color: red;"&gt;Giải thích: Dạng câu từ vựng &lt;/span&gt;&lt;br&gt;– If not: Nếu không&lt;br&gt;– By comparison: Bằng cách so sánh&lt;br&gt;– Otherwise: Mặt khác&lt;br&gt;&lt;span&gt;&lt;strong&gt;– Indeed: Thật vậy&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -2104,9 +1852,6 @@
     <t>Indeed</t>
   </si>
   <si>
-    <t>146.</t>
-  </si>
-  <si>
     <t>&lt;p&gt;146. &lt;span style="color: red;"&gt;Giải thích: Vế trước đang sử dụng thì hiện tại đơn, vậy nên không thể sử dụng 2 thì QKĐ và QKHT, loại C,D; câu này là 1 dạng câu diễn tả quy trình, sự thật sẽ xảy ra &lt;/span&gt;&lt;br&gt;&lt;span&gt;&lt;strong&gt;– receives&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;– is receiving&lt;br&gt;– had received&lt;br&gt;– had to receive&lt;/p&gt;</t>
   </si>
   <si>
@@ -2122,9 +1867,6 @@
     <t>had to receive</t>
   </si>
   <si>
-    <t>147. Where is the information most likely found?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #33CC33;"&gt;147. Thông tin có nhiều khả năng được tìm thấy nhất ở đâu? &lt;/span&gt;&lt;br&gt;(A) Trên một cánh cửa&lt;br&gt;(B) Trên biên lai&lt;br&gt;&lt;span style="color: #33CC33;"&gt; (C) Trong một cái hộp&lt;/span&gt;&lt;br&gt;(D) Trên một trang web&lt;/p&gt;</t>
   </si>
   <si>
@@ -2140,9 +1882,6 @@
     <t>On a Web site</t>
   </si>
   <si>
-    <t>148. What kind of item is most likely discussed?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: red;"&gt;148. Loại sản phẩm nào có nhiều khả năng được thảo luận nhất? &lt;/span&gt;&lt;br&gt;(A) Một máy tính để bàn&lt;br&gt;&lt;span style="color: red;"&gt; (B) Một món đồ nội thất&lt;/span&gt;&lt;br&gt;(C) Một thiết bị gia dụng&lt;br&gt;(D) Dụng cụ điện&lt;/p&gt;</t>
   </si>
   <si>
@@ -2158,9 +1897,6 @@
     <t>A power tool</t>
   </si>
   <si>
-    <t>149. What is suggested by the schedule?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #33CC33;"&gt;149. Lịch trình gợi ý điều gì? &lt;/span&gt;&lt;br&gt;(A) Một cuộc hội nghị đã được lên lịch.&lt;br&gt;&lt;span style="color: #33CC33;" (b)="" một="" công="" ty="" có="" văn="" phòng="" ở="" hai="" múi="" giờ.="" &lt;="" span=""&gt;&lt;br&gt;(C) Trợ lý hành chính lập kế hoạch du lịch.&lt;br&gt;(D) Một số thời gian họp đã được thay đổi.&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -2176,9 +1912,6 @@
     <t>Some meeting times have been changed.</t>
   </si>
   <si>
-    <t>150. What is indicated about 11:00 A.M. Winnipeg time?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: red;"&gt;150. Điều gì được chỉ ra vào khoảng 11 giờ sáng giờ Winnipeg?. &lt;/span&gt;&lt;br&gt;(A) Đó là lúc văn phòng Winnipeg đóng cửa để ăn trưa.&lt;br&gt;(B) Đó là lúc nhân viên ở Toulouse bắt đầu ngày làm việc của họ.&lt;br&gt;&lt;span style="color: red;"&gt; (C) Đây không phải là thời điểm thích hợp để lên lịch cuộc họp.&lt;/span&gt;&lt;br&gt;(D) Nó vừa được thêm vào lịch trình&lt;/p&gt;</t>
   </si>
   <si>
@@ -2194,9 +1927,6 @@
     <t>It has just been added to the schedule.</t>
   </si>
   <si>
-    <t>151. What is indicated about the Bryant Foyer?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #33CC33;"&gt;151. Điều gì được chỉ ra về Tiền sảnh Bryant? &lt;/span&gt;&lt;br&gt;(A) Nó nằm trên bờ hồ.&lt;br&gt;&lt;span style="color: #33CC33;"&gt; (B) Nó gần đây đã được cải tạo. &lt;/span&gt;&lt;br&gt;(C) Nó sẽ xây dựng một vườn thực vật cho khách.&lt;br&gt;(D) Nó chỉ dành riêng cho công ty&lt;br&gt;sự kiện.&lt;/p&gt;</t>
   </si>
   <si>
@@ -2212,9 +1942,6 @@
     <t>It is reserved solely for corporate events.</t>
   </si>
   <si>
-    <t>152. What is suggested about And ito's?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: red;"&gt;152. And ito’s gợi ý điều gì? &lt;/span&gt;&lt;br&gt;(A) Nó được bắt đầu bởi một đầu bếp quốc tế.&lt;br&gt;(B) Nó cung cấp các tùy chọn menu hạn chế.&lt;br&gt;(C) Hiện tại nó được tài trợ bởi một tổ chức từ thiện.&lt;br&gt;&lt;span style="color: red;"&gt; (D) Nó rất phổ biến với người dân địa phương. &lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -2230,9 +1957,6 @@
     <t>It is very popular with local residents.</t>
   </si>
   <si>
-    <t>153. At 1:00 P.M., what does Ms. Chi most likely mean when she writes, ''Sure thing, Mina''?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #33CC33;"&gt;153. Vào lúc 1 giờ chiều, rất có thể cô Chi có ý gì khi viết “Chắc chắn rồi, Mina”?&lt;/span&gt;&lt;br&gt;&lt;span style="color: #33CC33;"&gt; (A) Cô ấy sẽ mang bữa trưa cho cô Evers&lt;/span&gt;.&lt;br&gt;(B) Cô ấy có thể cung cấp một công cụ mà cô Evers cần.&lt;br&gt;(C) Một số tọa độ địa điểm là chính xác.&lt;br&gt;(D) Một số phép đo phải được kiểm tra lại.&lt;/p&gt;</t>
   </si>
   <si>
@@ -2248,9 +1972,6 @@
     <t>Some measurements must be double-checked.</t>
   </si>
   <si>
-    <t>154. What will happen next?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: red;"&gt;154. Điều gì sẽ xảy ra tiếp theo? &lt;/span&gt;&lt;br&gt;(A) Cô Chi sẽ nhận được tọa độ địa điểm mới.&lt;br&gt;&lt;span style="color: red;"&gt; (B) Cô Chi và cô Lim sẽ ra ngoài một lúc. &lt;/span&gt;&lt;br&gt;(C) Cô Evers sẽ chia sẻ một công thức.&lt;br&gt;(D) Cô Lim sẽ bắt đầu đo.&lt;/p&gt;</t>
   </si>
   <si>
@@ -2266,9 +1987,6 @@
     <t>Ms. Lim will begin taking measurements.</t>
   </si>
   <si>
-    <t>155. For whom is the notice most likely intended?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #33CC33;"&gt;155. Thông báo này có thể dành cho ai nhất? &lt;/span&gt;&lt;br&gt;&lt;span style="color: #33CC33;"&gt; (A) Nông dân&lt;/span&gt;&lt;br&gt;(B) Đầu bếp chuyên nghiệp&lt;br&gt;(C) Tài xế xe tải&lt;br&gt;(D) Quản lý siêu thị&lt;/p&gt;</t>
   </si>
   <si>
@@ -2284,9 +2002,6 @@
     <t>Supermarket managers</t>
   </si>
   <si>
-    <t>156. What does the notice indicate about the weather?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: red;"&gt;156. Thông báo cho biết gì về thời tiết? &lt;/span&gt;&lt;br&gt;(A) Nó gây ra sự chậm trễ trong vận chuyển.&lt;br&gt;(B) Trời có mưa to hơn bình thường.&lt;br&gt;(C) Nó thường xuyên là một chủ đề trên các bản tin địa phương.&lt;br&gt;&lt;span style="color: red;"&gt; (D) Nó có lợi cho cây trồng. &lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -2302,9 +2017,6 @@
     <t>It was beneficial for crops.</t>
   </si>
   <si>
-    <t>157. What service does the notice mention?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #0033FF;"&gt;157. Thông báo đề cập đến dịch vụ gì? &lt;/span&gt;&lt;br&gt;(A) Bố trí nhân sự cho các doanh nghiệp địa phương&lt;br&gt;&lt;span style="color: #0033FF;"&gt; (B) Thu thập và phân phối thực phẩm&lt;/span&gt;&lt;br&gt;(C) Sửa chữa máy móc nông nghiệp&lt;br&gt;(D) Xưởng làm vườn&lt;/p&gt;</t>
   </si>
   <si>
@@ -2320,9 +2032,6 @@
     <t>Gardening workshops</t>
   </si>
   <si>
-    <t>158. Where most likely is the notice posted?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #33CC33;"&gt;158. Thông báo có nhiều khả năng được đăng ở đâu nhất? &lt;/span&gt;&lt;br&gt;(A) Trong một chiếc máy bay&lt;br&gt;&lt;span style="color: #33CC33;"&gt; (B) Trong phòng hòa nhạc&lt;/span&gt;&lt;br&gt;(C) Tại một nhà hàng&lt;br&gt;(D) Tại một bưu điện&lt;/p&gt;</t>
   </si>
   <si>
@@ -2335,9 +2044,6 @@
     <t>At a post office</t>
   </si>
   <si>
-    <t>159. What is stated about large bags?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: red;"&gt;159. Người ta nói gì về túi lớn? &lt;/span&gt;&lt;br&gt;&lt;span style="color: red;"&gt; (A) Chúng có thể được đặt trong hộp có khóa với một khoản phí. &lt;/span&gt;&lt;br&gt;(B) Chúng phải được để bên ngoài tòa nhà.&lt;br&gt;(C) Họ sẽ được một người phục vụ kiểm tra.&lt;br&gt;(D) Chúng phải được cất giữ dưới ghế ngồi.&lt;/p&gt;</t>
   </si>
   <si>
@@ -2353,9 +2059,6 @@
     <t>They must be stored under a seat.</t>
   </si>
   <si>
-    <t>160. In which of the positions marked [1], [2], [3], and [4] does the following sentence best belong? ''Please refrain from making phone calls or texting at all times.''</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #0033FF;"&gt;160. Câu sau đây thuộc vị trí nào trong số các vị trí được đánh dấu [1], [2], [3] và [4]? &lt;/span&gt;&lt;br&gt;·&lt;span style="color: #0033FF;"&gt; “Xin vui lòng không gọi điện thoại hoặc nhắn tin mọi lúc.”&lt;/span&gt;&lt;br&gt;(A) [1]&lt;br&gt;&lt;span style="color: #0033FF;"&gt; (B) [2] &lt;/span&gt;&lt;br&gt;(C) [3]&lt;br&gt;(D) [4]&lt;/p&gt;</t>
   </si>
   <si>
@@ -2371,9 +2074,6 @@
     <t>[4]</t>
   </si>
   <si>
-    <t>161. What is the main purpose of the e-mail?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #33CC33;"&gt;161. Mục đích chính của e-mail là gì? &lt;/span&gt;&lt;br&gt;&lt;span style="color: #33CC33;"&gt; (A) Để yêu cầu xác nhận đơn hàng&lt;/span&gt;&lt;br&gt;(B) Để điều chỉnh một số ngày giao hàng&lt;br&gt;(C) Để thông báo việc mở rộng kinh doanh&lt;br&gt;(D) Để quảng bá sản phẩm tráng miệng mới&lt;/p&gt;</t>
   </si>
   <si>
@@ -2389,9 +2089,6 @@
     <t>To promote new dessert products</t>
   </si>
   <si>
-    <t>162. What is suggested about Ms. Ayala?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: red;"&gt;162. Điều gì được gợi ý về cô Ayala? &lt;/span&gt;&lt;br&gt;(A) Cô ấy đang nhận được một giải thưởng chuyên nghiệp.&lt;br&gt;(B) Cô ấy từng làm đầu bếp bánh ngọt.&lt;br&gt;&lt;span style="color: red;"&gt; (C) Cô ấy đã từng là khách hàng của Sweeter Specialties trước đây&lt;/span&gt;.&lt;br&gt;(D) Cô ấy nhận được lời giới thiệu tích cực về một đầu bếp.&lt;/p&gt;</t>
   </si>
   <si>
@@ -2407,9 +2104,6 @@
     <t>She received a positive recommendation about a chef.</t>
   </si>
   <si>
-    <t>163. What is indicated about the multilayer cake?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #0033FF;"&gt;163. Bánh nhiều lớp nói lên điều gì? &lt;/span&gt;&lt;br&gt;(A) Nó đã là một sản phẩm bán chạy nhất với khách hàng.&lt;br&gt;(B) Đây là chiếc bánh đắt nhất tại Sweeter Specialties.&lt;br&gt;(C) Nó được sản xuất hàng năm cho Esplin Electronics.&lt;br&gt;&lt;span style="color: #0033FF;"&gt; (D) Đó là sự kết hợp hương vị mới cho Sweeter Specialties. &lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -2425,9 +2119,6 @@
     <t>It is a new flavor combination for Sweeter Specialties.</t>
   </si>
   <si>
-    <t>164. The word ''judged '' in paragraph 2 , line 3, is closest in meaning to</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #CC6600;"&gt;164. Từ “judged” ở đoạn 2, dòng 3 là gần nghĩa nhất&lt;/span&gt;&lt;br&gt;(A) bị chỉ trích&lt;br&gt;(B) giải quyết&lt;br&gt;&lt;span style="color: #CC6600;"&gt; (C) xác định&lt;/span&gt;&lt;br&gt;(D) được mô tả&lt;/p&gt;</t>
   </si>
   <si>
@@ -2443,9 +2134,6 @@
     <t>described</t>
   </si>
   <si>
-    <t>165. Why did Ms. Yakovleva choose the Dish Magic 300 dishwasher?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #33CC33;"&gt;165. Tại sao bà Ykovleva lại chọn máy rửa chén Dish Magic 300?&lt;br&gt;(A) Nó rẻ hơn hầu hết các mẫu mã. &lt;/span&gt;&lt;br&gt;(B) Đó là mẫu lớn nhất hiện có.&lt;br&gt;&lt;span style="color: #33CC33;"&gt; (C) Nó được đánh giá rất cao. &lt;/span&gt;&lt;br&gt;(D) Nó cùng nhãn hiệu với những thiết bị khác của cô ấy.&lt;/p&gt;</t>
   </si>
   <si>
@@ -2461,9 +2149,6 @@
     <t>It was the same brand as her other appliances.</t>
   </si>
   <si>
-    <t>166. The word ''running'' in paragraph 1, line 7, is closest in meaning to</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: red;"&gt;166. Từ “running” ở đoạn 1 dòng 7 gần nghĩa nhất với&lt;/span&gt;&lt;br&gt;(A) điều chỉnh&lt;br&gt;(B) kiểm soát&lt;br&gt;(C) di chuyển&lt;br&gt;&lt;span style="color: red;"&gt; (D) điều hành&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -2479,9 +2164,6 @@
     <t>operating</t>
   </si>
   <si>
-    <t>167. What is indicated about Ms. Yakovleva?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #0033FF;"&gt;167. Điều gì được chỉ ra về cô Ykovleva? &lt;/span&gt;&lt;br&gt;&lt;span style="color: #0033FF;"&gt; (A) Cô ấy quan tâm đến việc tiết kiệm nước. &lt;/span&gt;&lt;br&gt;(B) Gần đây cô ấy đã chuyển đến một ngôi nhà mới.&lt;br&gt;(C) Cô ấy mua máy rửa bát cách đây một năm.&lt;br&gt;(D) Cô ấy sửa sang lại nhà bếp một cách chuyên nghiệp.&lt;/p&gt;</t>
   </si>
   <si>
@@ -2497,9 +2179,6 @@
     <t>She remodels kitchens professionally.</t>
   </si>
   <si>
-    <t>168. For whom is the information intended?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #33CC33;"&gt;168. Thông tin dành cho ai? &lt;/span&gt;&lt;br&gt;(A) Nhân viên của Skyler Airlines&lt;br&gt;(B) Khách hàng của Skyler Airlines&lt;br&gt;(C) Người đăng ký tạp chí tiềm năng&lt;br&gt;&lt;span style="color: #33CC33;"&gt; (D) Người tìm việc hiện tại&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -2515,9 +2194,6 @@
     <t>Current job seekers</t>
   </si>
   <si>
-    <t>169. In the information, what is NOT mentioned as being offered to employees?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: red;"&gt;169. Trong thông tin, điều gì KHÔNG được đề cập là được cung cấp cho nhân viên? &lt;/span&gt;&lt;br&gt;(A) Thanh toán chi phí giáo dục&lt;br&gt;&lt;span style="color: red;"&gt; (B) Vé máy bay miễn phí&lt;/span&gt;&lt;br&gt;(C) Cơ hội được cố vấn&lt;br&gt;(D) Ngày nghỉ có lương&lt;/p&gt;</t>
   </si>
   <si>
@@ -2533,9 +2209,6 @@
     <t>Paid days off</t>
   </si>
   <si>
-    <t>170. What is mentioned about Skyler Airlines?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #0033FF;"&gt;170. Điều gì được nhắc đến về Skyler Airlines? &lt;/span&gt;&lt;br&gt;(A) Nó bay đến hầu hết các điểm đến trên thế giới.&lt;br&gt;(B) Nó đang có kế hoạch sáp nhập với một hãng hàng không khác.&lt;br&gt;&lt;span style="color: #0033FF;"&gt; (C) Nó được khen ngợi trong ấn phẩm thương mại.&lt;/span&gt;&lt;br&gt;(D) Nó đã thay thế chỗ ngồi của mình bằng những cái thoải mái hơn.&lt;/p&gt;</t>
   </si>
   <si>
@@ -2551,15 +2224,9 @@
     <t>It has replaced its seats with more comfortable ones.</t>
   </si>
   <si>
-    <t>171. In which of the positions marked [1], [2], [3], and [4] does the following sentence best belong? ''Our openings cover a broad range of skill sets.''</t>
-  </si>
-  <si>
     <t>&lt;p&gt;171. Câu sau đây thuộc vị trí nào trong số các vị trí được đánh dấu [1], [2], [3] và [4]?&lt;br&gt;“Cơ hội mở của chúng tôi bao gồm một loạt các bộ kỹ năng.”&lt;br&gt;&lt;span style="color: #CC6600;"&gt; (A) [1] &lt;/span&gt;&lt;br&gt;(B) [2]&lt;br&gt;(C) [3]&lt;br&gt;(D) [4]&lt;/p&gt;</t>
   </si>
   <si>
-    <t>172. What is indicated about a presentation?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #33CC33;"&gt;172. Điều gì được chỉ ra về một bài thuyết trình? &lt;/span&gt;&lt;br&gt;(A) Nó sẽ tốn kém để sản xuất.&lt;br&gt;(B) Nó sẽ làm nổi bật một số sản phẩm bán chạy nhất.&lt;br&gt;(C) Đây sẽ là dự án đầu tiên của cô Gowan.&lt;br&gt;&lt;span style="color: #33CC33;"&gt; (D) Nó sẽ được gửi đến nhiều địa điểm. &lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -2575,9 +2242,6 @@
     <t>It will be sent to multiple locations.</t>
   </si>
   <si>
-    <t>173. At 9:22A.M., what does Ms. Lorenz imply when she writes, ''let's not overlook that''?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: red;"&gt;173. Vào lúc 9:22 sáng, cô Lorenz có ý gì khi viết, “chúng ta đừng bỏ qua điều đó”?&lt;/span&gt;&lt;br&gt;(A) Nên có nhiều nhân viên tham dự cuộc họp hơn.&lt;br&gt;&lt;span style="color: red;"&gt; (B) Thông tin từ các nghiên cứu người dùng rất quan trọng. &lt;/span&gt;&lt;br&gt;(C) Bài thuyết trình phải diễn ra suôn sẻ.&lt;br&gt;(D) Các cửa hàng đối tác phải được thông báo về báo cáo sắp tới.&lt;/p&gt;</t>
   </si>
   <si>
@@ -2593,9 +2257,6 @@
     <t>Partner stores must be notified about an upcoming report.</t>
   </si>
   <si>
-    <t>174. Who most likely is Mr. Harven?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #0033FF;"&gt;174. Rất có thể ông Harven là ai? &lt;/span&gt;&lt;br&gt;(A) Một người quản lý cửa hàng&lt;br&gt;(B) Một vận động viên nghiệp dư&lt;br&gt;&lt;span style="color: #0033FF;"&gt; (C) Một nhà nghiên cứu sản phẩm&lt;/span&gt;&lt;br&gt;(D) Một giám đốc quảng cáo&lt;/p&gt;</t>
   </si>
   <si>
@@ -2611,9 +2272,6 @@
     <t>An advertising executive</t>
   </si>
   <si>
-    <t>175. When do the writers plan to meet to review a slide presentation?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #CC6600;"&gt;175. Khi nào các tác giả dự định gặp nhau để xem lại bài thuyết trình trên slide? &lt;/span&gt;&lt;br&gt;(A) Vào thứ Hai&lt;br&gt;(B) Vào thứ Tư&lt;br&gt;&lt;span style="color: #CC6600;"&gt; (C) Vào thứ năm&lt;/span&gt;&lt;br&gt;(D) Vào thứ Sáu&lt;/p&gt;</t>
   </si>
   <si>
@@ -2629,9 +2287,6 @@
     <t>On Friday</t>
   </si>
   <si>
-    <t>176. What is the purpose of the press release?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #33CC33;"&gt;176. Mục đích của thông cáo báo chí là gì? &lt;/span&gt;&lt;br&gt;(A) Để thúc đẩy việc mở một nhà hàng&lt;br&gt;&lt;span style="color: #33CC33;"&gt; (B) Để công bố quan hệ đối tác kinh doanh&lt;/span&gt;&lt;br&gt;(C) Để giới thiệu một chương trình du lịch&lt;br&gt;(D) Để chúc mừng người nhận giải thưởng&lt;/p&gt;</t>
   </si>
   <si>
@@ -2647,9 +2302,6 @@
     <t>To congratulate an award recipient</t>
   </si>
   <si>
-    <t>177. In the press release, the word ''reflects'' in paragraph 1, line 4, is closest in meaning to</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: red;"&gt;177. Trong thông cáo báo chí, từ “phản ánh” ở đoạn 1, dòng 4 có nghĩa gần nhất với&lt;/span&gt;&lt;br&gt;(A) dẫn đến&lt;br&gt;(B) thay đổi&lt;br&gt;&lt;span style="color: red;"&gt; (C) cho thấy&lt;/span&gt;&lt;br&gt;(D) nghĩ về&lt;/p&gt;</t>
   </si>
   <si>
@@ -2665,9 +2317,6 @@
     <t>thinks about</t>
   </si>
   <si>
-    <t>178. What is indicated about Kitchen Swifts?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #0033FF;"&gt;178. Điều gì được chỉ ra về Kitchen Swifts? &lt;/span&gt;&lt;br&gt;(A) Nó tăng giá cho tất cả khách hàng.&lt;br&gt;(B) Nó đã sửa đổi lịch giao hàng.&lt;br&gt;&lt;span style="color: #0033FF;"&gt; (C) Nó cung cấp nhiều lựa chọn về bữa ăn. &lt;/span&gt;&lt;br&gt;(D) Nó có một phó chủ tịch mới.&lt;/p&gt;</t>
   </si>
   <si>
@@ -2683,9 +2332,6 @@
     <t>It has a new vice president.</t>
   </si>
   <si>
-    <t>179. What is most likely true about Ms. Guan?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #CC6600;"&gt;179. Điều gì có thể đúng nhất về bà Guan? &lt;/span&gt;&lt;br&gt;&lt;span style="color: #CC6600;"&gt; (A) Cô ấy đến nhà hàng của ông Cordero. &lt;/span&gt;&lt;br&gt;(B) Gần đây cô ấy đã đến Sydney để nghỉ mát.&lt;br&gt;(C) Cô ấy là đồng nghiệp của cô Chambers.&lt;br&gt;(D) Cô ấy thường xuyên đặt hàng từ Kitchen Swifts.&lt;/p&gt;</t>
   </si>
   <si>
@@ -2701,9 +2347,6 @@
     <t>She regularly orders from Kitchen Swifts.</t>
   </si>
   <si>
-    <t>180. What did Ms. Guan suggest about Enriqua's in the review?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #9966FF;"&gt;180. Bà Guan đã gợi ý gì về Enriqua trong bài đánh giá? &lt;/span&gt;&lt;br&gt;(A) Nó có thực đơn bữa trưa hạn chế.&lt;br&gt;&lt;span style="color: #9966FF;"&gt; (B) Cần phải đặt trước bữa tối. &lt;/span&gt;&lt;br&gt;(C) Nó phục vụ bánh mì từ một tiệm bánh địa phương.&lt;br&gt;(D) Nó có địa điểm ở Hồng Kông.&lt;/p&gt;</t>
   </si>
   <si>
@@ -2719,9 +2362,6 @@
     <t>It has a location in Hong Kong.</t>
   </si>
   <si>
-    <t>181. What is the purpose of the e-mail?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #33CC33;"&gt;181. Mục đích của e-mail là gì? &lt;/span&gt;&lt;br&gt;&lt;span style="color: #33CC33;"&gt; (A) Để hoàn thiện một kế hoạch&lt;/span&gt;&lt;br&gt;(B) Để chấp nhận lời mời&lt;br&gt;(C) Để quảng bá một dịch vụ mới&lt;br&gt;(0) Để yêu cầu phản hồi về chính sách&lt;/p&gt;</t>
   </si>
   <si>
@@ -2737,9 +2377,6 @@
     <t>To request feedback on a policy</t>
   </si>
   <si>
-    <t>182. Why will Mr. Boyle travel from Stranraer to Kirkcolm?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: red;"&gt;182. Tại sao ông Boyle sẽ đi từ Stranraer đến Kirkcolm? &lt;/span&gt;&lt;br&gt;(A) Để giao hàng&lt;br&gt;(B) Để tham dự một cuộc họp&lt;br&gt;(C) Để trả xe thuê&lt;br&gt;&lt;span style="color: red;"&gt; (D) Để thăm các thành viên trong gia đình&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -2755,9 +2392,6 @@
     <t>To visit with family members</t>
   </si>
   <si>
-    <t>183. What is indicated in the e-mail?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #0033FF;"&gt;183. Trong email có nội dung gì? &lt;/span&gt;&lt;br&gt;(A) Em gái của ông Boyle là người đồng sáng lập Ceoleire Classics.&lt;br&gt;&lt;span style="color: #0033FF;"&gt; (B) Ông Boyle đã thất vọng về các công ty vận tải hàng không và tàu hỏa. &lt;/span&gt;&lt;br&gt;(C) Cô Savard đã từng mua hàng từ ông Boyle trước đây.&lt;br&gt;(D) Cô Savard thích một nhãn hiệu cụ thể hơn&lt;br&gt;hành lý.&lt;/p&gt;</t>
   </si>
   <si>
@@ -2773,9 +2407,6 @@
     <t>Ms. Savard prefers a specific brand of luggage.</t>
   </si>
   <si>
-    <t>184. What is most likely true about Ms. Savard?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #CC6600;"&gt;184. Điều gì có thể đúng nhất về bà Savard? &lt;/span&gt;&lt;br&gt;(A) Cô ấy thường xuyên đi công tác.&lt;br&gt;(B) Cô ấy trả thêm tiền để được giao hàng tận tay.&lt;br&gt;&lt;span style="color: #CC6600;"&gt; (C) Gần đây cô ấy đã mua dụng cụ âm nhạc. &lt;/span&gt;&lt;br&gt;(D) Cô ấy sẽ gặp ông Boyle tại văn phòng cho thuê xe.&lt;/p&gt;</t>
   </si>
   <si>
@@ -2791,9 +2422,6 @@
     <t>She will meet Mr. Boyle at the rental car office.</t>
   </si>
   <si>
-    <t>185. How is Mr. Boyle traveling to Cairnryan on June 5?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #9966FF;"&gt;185. Ông Boyle đi Cairnryan vào ngày 5 tháng Sáu bằng phương tiện gì? &lt;/span&gt;&lt;br&gt;(A) Bằng ô tô&lt;br&gt;(B) Bằng tàu hỏa&lt;br&gt;&lt;span style="color: #9966FF;"&gt; (C) Bằng thuyền&lt;/span&gt;&lt;br&gt;(D) Bằng máy bay&lt;/p&gt;</t>
   </si>
   <si>
@@ -2809,9 +2437,6 @@
     <t>By plane</t>
   </si>
   <si>
-    <t>186. What is indicated about TTA?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #33CC33;"&gt;186. TTA nói lên điều gì? &lt;/span&gt;&lt;br&gt;(A) Nó được thành lập bởi một nhà thiết kế đồ họa.&lt;br&gt;(B) Nó xuất bản bản tin trực tuyến của riêng mình.&lt;br&gt;&lt;span style="color: #33CC33;"&gt; (C) Nó cung cấp các lớp học do các chuyên gia trong ngành hướng dẫn. &lt;/span&gt;&lt;br&gt;(D) Nó có cơ sở vật chất lớp học ở các thành phố trên khắp Tây Phi.&lt;/p&gt;</t>
   </si>
   <si>
@@ -2827,9 +2452,6 @@
     <t>It has classroom facilities in cities across West Africa.</t>
   </si>
   <si>
-    <t>187. According to the advertisement, what does TTA provide to students who finish a class?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: red;"&gt;187. Theo quảng cáo, TTA cung cấp những gì cho học viên sau khi học xong một lớp? &lt;/span&gt;&lt;br&gt;(A) Một buổi hội thảo viết sơ yếu lý lịch&lt;br&gt;(B) Giảm giá cho lớp học tiếp theo&lt;br&gt;(C) Danh sách các bài đăng công việc hiện tại&lt;br&gt;&lt;span style="color: red;"&gt; (D) Tài liệu chứng nhận&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -2845,9 +2467,6 @@
     <t>A certification document</t>
   </si>
   <si>
-    <t>188. What is most likely true about Mr. Egbe?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #0033FF;"&gt;188. Điều gì có thể đúng nhất về ông Egbe? &lt;/span&gt;&lt;br&gt;(A) Anh ấy đã giúp thiết kế một diễn đàn thảo luận.&lt;br&gt;&lt;span style="color: #0033FF;"&gt; (B) Trước đây anh ấy đã học lớp TTA. &lt;/span&gt;&lt;br&gt;(C) Anh ấy phát triển phần mềm hội nghị truyền hình.&lt;br&gt;(D) Gần đây anh ấy đã bán một chiếc xe bán bánh mì bán đồ ăn.&lt;/p&gt;</t>
   </si>
   <si>
@@ -2863,9 +2482,6 @@
     <t>He recently sold a bakery food truck.</t>
   </si>
   <si>
-    <t>189. What TTA class is Mr. Egbe enrolled in?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #CC6600;"&gt;189. Ông Egbe đăng ký học lớp TTA nào? &lt;/span&gt;&lt;br&gt;&lt;span style="color: #CC6600;"&gt; (A) Giới thiệu về Tiếp thị Truyền thông Xã hội&lt;/span&gt;&lt;br&gt;(B) Trở thành một nhà văn tự do thành công&lt;br&gt;(C) Khởi động một đài phát thanh Internet&lt;br&gt;(D) Khái niệm cơ bản về thiết kế đồ họa&lt;/p&gt;</t>
   </si>
   <si>
@@ -2881,9 +2497,6 @@
     <t>Basics of Graphic Design</t>
   </si>
   <si>
-    <t>190. What section did Mr. Egbe most likely add to the outline after speaking with Mr. Akpan?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #9966FF;"&gt;190. Ông Egbe rất có thể đã thêm phần nào vào dàn ý sau khi nói chuyện với ông Akpan? &lt;/span&gt;&lt;br&gt;(A) Phần 1&lt;br&gt;&lt;span style="color: #9966FF;"&gt; (B) Phần 2&lt;/span&gt;&lt;br&gt;(C) Phần 3&lt;br&gt;(D) Phần 4&lt;/p&gt;</t>
   </si>
   <si>
@@ -2899,9 +2512,6 @@
     <t>Section 4</t>
   </si>
   <si>
-    <t>191. What does the article mention about Orange Bay Kitchen?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #33CC33;"&gt;191. Bài báo đề cập đến điều gì về Orange Bay Kitchen? &lt;/span&gt;&lt;br&gt;(A) Hiện tại đang thuê người phục vụ.&lt;br&gt;(B) Nó nằm trên một con phố yên tĩnh.&lt;br&gt;(C) Nó có một địa điểm khác ở Jamaica.&lt;br&gt;&lt;span style="color: #33CC33;"&gt; (D) Nó mở cửa sáu tháng trước. &lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -2917,9 +2527,6 @@
     <t>It opened six months ago.</t>
   </si>
   <si>
-    <t>192. According to the article, what is the most popular menu item at Orange Bay Kitchen?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: red;"&gt;192. Theo bài báo, món nào được yêu thích nhất trong thực đơn tại Orange Bay Kitchen? &lt;/span&gt;&lt;br&gt;(A) Cá hồng&lt;br&gt;(B) Súp đuôi bò&lt;br&gt;&lt;span style="color: red;"&gt; (C) Gà nướng&lt;/span&gt;&lt;br&gt;(D) Dê cà ri&lt;/p&gt;</t>
   </si>
   <si>
@@ -2935,9 +2542,6 @@
     <t>Curried goat</t>
   </si>
   <si>
-    <t>193. What is suggested about Ms. Peterkin's visit to Orange Bay Kitchen?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #0033FF;"&gt;193. Điều gì được gợi ý về chuyến thăm của cô Peterkin tới Orange Bay Kitchen? &lt;/span&gt;&lt;br&gt;&lt;span style="color: #0033FF;"&gt; (A) Cô ấy đã ở đó vào thứ Sáu. &lt;/span&gt;&lt;br&gt;(B) Cô ấy ăn tối một mình.&lt;br&gt;(C) Cô ấy yêu cầu thêm cơm.&lt;br&gt;(D) Cô ấy gọi món tráng miệng.&lt;/p&gt;</t>
   </si>
   <si>
@@ -2953,9 +2557,6 @@
     <t>She ordered dessert.</t>
   </si>
   <si>
-    <t>194. What is a purpose of the e-mail?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #CC6600;"&gt;194. Mục đích của e-mail là gì? &lt;/span&gt;&lt;br&gt;(A) Để trả lời một câu hỏi&lt;br&gt;&lt;span style="color: #CC6600;"&gt; (B) Để đưa ra lời xin lỗi&lt;/span&gt;&lt;br&gt;(C) Để yêu cầu phản hồi&lt;br&gt;(D) Để xác nhận việc đặt chỗ&lt;/p&gt;</t>
   </si>
   <si>
@@ -2971,9 +2572,6 @@
     <t>To confirm a reservation</t>
   </si>
   <si>
-    <t>195. Whom did Ms. Peterkin meet at Orange Bay Kitchen?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #9966FF;"&gt;195. Cô Peterkin đã gặp ai ở Orange Bay Kitchen? &lt;/span&gt;&lt;br&gt;(A) Cô Roats&lt;br&gt;(B) Ông Deslandes&lt;br&gt;&lt;span style="color: #9966FF;"&gt; (C) Ông Brown&lt;/span&gt;&lt;br&gt;(D) Cô Smith&lt;/p&gt;</t>
   </si>
   <si>
@@ -2989,9 +2587,6 @@
     <t>Ms. Smith</t>
   </si>
   <si>
-    <t>196. What does the invoice suggest about Green Canyon?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #33CC33;"&gt;196. Hóa đơn gợi ý gì về Green Canyon? &lt;/span&gt;&lt;br&gt;&lt;span style="color: #33CC33;"&gt; (A) Nó thực hiện các dự án cảnh quan. &lt;/span&gt;&lt;br&gt;(B) Nó thiết kế đường cao tốc.&lt;br&gt;(C) Nó sửa chữa những ngôi nhà cũ.&lt;br&gt;(D) Nó điều hành một trang trại.&lt;/p&gt;</t>
   </si>
   <si>
@@ -3007,9 +2602,6 @@
     <t>It operates a farm.</t>
   </si>
   <si>
-    <t>197. Why most likely did Green Canyon receive a discount on its order dated June 10?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: red;"&gt;197. Tại sao rất có thể Green Canyon nhận được giảm giá cho đơn đặt hàng vào ngày 10 tháng 6? &lt;/span&gt;&lt;br&gt;(A) Đó là một tổ chức từ thiện.&lt;br&gt;(B) Nó thuộc về Câu lạc bộ người mua thường xuyên.&lt;br&gt;&lt;span style="color: red;"&gt; (C) Nó đã chi hơn 4.000 đô la cho hàng hóa. &lt;/span&gt;&lt;br&gt;(D) Nó nằm gần Nhà phân phối Orbys&lt;/p&gt;</t>
   </si>
   <si>
@@ -3025,9 +2617,6 @@
     <t>It is located near an Orbys Distributors supply center.</t>
   </si>
   <si>
-    <t>198. According to the notice, what is changing at Orbys Distributors?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #0033FF;"&gt;198. Theo thông báo, tại Nhà phân phối Orbys có gì thay đổi? &lt;/span&gt;&lt;br&gt;(A) Địa chỉ email của nó&lt;br&gt;(B) Danh sách các ưu đãi của nó&lt;br&gt;&lt;span style="color: #0033FF;"&gt; (C) Hệ thống lập hóa đơn của nó&lt;/span&gt;&lt;br&gt;(D) Lịch trình giao hàng của nó&lt;/p&gt;</t>
   </si>
   <si>
@@ -3043,9 +2632,6 @@
     <t>Its delivery schedule</t>
   </si>
   <si>
-    <t>199. What is suggested about Mr. Tesoriero?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #CC6600;"&gt;199. Điều gì được gợi ý về ông Tesoriero? &lt;/span&gt;&lt;br&gt;(A) Anh ấy yêu cầu được gặp ông Singh.&lt;br&gt;(B) Anh ấy quan tâm đến việc làm tại Nhà phân phối Orbys.&lt;br&gt;(C) Gần đây anh ấy đã đặt hàng một số&lt;br&gt;máy móc xây dựng.&lt;br&gt;&lt;span style="color: #CC6600;"&gt; (D) Anh ấy đã là khách hàng của Nhà phân phối Orbys trong khoảng hai mươi năm. &lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -3061,9 +2647,6 @@
     <t>He has been a customer of Orbys Distributors for about twenty years.</t>
   </si>
   <si>
-    <t>200. What does Mr. Singh ask Ms. Peterson to do?</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="color: #9966FF;"&gt;200. Ông Singh yêu cầu cô Peterson làm gì? &lt;/span&gt;&lt;br&gt;LÀM?&lt;br&gt;(A) Thực hiện thanh toán hóa đơn&lt;br&gt;&lt;span style="color: #9966FF;"&gt; (B) Giải quyết một vấn đề&lt;/span&gt;&lt;br&gt;(C) Xác nhận đơn hàng&lt;br&gt;(D) Cập nhật số tài khoản&lt;/p&gt;</t>
   </si>
   <si>
@@ -3439,45 +3022,489 @@
     <t>&lt;p&gt;Bản dịch:&lt;br&gt;Aparna Kothari, Người liên hệ truyền thông&lt;br&gt;Yến Sào Nhà Bếp&lt;br&gt;akothari@kitchenswifts.com.au&lt;/p&gt;&lt;p&gt;ĐỂ PHÁT HÀNH NGAY LẬP TỨC&lt;/p&gt;&lt;p&gt;&lt;span style="color: #CC6600;"&gt;SYDNEY&lt;/span&gt; (4 tháng 6)- &lt;span style="color: #33CC33;"&gt;Kitchen Swifts và Chef Darius Cordero đang cùng nhau hợp tác để mang đến cho những người đầu bếp tại gia một trải nghiệm ẩm thực mới&lt;/span&gt;. Đầu bếp từng đoạt giải thưởng là chủ sở hữu của các nhà hàng ở cả Philippines và Úc, &lt;span style="color: #CC6600;"&gt;bao gồm cả Enriqua’s mới mở gần đây&lt;/span&gt;. Anh ấy nói rằng cách nấu ăn của anh ấy &lt;span style="color: red;"&gt;phản ánh&lt;/span&gt; di sản Philippines của anh ấy, là sự pha trộn của nhiều nền văn hóa.&lt;/p&gt;&lt;p&gt;Ông nói: “Tôi đã thiết kế những công thức đơn giản hóa này cho Kitchen Swifts để những người nấu ăn tại nhà có thể dễ dàng thưởng thức những hương vị mới và thú vị”. “Khi chuẩn bị và ăn những bữa ăn này, bạn có thể cảm thấy như đang cùng tôi đi du lịch khắp thế giới.”&lt;/p&gt;&lt;p&gt;Zahra Chambers, phó chủ tịch Kitchen Swifts, cho biết cô rất vui khi được làm việc với Chef Cordero và cung cấp các công thức nấu ăn mới ngon miệng cho khách hàng của họ. &lt;span style="color: #0033FF;"&gt;Kitchen Swifts cung cấp thực đơn, công thức nấu ăn và nguyên liệu cho hai người, bốn người hoặc sáu người, bao gồm nhiều lựa chọn ăn chay. Khách hàng lựa chọn những bữa ăn phù hợp nhất và sau đó một hộp sẽ được giao hàng tuần&lt;/span&gt;. Khách hàng hiện tại sẽ không thấy giá tăng khi hợp tác. Để tìm hiểu thêm, hãy truy cập trang web Kitchen Swifts tại www.kitchenswifts.com.au.&lt;br&gt;—————————————————————————————————&lt;/p&gt;&lt;p&gt;(https://www.sydneyrestaurants.com.au)&lt;/p&gt;&lt;p&gt;&lt;span style="color: #CC6600;"&gt;Một đồng nghiệp đã sắp xếp cho chúng tôi đi ăn ở Enriqua’s khi tôi đang tham dự một hội nghị ở Sydney&lt;/span&gt;. &lt;span style="color: #9966FF;"&gt;Nó thường được đặt kín chỗ cho bữa tối; bạn có thể cần phải gọi trước nhiều tháng để có bàn&lt;/span&gt;. Thay vào đó chúng tôi đã có một bữa trưa tuyệt vời ở đó. Mọi thứ đều ngon, bánh mì và món tráng miệng được nướng tại chỗ! Đó là một bữa tiệc đáng giá trước khi tôi bay trở lại Hồng Kông.&lt;/p&gt;&lt;p&gt;-Meili Guan&lt;/p&gt;</t>
   </si>
   <si>
-    <t>https://zenlishtoeic.vn/wp-content/uploads/2024/01/zenlish-176-180-1.jpg</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Bản dịch:&lt;br&gt;Tới: laura.savard@orbitmail.scot&lt;br&gt;Từ: cboyle@ceoleire.co.uk&lt;br&gt;Ngày: 25 tháng 5&lt;br&gt;Tiêu đề: RE: Một số gợi ý&lt;/p&gt;&lt;p&gt;Kính gửi bà Savard,&lt;br&gt;&lt;span style="color: #CC6600;"&gt;Cảm ơn bạn đã đề nghị nhận đơn đặt hàng trực tuyến từ cửa hàng của tôi&lt;/span&gt; hoặc trả thêm tiền cho việc vận chuyển bằng đường hàng không hoặc tàu hỏa. Cả hai sự sắp xếp đều không cần thiết vì tôi rất vui được tự mình giao hàng cho bạn ở Stranraer. &lt;span style="color: red;"&gt;Tình cờ là chị gái tôi và các con chị ấy sống gần Kirkcolm&lt;/span&gt;. &lt;span style="color: #33CC33;"&gt;Trước khi gặp họ, tôi sẽ lái chiếc xe thuê của mình đến nhà bạn và giao đồ tận tay cho bạn. &lt;/span&gt;&lt;/p&gt;&lt;p&gt;Như bạn đã biết, hàng hóa của tôi được làm thủ công 100%.&lt;span style="color: #0033FF;"&gt;Nếu có bất kỳ hư hỏng nào xảy ra trong quá trình vận chuyển, việc sửa chữa sẽ trở thành một thử thách tốn kém và tốn thời gian. Trong những năm qua, tôi đã chứng kiến quá nhiều thiệt hại do những người xử lý hành lý thiếu chú ý gây ra&lt;/span&gt;. Chính sách của tôi là giao hàng tận nơi bất cứ khi nào khả thi hoặc thuê dịch vụ chuyển phát nhanh trên mặt đất hoặc trên biển mà tôi tin tưởng.&lt;/p&gt;&lt;p&gt;Tôi mong được gặp bạn vào ngày 5 tháng 6. Tôi dự kiến sẽ đến nhà bạn không muộn hơn 5 giờ chiều.&lt;/p&gt;&lt;p&gt;Trân trọng,&lt;/p&gt;&lt;p&gt;&lt;span style="color: #CC6600;"&gt;Conor Boyle&lt;/span&gt;&lt;br&gt;Ceoleire Classics&lt;/p&gt;&lt;p&gt;&lt;span style="color: #9966FF;"&gt;Dịch vụ phà Bắc Ireland&lt;/span&gt;&lt;/p&gt;&lt;p&gt;Ngày phát hành: 26 tháng 5&lt;br&gt;&lt;span style="color: #CC6600;"&gt;Tên hành khách: Conor Boyle&lt;/span&gt;&lt;/p&gt;&lt;p&gt;Khởi hành từ Belfast: Thứ Sáu, ngày 5 tháng 6, 1:05 chiều&lt;br&gt;&lt;span style="color: #9966FF;"&gt;Cập bến Cairnryan: &lt;/span&gt; Thứ Sáu, ngày 5 tháng 6, 3:20 chiều&lt;/p&gt;&lt;p&gt;&lt;span style="color: #CC6600;"&gt;Hành lý : 1 vali (nhỏ), 2 hộp đựng nhạc cụ (1 đàn mandolin, 1 guitar) &lt;/span&gt;&lt;br&gt;Phương tiện vận chuyển: Không&lt;/p&gt;&lt;p&gt;Hạng tiêu chuẩn dành cho người lớn: £55,00&lt;/p&gt;&lt;p&gt;Vui lòng đến 30 phút trước khi khởi hành.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>https://zenlishtoeic.vn/wp-content/uploads/2024/01/zenlish-181-185-1.jpg</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Bản dịch:&lt;br&gt;Rèn luyện để đạt được (TTA) -Các lớp học của chúng tôi chuẩn bị cho bạn thành công!&lt;br&gt;Được giới thiệu trong bản tin Định hướng kinh doanh mới nhất của Nigeria, Train to Đạt (TTA) là một trong những nhà cung cấp đào tạo sáng tạo nhất ở Tây Phi. Bằng cách cung cấp các lớp học hoàn toàn theo hình thức trực tuyến, chúng tôi mang lớp học đến tận nhà bạn. &lt;span style="color: #33CC33;"&gt;Tất cả các lớp học đều bao gồm hướng dẫn cá nhân hóa và được giảng dạy bởi các chuyên gia được công nhận trong lĩnh vực tương ứng của họ&lt;/span&gt;. &lt;span style="color: red;"&gt;Sau khi hoàn thành thành công lớp học, bạn sẽ nhận được Chứng chỉ Đào tạo chính thức, một sự bổ sung có giá trị cho bất kỳ sơ yếu lý lịch nào&lt;/span&gt;. Để biết danh sách đầy đủ về học phí và lịch học, hãy truy cập trang web của chúng tôi tại www.traintoachieve.org.ng. Sau đây là một số lớp học phổ biến nhất của chúng tôi.&lt;/p&gt;&lt;p&gt;Giới thiệu về Tiếp thị truyền thông xã hội (TTA 1504): Được giảng dạy bởi nhà tư vấn tiếp thị Marcus Akpan, lớp học trang bị cho bạn bí quyết quảng bá doanh nghiệp của bạn trực tuyến.&lt;/p&gt;&lt;p&gt;Trở thành Nhà văn tự do thành công (TTA3283): Nhà văn kinh doanh Brenda Akande cung cấp cho bạn hướng dẫn chuyên môn về cách trau dồi kỹ năng viết và bán dịch vụ viết lách của bạn.&lt;/p&gt;&lt;p&gt;Khởi động Đài phát thanh Internet (TTA7629): Người dẫn chương trình phát thanh trực tuyến Natalie Kabiru chỉ cho bạn cách thu hút thị trường mục tiêu và đưa ra các mẹo thiết thực để thiết lập dịch vụ phát sóng của bạn.&lt;/p&gt;&lt;p&gt;Khái niệm cơ bản về Thiết kế Đồ họa (TTA7633): Nhà thiết kế đồ họa kỳ cựu Doug Umaru giúp bạn có được những kỹ năng cơ bản cần thiết để bắt đầu kinh doanh thiết kế đồ họa.&lt;/p&gt;&lt;p&gt;&lt;span style="color: #0033FF;"&gt;Diễn đàn thảo luận dành cho học viên đăng ký khóa học Train to Đạt lớp TTA 1504&lt;/span&gt;&lt;/p&gt;&lt;p&gt;Đăng vào: 21 tháng 5, 9:41 sáng .&lt;br&gt;Đăng bởi: Joseph Egbe&lt;br&gt;Chủ đề: Thuyết trình&lt;/p&gt;&lt;p&gt;Xem danh sách học viên đăng ký lớp này, tôi nhớ đã trò chuyện với một số bạn trên diễn đàn về lớp thiết kế poster tháng 1. Tôi mong được chia sẻ kinh nghiệm học tập của chúng tôi một lần nữa cho lớp học này. &lt;span style="color: #CC6600;"&gt;Hôm qua, tôi là sinh viên thứ hai gặp ông Akpan trong một cuộc hội thảo truyền hình cá nhân về công việc kinh doanh của tôi. Tôi sở hữu một xe bán thức ăn nơi tôi bán đồ nướng và khi tôi chia sẻ với ông Akpan về bố cục trang web của mình&lt;/span&gt;, &lt;span style="color: #9966FF;"&gt;ông ấy đề nghị tôi thêm một phần có hình ảnh sống động về tất cả các món nướng của tôi. Đó là lời khuyên hữu ích. &lt;/span&gt;&lt;/p&gt;&lt;p&gt;Egbe’s Bakery-Hương vị nướng độc đáo trong từng miếng ăn!&lt;/p&gt;&lt;p&gt;• Phần 1: Khám phá thực đơn và bảng giá&lt;br&gt;• &lt;span style="color: #9966FF;"&gt;Phần 2: Xem ảnh các món ngon của chúng tôi&lt;/span&gt;&lt;br&gt;• Phần 3: Tìm hiểu về dịch vụ ăn uống của chúng tôi&lt;br&gt;• Mục 4: Xem danh sách thành phần&lt;/p&gt;</t>
   </si>
   <si>
-    <t>https://zenlishtoeic.vn/wp-content/uploads/2024/01/zenlish-186-190-1.jpg</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Bản dịch:&lt;br&gt;Caribbean  Flavours Abound&lt;/p&gt;&lt;p&gt;Bởi Rebecca Roats&lt;/p&gt;&lt;p&gt;NOTTINGHAM (ngày 1 tháng 8) –&lt;span style="color: #33CC33;"&gt;Orange Bay Kitchen đã phục vụ hương vị Jamaica trong bầu không khí thoải mái của vùng Caribe trong sáu tháng nay&lt;/span&gt;. Được quản lý bởi Keron Deslandes, nhà hàng 150 chỗ ngồi là một viên ngọc thơm giữa các cửa hàng và quán ăn nhộn nhịp ở Quảng trường Wester. Các máy chủ luôn sẵn lòng giúp thực khách lựa chọn trong số nhiều món ngon trên thực đơn phong phú, bao gồm cà ri dê, súp đuôi bò và cá hồng. &lt;span style="color: red;"&gt;Nhà hàng nổi tiếng nhất với món gà nướng. Được ướp trong 24 giờ trước khi nướng và ăn kèm với bắp cải hầm và cơm dừa, món ăn này có giá £12. &lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color: #0033FF;"&gt;Nếu bạn ghé qua vào bất kỳ tối thứ Sáu nào từ 7 đến 11 giờ tối, bạn sẽ được thưởng thức nhạc reggae trực tiếp. &lt;/span&gt;&lt;/p&gt;&lt;p&gt;[ https://www.dinerreviews.co.uk/orangebaykitchen]&lt;/p&gt;&lt;p&gt;Đăng vào ngày 22 tháng 8 bởi Tamika Peterkin, tpeterkin@sunmail.co.uk Orange Bay Kitchen: 2/5 Sao&lt;br&gt;&lt;span style="color: #0033FF;"&gt;Sau khi đọc một bài viết hay về Orange Bay Kitchen của Rebecca Roats, tôi rất háo hức muốn thử địa điểm này&lt;/span&gt;. Chồng tôi và tôi đến đó lúc 7 giờ tối ngày hôm qua, muốn thưởng thức nhạc sống trong bữa tối của chúng tôi. &lt;span style="color: #0033FF;"&gt;Thật không may, buổi biểu diễn tối hôm đó của ban nhạc đã bị hủy bỏ&lt;/span&gt;. Không nản lòng, chúng tôi ở lại và cả hai gọi món gà giật. Trong khi hương vị khói của gà rất nổi bật thì bắp cải hầm lại thiếu hương vị. Ngoài ra, kích thước phần ăn nhỏ hơn chúng tôi dự đoán, vì vậy chúng tôi đã gọi một món khai vị khác để tránh bị đói khi về nhà. Đầu bếp trưởng đã đến xin lỗi và cực kỳ tốt bụng, nhưng có lẽ chúng tôi sẽ không quay lại sớm.&lt;/p&gt;&lt;p&gt;Tới: tpeterkin@sunmail.co.uk&lt;br&gt;Từ: vsmith @orangebaykitchen.co. Vương quốc Anh&lt;br&gt;Ngày: 24 tháng 8&lt;br&gt;Chủ đề: Đánh giá của bạn@ 0258&lt;/p&gt;&lt;p&gt;Thưa cô Peterkin,&lt;br&gt;Cảm ơn bạn đã ghé thăm Orange Bay Kitchen và để lại nhận xét. Người quản lý của chúng tôi, Keron Deslandes, đã kể cho tôi nghe nhiều hơn về chuyến thăm của bạn và việc chúng tôi không đáp ứng được mong đợi của bạn tối hôm đó. &lt;span style="color: #CC6600;"&gt;Vui lòng nhận phiếu quà tặng trị giá £20 đính kèm; Tôi hy vọng bạn sẽ cho chúng tôi 1 cơ hội nữa. &lt;/span&gt;&lt;/p&gt;&lt;p&gt;Trong chuyến thăm của bạn, ban nhạc của chúng tôi đã gặp trục trặc về thiết bị, đó là nguyên nhân dẫn đến việc hủy bỏ vào phút cuối. Tuy nhiên, ban nhạc sẽ trở lại biểu diễn hàng tuần bắt đầu từ tháng 9. &lt;span style="color: #9966FF;"&gt;Ngoài ra, tôi muốn bạn biết rằng Bếp trưởng Adio Brown đã thay đổi loại gia vị mà ông ấy sử dụng trong món bắp cải hầm&lt;/span&gt;. Tôi chắc chắn bạn sẽ thấy chúng thú vị.&lt;/p&gt;&lt;p&gt;Trân trọng,&lt;/p&gt;&lt;p&gt;Yea Smith, Chủ sở hữu&lt;br&gt;Orange Bay Kitchen&lt;/p&gt;</t>
   </si>
   <si>
-    <t>https://zenlishtoeic.vn/wp-content/uploads/2024/01/zenlish-191-195-1.jpg</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Bản dịch:&lt;br&gt;Nhà phân phối Orbys&lt;/p&gt;&lt;p&gt;Khách hàng: Green Canyon Ngày: 10 tháng 6&lt;br&gt;Tài khoản: 4352-0&lt;/p&gt;&lt;p&gt;Sản phẩm                                          Giá mặt hàng&lt;br&gt;&lt;span style="color: #33CC33;"&gt;Đất vườn&lt;/span&gt;, 33 mét khối                  $1.170,00&lt;br&gt;&lt;span style="color: #33CC33;"&gt;Sỏi dăm&lt;/span&gt;, 30 tấn                                 1.710,00&lt;br&gt;&lt;span style="color: #33CC33;"&gt;Đá trang trí&lt;/span&gt;, 20 tấn                           1.140,00&lt;br&gt;&lt;span style="color: #33CC33;"&gt;70 lát nền&lt;/span&gt; · 0,6 x 0,6 mét —–·        630,00&lt;br&gt;Tổng cộng                                         4.650 .00&lt;/p&gt;&lt;p&gt;&lt;span style="color: red;"&gt;Giảm giá (10%)&lt;/span&gt;                                 465.00&lt;br&gt;Phí giao hàng                                    350,00&lt;br&gt;Tổng cộng                                         4.535,00&lt;/p&gt;&lt;p&gt;Vui lòng xem thông báo đính kèm nêu rõ những thay đổi quan trọng đối với việc thanh toán của bạn.&lt;/p&gt;&lt;p&gt;Nhà phân phối Orbys&lt;/p&gt;&lt;p&gt;Kính gửi quý khách hàng:&lt;br&gt;&lt;span style="color: #CC6600;"&gt;Hệ thống lập hóa đơn hiện tại của chúng tôi đã được sử dụng kể từ khi Nhà phân phối Orbys được thành lập hơn hai mươi năm trước&lt;/span&gt;. &lt;span style="color: #0033FF;"&gt;Là một bản nâng cấp rất cần thiết, chúng tôi đang chuyển sang hóa đơn điện tử. Bắt đầu từ ngày 1 tháng 8, hóa đơn sẽ được tạo tự động mỗi tháng và sẽ được gửi đến địa chỉ email được liên kết với tài khoản của công ty bạn. &lt;/span&gt;&lt;/p&gt;&lt;p&gt;Hãy yên tâm rằng các ưu đãi lâu dài của chúng tôi vẫn được giữ nguyên:&lt;/p&gt;&lt;p&gt;• &lt;span style="color: red;"&gt;Giảm giá 10°/o cho đơn hàng trên 4.000 USD&lt;/span&gt;&lt;br&gt;• Giảm giá 20°/o cho các tổ chức từ thiện&lt;br&gt;• Giao hàng miễn phí tới các địa điểm trong phạm vi 5 dặm từ một trong các nguồn cung cấp của chúng tôi&lt;br&gt;trung tâm&lt;br&gt;• Mẫu miễn phí dành cho thành viên Câu lạc bộ Người mua thường xuyên của chúng tôi&lt;/p&gt;&lt;p&gt;Thông tin thêm về quá trình chuyển đổi sang hóa đơn điện tử có sẵn trên trang web của chúng tôi. Cảm ơn sự hỗ trợ của bạn. Nhà phân phối của Orbys đánh giá cao hoạt động kinh doanh của bạn.&lt;/p&gt;&lt;p&gt;Kính gửi: Mary Peterson, Phòng Thanh toán&lt;br&gt;Từ: Tanvir Singh, Giám đốc tài khoản&lt;br&gt;Ngày: 12 tháng 9&lt;br&gt;Chủ đề: Tài khoản 1012-4&lt;/p&gt;&lt;p&gt;Xin chào mary,&lt;/p&gt;&lt;p&gt;Hôm nay tôi đã nhận được câu hỏi từ William Tesoriero tại Tesoriero Remodeling. Hóa đơn hàng tháng của anh ấy cho tháng 8 không bao giờ đến.&lt;/p&gt;&lt;p&gt;&lt;span style="color: #CC6600;"&gt;Như bạn đã biết, ông Tesoriero là một trong những khách hàng đầu tiên của chúng tôi. Kể từ khi chúng tôi mới mở cửa kinh doanh, anh ấy đã thường xuyên mua hàng từ chúng tôi&lt;/span&gt;. Anh ấy cũng là thành viên của Câu lạc bộ Người mua thường xuyên. Đây là khách hàng mà chúng tôi tuyệt đối không muốn mất. Tôi giải thích với anh ấy rằng việc triển khai hệ thống hóa đơn điện tử của chúng tôi không diễn ra suôn sẻ như chúng tôi mong đợi và hứa rằng điều này sẽ không xảy ra nữa.&lt;/p&gt;&lt;p&gt;&lt;span style="color: #9966FF;"&gt;Tôi sẽ đánh giá cao nếu bạn có thể vui lòng điều tra vấn đề ngay lập tức và gửi&lt;br&gt;hóa đơn tháng 8 cho ông Tesoriero. &lt;/span&gt;&lt;/p&gt;&lt;p&gt;Tanvir&lt;/p&gt;</t>
   </si>
   <si>
-    <t>https://zenlishtoeic.vn/wp-content/uploads/2024/01/zenlish-196-200-1.jpg</t>
-  </si>
-  <si>
     <t>partNumber</t>
+  </si>
+  <si>
+    <t>Former Sendai Company CEO Ken Nakata spoke about__________career experiences.</t>
+  </si>
+  <si>
+    <t>Passengers who will be taking a_________domestic flight should go to Terminal A.</t>
+  </si>
+  <si>
+    <t>Fresh and_________apple-cider donuts are available at Oakcrest Orchard’s retail shop for £6 per dozen.</t>
+  </si>
+  <si>
+    <t>Zahn Flooring has the widest selection of ______________in the United Kingdom</t>
+  </si>
+  <si>
+    <t>One responsibility of the IT department is to ensure that the company is using____________software.</t>
+  </si>
+  <si>
+    <t>It is wise to check a company’s dress code _______________visiting its head office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wexler Store’s management team expects that employees will___________support any new hires. </t>
+  </si>
+  <si>
+    <t>Wheel alignments and brake system__________ are part of our vehicle service plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Registration for the Marketing Coalition Conference is now open_________September 30</t>
+  </si>
+  <si>
+    <t>Growth in the home entertainment industry has been___________this quarter</t>
+  </si>
+  <si>
+    <t>Hawson Furniture will be making__________on the east side of town on Thursday.</t>
+  </si>
+  <si>
+    <t>The Marlton City Council does not have the authority to__________parking on city streets</t>
+  </si>
+  <si>
+    <t>Project Earth Group is_________for ways to reduce transport-related greenhouse gas emissions.</t>
+  </si>
+  <si>
+    <t>Our skilled tailors are happy to design a custom-made suit that fits your style and budget_____________.</t>
+  </si>
+  <si>
+    <t>Project manager Hannah Chung has proved to be very__________with completing company projects</t>
+  </si>
+  <si>
+    <t>Lehua Vacation Club members will receive double points_________ the month of August at participating hotels.</t>
+  </si>
+  <si>
+    <t>The costumes were not received_________ enough to be used in the first dress rehearsal.</t>
+  </si>
+  <si>
+    <t>The northbound lane on Davis street will be___________closed because of the city’s bridge reinforcement project.</t>
+  </si>
+  <si>
+    <t>Airline representatives must handle a wide range of passenger issues,_____________missed connections to lost luggage.</t>
+  </si>
+  <si>
+    <t>The current issue of Farming Scene magazine predicts that the price of corn will rise 5 percent over the_____________year.</t>
+  </si>
+  <si>
+    <t>Anyone who still____________to take the fire safety training should do so before the end of the month.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Emerging technologies have_________begun to transform the shipping industry in ways that were once unimaginable</t>
+  </si>
+  <si>
+    <t>The company handbook outlines the high ____________that employees are expected to meet every day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Because__________of the board members have scheduling conflicts, the board meeting will be moved to a date when all can attend.</t>
+  </si>
+  <si>
+    <t>The project _____________the collaboration of several teams across the company.</t>
+  </si>
+  <si>
+    <t>__________the closure of Verdigold Transport Services, we are looking for a new shipping company.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The_________information provided by Uniss Bank’s brochure helps applicants understand the terms of their loans.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dv7574j3j/image/upload/v1746026026/question_176-180_rccmdl.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dv7574j3j/image/upload/v1746026026/question181-185_ireihp.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dv7574j3j/image/upload/v1746026026/question186-190_rojrcg.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dv7574j3j/image/upload/v1746026026/question196-200_rhtwcu.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dv7574j3j/image/upload/v1746026027/question191-195_iwixwa.png</t>
+  </si>
+  <si>
+    <t>What event does the woman mention?</t>
+  </si>
+  <si>
+    <t>What does the woman ask for?</t>
+  </si>
+  <si>
+    <t>What does the man recommend doing?</t>
+  </si>
+  <si>
+    <t>What department do the speakers most likely work in?</t>
+  </si>
+  <si>
+    <t>What problem does the woman mention?</t>
+  </si>
+  <si>
+    <t>What does the man say he will do?</t>
+  </si>
+  <si>
+    <t>What industry do the speakers most likely work in?</t>
+  </si>
+  <si>
+    <t>What is the reason for a delay?</t>
+  </si>
+  <si>
+    <t>Why is the woman at the restaurant?</t>
+  </si>
+  <si>
+    <t>What does the woman mean when she says, “it’s very hot today”?</t>
+  </si>
+  <si>
+    <t>What does the man say about a parking garage?</t>
+  </si>
+  <si>
+    <t>Where does the woman most likely work?</t>
+  </si>
+  <si>
+    <t>What does Murat ask about?</t>
+  </si>
+  <si>
+    <t>What does the woman suggest doing?</t>
+  </si>
+  <si>
+    <t>What type of industry do the speakers most likely work in?</t>
+  </si>
+  <si>
+    <t>What business challenge are the speakers discussing?</t>
+  </si>
+  <si>
+    <t>Why is the man calling?</t>
+  </si>
+  <si>
+    <t>What does the man say a client is interested in doing?</t>
+  </si>
+  <si>
+    <t>What does the woman ask the man to send?</t>
+  </si>
+  <si>
+    <t>Where do the speakers most likely work?</t>
+  </si>
+  <si>
+    <t>What does the man say he will do next?</t>
+  </si>
+  <si>
+    <t>Why is the man calling the woman?</t>
+  </si>
+  <si>
+    <t>Who most likely is the woman?</t>
+  </si>
+  <si>
+    <t>What will the woman most likely do next?</t>
+  </si>
+  <si>
+    <t>What are the speakers mainly discussing?</t>
+  </si>
+  <si>
+    <t>Why does the woman say, “they also talked about it last year”?</t>
+  </si>
+  <si>
+    <t>What does the woman want to avoid?</t>
+  </si>
+  <si>
+    <t>Who is a gift for?</t>
+  </si>
+  <si>
+    <t>Look at the graphic. What is the price of the item the man recommends?</t>
+  </si>
+  <si>
+    <t>What is the woman going to send to the man?</t>
+  </si>
+  <si>
+    <t>What type of art will be displayed in an exhibit?</t>
+  </si>
+  <si>
+    <t>Look at the graphic. Which piece of artwork will no longer be included?</t>
+  </si>
+  <si>
+    <t>What does the woman say she will do right away?</t>
+  </si>
+  <si>
+    <t>Who most likely are the speakers?</t>
+  </si>
+  <si>
+    <t>Look at the graphic. Which site has already been completed?</t>
+  </si>
+  <si>
+    <t>What does the man suggest focusing on?</t>
+  </si>
+  <si>
+    <t>Who has recorded the message?</t>
+  </si>
+  <si>
+    <t>What are the listeners asked to do?</t>
+  </si>
+  <si>
+    <t>What does the speaker say was mailed last week?</t>
+  </si>
+  <si>
+    <t>What is the topic of the episode?</t>
+  </si>
+  <si>
+    <t>What does the speaker emphasize about some tools?</t>
+  </si>
+  <si>
+    <t>What does the speaker recommend doing every year?</t>
+  </si>
+  <si>
+    <t>Who most likely is the speaker?</t>
+  </si>
+  <si>
+    <t>What will happen at two o’clock?</t>
+  </si>
+  <si>
+    <t>What is Orchid Caretakers?</t>
+  </si>
+  <si>
+    <t>What event is taking place?</t>
+  </si>
+  <si>
+    <t>What does the organization plan to do?</t>
+  </si>
+  <si>
+    <t>What does the speaker encourage the listeners to do?</t>
+  </si>
+  <si>
+    <t>What is the topic of the workshop?</t>
+  </si>
+  <si>
+    <t>What does the speaker imply when he says, “Erina’s at the back of the room”?</t>
+  </si>
+  <si>
+    <t>What will the listeners do next?</t>
+  </si>
+  <si>
+    <t>What is a historical site famous for?</t>
+  </si>
+  <si>
+    <t>Why does the speaker apologize?</t>
+  </si>
+  <si>
+    <t>What does the speaker ask the listeners to do?</t>
+  </si>
+  <si>
+    <t>What is the speaker mainly discussing?</t>
+  </si>
+  <si>
+    <t>What does the speaker imply when he says, “this is a priority”?</t>
+  </si>
+  <si>
+    <t>Where do the listeners most likely work?</t>
+  </si>
+  <si>
+    <t>What is the main purpose of the talk?</t>
+  </si>
+  <si>
+    <t>What does the speaker imply when she says, “That will require management approval”?</t>
+  </si>
+  <si>
+    <t>According to the speaker, what was recently completed?</t>
+  </si>
+  <si>
+    <t>Look at the graphic. Where does the speaker say refreshments will be served?</t>
+  </si>
+  <si>
+    <t>What are the listeners reminded to do?</t>
+  </si>
+  <si>
+    <t>What is the topic of today’s lecture?</t>
+  </si>
+  <si>
+    <t>Look at the graphic. At what depth should samples be collected this month?</t>
+  </si>
+  <si>
+    <t>Wu would excel in the role of event____________</t>
+  </si>
+  <si>
+    <t>Hahm was able to recreate them from memory</t>
+  </si>
+  <si>
+    <t>Jeon.</t>
+  </si>
+  <si>
+    <t>Where is the information most likely found?</t>
+  </si>
+  <si>
+    <t>What kind of item is most likely discussed?</t>
+  </si>
+  <si>
+    <t>What is suggested by the schedule?</t>
+  </si>
+  <si>
+    <t>What is indicated about 11:00 A.M. Winnipeg time?</t>
+  </si>
+  <si>
+    <t>What is indicated about the Bryant Foyer?</t>
+  </si>
+  <si>
+    <t>What is suggested about And ito's?</t>
+  </si>
+  <si>
+    <t>At 1:00 P.M., what does Ms. Chi most likely mean when she writes, ''Sure thing, Mina''?</t>
+  </si>
+  <si>
+    <t>What will happen next?</t>
+  </si>
+  <si>
+    <t>For whom is the notice most likely intended?</t>
+  </si>
+  <si>
+    <t>What does the notice indicate about the weather?</t>
+  </si>
+  <si>
+    <t>What service does the notice mention?</t>
+  </si>
+  <si>
+    <t>Where most likely is the notice posted?</t>
+  </si>
+  <si>
+    <t>What is stated about large bags?</t>
+  </si>
+  <si>
+    <t>In which of the positions marked [1], [2], [3], and [4] does the following sentence best belong? ''Please refrain from making phone calls or texting at all times.''</t>
+  </si>
+  <si>
+    <t>What is the main purpose of the e-mail?</t>
+  </si>
+  <si>
+    <t>What is suggested about Ms. Ayala?</t>
+  </si>
+  <si>
+    <t>What is indicated about the multilayer cake?</t>
+  </si>
+  <si>
+    <t>The word ''judged '' in paragraph 2 , line 3, is closest in meaning to</t>
+  </si>
+  <si>
+    <t>Why did Ms. Yakovleva choose the Dish Magic 300 dishwasher?</t>
+  </si>
+  <si>
+    <t>The word ''running'' in paragraph 1, line 7, is closest in meaning to</t>
+  </si>
+  <si>
+    <t>What is indicated about Ms. Yakovleva?</t>
+  </si>
+  <si>
+    <t>For whom is the information intended?</t>
+  </si>
+  <si>
+    <t>In the information, what is NOT mentioned as being offered to employees?</t>
+  </si>
+  <si>
+    <t>What is mentioned about Skyler Airlines?</t>
+  </si>
+  <si>
+    <t>In which of the positions marked [1], [2], [3], and [4] does the following sentence best belong? ''Our openings cover a broad range of skill sets.''</t>
+  </si>
+  <si>
+    <t>What is indicated about a presentation?</t>
+  </si>
+  <si>
+    <t>At 9:22A.M., what does Ms. Lorenz imply when she writes, ''let's not overlook that''?</t>
+  </si>
+  <si>
+    <t>Who most likely is Mr. Harven?</t>
+  </si>
+  <si>
+    <t>When do the writers plan to meet to review a slide presentation?</t>
+  </si>
+  <si>
+    <t>What is the purpose of the press release?</t>
+  </si>
+  <si>
+    <t>In the press release, the word ''reflects'' in paragraph 1, line 4, is closest in meaning to</t>
+  </si>
+  <si>
+    <t>What is indicated about Kitchen Swifts?</t>
+  </si>
+  <si>
+    <t>What is most likely true about Ms. Guan?</t>
+  </si>
+  <si>
+    <t>What did Ms. Guan suggest about Enriqua's in the review?</t>
+  </si>
+  <si>
+    <t>What is the purpose of the e-mail?</t>
+  </si>
+  <si>
+    <t>Why will Mr. Boyle travel from Stranraer to Kirkcolm?</t>
+  </si>
+  <si>
+    <t>What is indicated in the e-mail?</t>
+  </si>
+  <si>
+    <t>What is most likely true about Ms. Savard?</t>
+  </si>
+  <si>
+    <t>How is Mr. Boyle traveling to Cairnryan on June 5?</t>
+  </si>
+  <si>
+    <t>What is indicated about TTA?</t>
+  </si>
+  <si>
+    <t>According to the advertisement, what does TTA provide to students who finish a class?</t>
+  </si>
+  <si>
+    <t>What is most likely true about Mr. Egbe?</t>
+  </si>
+  <si>
+    <t>What TTA class is Mr. Egbe enrolled in?</t>
+  </si>
+  <si>
+    <t>What section did Mr. Egbe most likely add to the outline after speaking with Mr. Akpan?</t>
+  </si>
+  <si>
+    <t>What does the article mention about Orange Bay Kitchen?</t>
+  </si>
+  <si>
+    <t>According to the article, what is the most popular menu item at Orange Bay Kitchen?</t>
+  </si>
+  <si>
+    <t>What is suggested about Ms. Peterkin's visit to Orange Bay Kitchen?</t>
+  </si>
+  <si>
+    <t>What is a purpose of the e-mail?</t>
+  </si>
+  <si>
+    <t>Whom did Ms. Peterkin meet at Orange Bay Kitchen?</t>
+  </si>
+  <si>
+    <t>What does the invoice suggest about Green Canyon?</t>
+  </si>
+  <si>
+    <t>Why most likely did Green Canyon receive a discount on its order dated June 10?</t>
+  </si>
+  <si>
+    <t>According to the notice, what is changing at Orbys Distributors?</t>
+  </si>
+  <si>
+    <t>What is suggested about Mr. Tesoriero?</t>
+  </si>
+  <si>
+    <t>What does Mr. Singh ask Ms. Peterson to do?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3491,6 +3518,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3536,10 +3571,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3547,8 +3583,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3851,25 +3889,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I168" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q189" sqref="Q189"/>
+    <sheetView tabSelected="1" topLeftCell="I186" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J214" sqref="J214:J382"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="255.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="255.625" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="68.42578125" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="68.375" customWidth="1"/>
+    <col min="6" max="6" width="29.375" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="152.140625" customWidth="1"/>
-    <col min="9" max="9" width="79.7109375" customWidth="1"/>
-    <col min="10" max="10" width="81.42578125" customWidth="1"/>
+    <col min="8" max="8" width="152.125" customWidth="1"/>
+    <col min="9" max="9" width="79.75" customWidth="1"/>
+    <col min="10" max="10" width="81.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3892,19 +3930,19 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1019</v>
+        <v>880</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1020</v>
+        <v>881</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1021</v>
+        <v>882</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -3912,16 +3950,16 @@
         <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>1022</v>
+        <v>883</v>
       </c>
       <c r="J2" t="s">
-        <v>1023</v>
+        <v>884</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -3929,16 +3967,16 @@
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>1024</v>
+        <v>885</v>
       </c>
       <c r="J3" t="s">
-        <v>1025</v>
+        <v>886</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -3946,16 +3984,16 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>1026</v>
+        <v>887</v>
       </c>
       <c r="J4" t="s">
-        <v>1027</v>
+        <v>888</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -3963,16 +4001,16 @@
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>1028</v>
+        <v>889</v>
       </c>
       <c r="J5" t="s">
-        <v>1029</v>
+        <v>890</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -3980,16 +4018,16 @@
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>1030</v>
+        <v>891</v>
       </c>
       <c r="J6" t="s">
-        <v>1031</v>
+        <v>892</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -3997,16 +4035,16 @@
         <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>1032</v>
+        <v>893</v>
       </c>
       <c r="J7" t="s">
-        <v>1033</v>
+        <v>894</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -4014,13 +4052,13 @@
         <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>1034</v>
+        <v>895</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -4028,13 +4066,13 @@
         <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>1035</v>
+        <v>896</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -4042,13 +4080,13 @@
         <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>1036</v>
+        <v>897</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -4056,13 +4094,13 @@
         <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>1037</v>
+        <v>898</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -4070,13 +4108,13 @@
         <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>1038</v>
+        <v>899</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -4084,13 +4122,13 @@
         <v>22</v>
       </c>
       <c r="I13" t="s">
-        <v>1039</v>
+        <v>900</v>
       </c>
       <c r="K13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -4098,13 +4136,13 @@
         <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>1040</v>
+        <v>901</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>7</v>
       </c>
@@ -4112,13 +4150,13 @@
         <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>1041</v>
+        <v>902</v>
       </c>
       <c r="K15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -4126,13 +4164,13 @@
         <v>25</v>
       </c>
       <c r="I16" t="s">
-        <v>1042</v>
+        <v>903</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>19</v>
       </c>
@@ -4140,13 +4178,13 @@
         <v>26</v>
       </c>
       <c r="I17" t="s">
-        <v>1043</v>
+        <v>904</v>
       </c>
       <c r="K17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>19</v>
       </c>
@@ -4154,13 +4192,13 @@
         <v>27</v>
       </c>
       <c r="I18" t="s">
-        <v>1044</v>
+        <v>905</v>
       </c>
       <c r="K18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>13</v>
       </c>
@@ -4168,13 +4206,13 @@
         <v>28</v>
       </c>
       <c r="I19" t="s">
-        <v>1045</v>
+        <v>906</v>
       </c>
       <c r="K19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>7</v>
       </c>
@@ -4182,13 +4220,13 @@
         <v>29</v>
       </c>
       <c r="I20" t="s">
-        <v>1046</v>
+        <v>907</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>13</v>
       </c>
@@ -4196,13 +4234,13 @@
         <v>30</v>
       </c>
       <c r="I21" t="s">
-        <v>1047</v>
+        <v>908</v>
       </c>
       <c r="K21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -4210,13 +4248,13 @@
         <v>31</v>
       </c>
       <c r="I22" t="s">
-        <v>1048</v>
+        <v>909</v>
       </c>
       <c r="K22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>7</v>
       </c>
@@ -4224,13 +4262,13 @@
         <v>32</v>
       </c>
       <c r="I23" t="s">
-        <v>1049</v>
+        <v>910</v>
       </c>
       <c r="K23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>13</v>
       </c>
@@ -4238,13 +4276,13 @@
         <v>33</v>
       </c>
       <c r="I24" t="s">
-        <v>1050</v>
+        <v>911</v>
       </c>
       <c r="K24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>19</v>
       </c>
@@ -4252,13 +4290,13 @@
         <v>34</v>
       </c>
       <c r="I25" t="s">
-        <v>1051</v>
+        <v>912</v>
       </c>
       <c r="K25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>13</v>
       </c>
@@ -4266,13 +4304,13 @@
         <v>35</v>
       </c>
       <c r="I26" t="s">
-        <v>1052</v>
+        <v>913</v>
       </c>
       <c r="K26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>19</v>
       </c>
@@ -4280,13 +4318,13 @@
         <v>36</v>
       </c>
       <c r="I27" t="s">
-        <v>1053</v>
+        <v>914</v>
       </c>
       <c r="K27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>7</v>
       </c>
@@ -4294,13 +4332,13 @@
         <v>37</v>
       </c>
       <c r="I28" t="s">
-        <v>1054</v>
+        <v>915</v>
       </c>
       <c r="K28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>19</v>
       </c>
@@ -4308,13 +4346,13 @@
         <v>38</v>
       </c>
       <c r="I29" t="s">
-        <v>1055</v>
+        <v>916</v>
       </c>
       <c r="K29">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>13</v>
       </c>
@@ -4322,13 +4360,13 @@
         <v>39</v>
       </c>
       <c r="I30" t="s">
-        <v>1056</v>
+        <v>917</v>
       </c>
       <c r="K30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>13</v>
       </c>
@@ -4336,13 +4374,13 @@
         <v>40</v>
       </c>
       <c r="I31" t="s">
-        <v>1057</v>
+        <v>918</v>
       </c>
       <c r="K31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>7</v>
       </c>
@@ -4350,4899 +4388,5251 @@
         <v>41</v>
       </c>
       <c r="I32" t="s">
-        <v>1058</v>
+        <v>919</v>
       </c>
       <c r="K32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>1037</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
       </c>
       <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" t="s">
         <v>43</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>44</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>45</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>46</v>
       </c>
-      <c r="G33" t="s">
-        <v>47</v>
-      </c>
       <c r="H33" t="s">
-        <v>1059</v>
+        <v>920</v>
       </c>
       <c r="I33" t="s">
-        <v>1060</v>
+        <v>921</v>
       </c>
       <c r="K33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
         <v>48</v>
       </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>49</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>50</v>
       </c>
-      <c r="E34" t="s">
+      <c r="G34" t="s">
         <v>51</v>
       </c>
-      <c r="F34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" t="s">
-        <v>53</v>
-      </c>
       <c r="H34" t="s">
-        <v>1059</v>
+        <v>920</v>
       </c>
       <c r="I34" t="s">
-        <v>1060</v>
+        <v>921</v>
       </c>
       <c r="K34">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" t="s">
         <v>54</v>
       </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="F35" t="s">
         <v>55</v>
       </c>
-      <c r="D35" t="s">
+      <c r="G35" t="s">
         <v>56</v>
       </c>
-      <c r="E35" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" t="s">
-        <v>58</v>
-      </c>
-      <c r="G35" t="s">
-        <v>59</v>
-      </c>
       <c r="H35" t="s">
-        <v>1059</v>
+        <v>920</v>
       </c>
       <c r="I35" t="s">
-        <v>1060</v>
+        <v>921</v>
       </c>
       <c r="K35">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>1040</v>
       </c>
       <c r="B36" t="s">
         <v>19</v>
       </c>
       <c r="C36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" t="s">
         <v>61</v>
       </c>
-      <c r="D36" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" t="s">
-        <v>65</v>
-      </c>
       <c r="H36" t="s">
-        <v>1061</v>
+        <v>922</v>
       </c>
       <c r="I36" t="s">
-        <v>1062</v>
+        <v>923</v>
       </c>
       <c r="K36">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>1041</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G37" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H37" t="s">
-        <v>1061</v>
+        <v>922</v>
       </c>
       <c r="I37" t="s">
-        <v>1062</v>
+        <v>923</v>
       </c>
       <c r="K37">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>1042</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D38" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H38" t="s">
-        <v>1061</v>
+        <v>922</v>
       </c>
       <c r="I38" t="s">
-        <v>1062</v>
+        <v>923</v>
       </c>
       <c r="K38">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>1043</v>
       </c>
       <c r="B39" t="s">
         <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E39" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F39" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G39" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H39" t="s">
-        <v>1063</v>
+        <v>924</v>
       </c>
       <c r="I39" t="s">
-        <v>1064</v>
+        <v>925</v>
       </c>
       <c r="K39">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>1044</v>
       </c>
       <c r="B40" t="s">
         <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E40" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s">
-        <v>1063</v>
+        <v>924</v>
       </c>
       <c r="I40" t="s">
-        <v>1064</v>
+        <v>925</v>
       </c>
       <c r="K40">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>1042</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E41" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F41" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G41" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s">
-        <v>1063</v>
+        <v>924</v>
       </c>
       <c r="I41" t="s">
-        <v>1064</v>
+        <v>925</v>
       </c>
       <c r="K41">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>1045</v>
       </c>
       <c r="B42" t="s">
         <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E42" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F42" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G42" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="H42" t="s">
-        <v>1065</v>
+        <v>926</v>
       </c>
       <c r="I42" t="s">
-        <v>1066</v>
+        <v>927</v>
       </c>
       <c r="K42">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>102</v>
+        <v>1046</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F43" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="G43" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="H43" t="s">
-        <v>1065</v>
+        <v>926</v>
       </c>
       <c r="I43" t="s">
-        <v>1066</v>
+        <v>927</v>
       </c>
       <c r="K43">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>1047</v>
       </c>
       <c r="B44" t="s">
         <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E44" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F44" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G44" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="H44" t="s">
-        <v>1065</v>
+        <v>926</v>
       </c>
       <c r="I44" t="s">
-        <v>1066</v>
+        <v>927</v>
       </c>
       <c r="K44">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>1048</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D45" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E45" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F45" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="G45" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="H45" t="s">
-        <v>1067</v>
+        <v>928</v>
       </c>
       <c r="I45" t="s">
-        <v>1068</v>
+        <v>929</v>
       </c>
       <c r="K45">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>120</v>
+        <v>1049</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D46" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E46" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F46" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G46" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="H46" t="s">
-        <v>1067</v>
+        <v>928</v>
       </c>
       <c r="I46" t="s">
-        <v>1068</v>
+        <v>929</v>
       </c>
       <c r="K46">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>1050</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="D47" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E47" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="F47" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="G47" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="H47" t="s">
-        <v>1067</v>
+        <v>928</v>
       </c>
       <c r="I47" t="s">
-        <v>1068</v>
+        <v>929</v>
       </c>
       <c r="K47">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>132</v>
+        <v>1051</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D48" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E48" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="F48" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="G48" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="H48" t="s">
-        <v>1069</v>
+        <v>930</v>
       </c>
       <c r="I48" t="s">
-        <v>1070</v>
+        <v>931</v>
       </c>
       <c r="K48">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>138</v>
+        <v>1052</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D49" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E49" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="F49" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="G49" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="H49" t="s">
-        <v>1069</v>
+        <v>930</v>
       </c>
       <c r="I49" t="s">
-        <v>1070</v>
+        <v>931</v>
       </c>
       <c r="K49">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>144</v>
+        <v>1042</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="D50" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="E50" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="F50" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="G50" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="H50" t="s">
-        <v>1069</v>
+        <v>930</v>
       </c>
       <c r="I50" t="s">
-        <v>1070</v>
+        <v>931</v>
       </c>
       <c r="K50">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>1053</v>
       </c>
       <c r="B51" t="s">
         <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D51" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="E51" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="F51" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="G51" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="H51" t="s">
-        <v>1071</v>
+        <v>932</v>
       </c>
       <c r="I51" t="s">
-        <v>1072</v>
+        <v>933</v>
       </c>
       <c r="K51">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>156</v>
+        <v>1054</v>
       </c>
       <c r="B52" t="s">
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="D52" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="E52" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="F52" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="G52" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="H52" t="s">
-        <v>1071</v>
+        <v>932</v>
       </c>
       <c r="I52" t="s">
-        <v>1072</v>
+        <v>933</v>
       </c>
       <c r="K52">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>162</v>
+        <v>1055</v>
       </c>
       <c r="B53" t="s">
         <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="D53" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="E53" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="F53" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="G53" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="H53" t="s">
-        <v>1071</v>
+        <v>932</v>
       </c>
       <c r="I53" t="s">
-        <v>1072</v>
+        <v>933</v>
       </c>
       <c r="K53">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>168</v>
+        <v>1041</v>
       </c>
       <c r="B54" t="s">
         <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="D54" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="E54" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="F54" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="G54" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="H54" t="s">
-        <v>1073</v>
+        <v>934</v>
       </c>
       <c r="I54" t="s">
-        <v>1074</v>
+        <v>935</v>
       </c>
       <c r="K54">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>174</v>
+        <v>1056</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="D55" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="E55" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="F55" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="G55" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="H55" t="s">
-        <v>1073</v>
+        <v>934</v>
       </c>
       <c r="I55" t="s">
-        <v>1074</v>
+        <v>935</v>
       </c>
       <c r="K55">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>180</v>
+        <v>1057</v>
       </c>
       <c r="B56" t="s">
         <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="D56" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="E56" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="F56" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="G56" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="H56" t="s">
-        <v>1073</v>
+        <v>934</v>
       </c>
       <c r="I56" t="s">
-        <v>1074</v>
+        <v>935</v>
       </c>
       <c r="K56">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>186</v>
+        <v>1058</v>
       </c>
       <c r="B57" t="s">
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="D57" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="E57" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="F57" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="G57" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="H57" t="s">
-        <v>1075</v>
+        <v>936</v>
       </c>
       <c r="I57" t="s">
-        <v>1076</v>
+        <v>937</v>
       </c>
       <c r="K57">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>192</v>
+        <v>1059</v>
       </c>
       <c r="B58" t="s">
         <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="D58" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="E58" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="F58" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="G58" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="H58" t="s">
-        <v>1075</v>
+        <v>936</v>
       </c>
       <c r="I58" t="s">
-        <v>1076</v>
+        <v>937</v>
       </c>
       <c r="K58">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>198</v>
+        <v>1060</v>
       </c>
       <c r="B59" t="s">
         <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="D59" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="E59" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="F59" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="G59" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="H59" t="s">
-        <v>1075</v>
+        <v>936</v>
       </c>
       <c r="I59" t="s">
-        <v>1076</v>
+        <v>937</v>
       </c>
       <c r="K59">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>204</v>
+        <v>1061</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="D60" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="E60" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="F60" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="G60" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="H60" t="s">
-        <v>1077</v>
+        <v>938</v>
       </c>
       <c r="I60" t="s">
-        <v>1078</v>
+        <v>939</v>
       </c>
       <c r="K60">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>210</v>
+        <v>1062</v>
       </c>
       <c r="B61" t="s">
         <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="D61" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="E61" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="F61" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="G61" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="H61" t="s">
-        <v>1077</v>
+        <v>938</v>
       </c>
       <c r="I61" t="s">
-        <v>1078</v>
+        <v>939</v>
       </c>
       <c r="K61">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>216</v>
+        <v>1063</v>
       </c>
       <c r="B62" t="s">
         <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="D62" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="E62" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="F62" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="G62" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="H62" t="s">
-        <v>1077</v>
+        <v>938</v>
       </c>
       <c r="I62" t="s">
-        <v>1078</v>
+        <v>939</v>
       </c>
       <c r="K62">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>222</v>
+        <v>1064</v>
       </c>
       <c r="B63" t="s">
         <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="D63" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="E63" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="F63" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="G63" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="H63" t="s">
-        <v>1079</v>
+        <v>940</v>
       </c>
       <c r="I63" t="s">
-        <v>1080</v>
+        <v>941</v>
       </c>
       <c r="J63" t="s">
-        <v>1081</v>
+        <v>942</v>
       </c>
       <c r="K63">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>228</v>
+        <v>1065</v>
       </c>
       <c r="B64" t="s">
         <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="D64" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="E64" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="F64" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="G64" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="H64" t="s">
-        <v>1079</v>
+        <v>940</v>
       </c>
       <c r="I64" t="s">
-        <v>1080</v>
+        <v>941</v>
       </c>
       <c r="J64" t="s">
-        <v>1081</v>
+        <v>942</v>
       </c>
       <c r="K64">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>234</v>
+        <v>1066</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="D65" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="E65" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="F65" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="G65" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="H65" t="s">
-        <v>1079</v>
+        <v>940</v>
       </c>
       <c r="I65" t="s">
-        <v>1080</v>
+        <v>941</v>
       </c>
       <c r="J65" t="s">
-        <v>1081</v>
+        <v>942</v>
       </c>
       <c r="K65">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>240</v>
+        <v>1067</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="D66" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="E66" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="F66" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="G66" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="H66" t="s">
-        <v>1082</v>
+        <v>943</v>
       </c>
       <c r="I66" t="s">
-        <v>1083</v>
+        <v>944</v>
       </c>
       <c r="J66" t="s">
-        <v>1084</v>
+        <v>945</v>
       </c>
       <c r="K66">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>246</v>
+        <v>1068</v>
       </c>
       <c r="B67" t="s">
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="D67" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="E67" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="F67" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="G67" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="H67" t="s">
-        <v>1082</v>
+        <v>943</v>
       </c>
       <c r="I67" t="s">
-        <v>1083</v>
+        <v>944</v>
       </c>
       <c r="J67" t="s">
-        <v>1084</v>
+        <v>945</v>
       </c>
       <c r="K67">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>252</v>
+        <v>1069</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="D68" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="E68" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="F68" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="G68" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="H68" t="s">
-        <v>1082</v>
+        <v>943</v>
       </c>
       <c r="I68" t="s">
-        <v>1083</v>
+        <v>944</v>
       </c>
       <c r="J68" t="s">
-        <v>1084</v>
+        <v>945</v>
       </c>
       <c r="K68">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>258</v>
+        <v>1070</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="D69" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="E69" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="F69" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="G69" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="H69" t="s">
-        <v>1085</v>
+        <v>946</v>
       </c>
       <c r="I69" t="s">
-        <v>1086</v>
+        <v>947</v>
       </c>
       <c r="J69" t="s">
-        <v>1087</v>
+        <v>948</v>
       </c>
       <c r="K69">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>264</v>
+        <v>1071</v>
       </c>
       <c r="B70" t="s">
         <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="D70" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="E70" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="F70" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="G70" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="H70" t="s">
-        <v>1085</v>
+        <v>946</v>
       </c>
       <c r="I70" t="s">
-        <v>1086</v>
+        <v>947</v>
       </c>
       <c r="J70" t="s">
-        <v>1087</v>
+        <v>948</v>
       </c>
       <c r="K70">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>270</v>
+        <v>1072</v>
       </c>
       <c r="B71" t="s">
         <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="D71" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="E71" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="F71" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G71" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="H71" t="s">
-        <v>1085</v>
+        <v>946</v>
       </c>
       <c r="I71" t="s">
-        <v>1086</v>
+        <v>947</v>
       </c>
       <c r="J71" t="s">
-        <v>1087</v>
+        <v>948</v>
       </c>
       <c r="K71">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>276</v>
+        <v>1073</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="D72" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="E72" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="F72" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="G72" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="H72" t="s">
-        <v>1088</v>
+        <v>949</v>
       </c>
       <c r="I72" t="s">
-        <v>1089</v>
+        <v>950</v>
       </c>
       <c r="K72">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>282</v>
+        <v>1074</v>
       </c>
       <c r="B73" t="s">
         <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="D73" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="E73" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="F73" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="G73" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="H73" t="s">
-        <v>1088</v>
+        <v>949</v>
       </c>
       <c r="I73" t="s">
-        <v>1089</v>
+        <v>950</v>
       </c>
       <c r="K73">
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>288</v>
+        <v>1075</v>
       </c>
       <c r="B74" t="s">
         <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="D74" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="E74" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="F74" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="G74" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="H74" t="s">
-        <v>1088</v>
+        <v>949</v>
       </c>
       <c r="I74" t="s">
-        <v>1089</v>
+        <v>950</v>
       </c>
       <c r="K74">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>294</v>
+        <v>1076</v>
       </c>
       <c r="B75" t="s">
         <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="D75" t="s">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="E75" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="F75" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="G75" t="s">
-        <v>299</v>
+        <v>256</v>
       </c>
       <c r="H75" t="s">
-        <v>1090</v>
+        <v>951</v>
       </c>
       <c r="I75" t="s">
-        <v>1091</v>
+        <v>952</v>
       </c>
       <c r="K75">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>300</v>
+        <v>1077</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="D76" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="E76" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="F76" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="G76" t="s">
-        <v>305</v>
+        <v>261</v>
       </c>
       <c r="H76" t="s">
-        <v>1090</v>
+        <v>951</v>
       </c>
       <c r="I76" t="s">
-        <v>1091</v>
+        <v>952</v>
       </c>
       <c r="K76">
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>306</v>
+        <v>1078</v>
       </c>
       <c r="B77" t="s">
         <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>307</v>
+        <v>262</v>
       </c>
       <c r="D77" t="s">
-        <v>308</v>
+        <v>263</v>
       </c>
       <c r="E77" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="F77" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="G77" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="H77" t="s">
-        <v>1090</v>
+        <v>951</v>
       </c>
       <c r="I77" t="s">
-        <v>1091</v>
+        <v>952</v>
       </c>
       <c r="K77">
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>312</v>
+        <v>1079</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>313</v>
+        <v>267</v>
       </c>
       <c r="D78" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="E78" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="F78" t="s">
-        <v>316</v>
+        <v>270</v>
       </c>
       <c r="G78" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="H78" t="s">
-        <v>1092</v>
+        <v>953</v>
       </c>
       <c r="I78" t="s">
-        <v>1093</v>
+        <v>954</v>
       </c>
       <c r="K78">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>318</v>
+        <v>1080</v>
       </c>
       <c r="B79" t="s">
         <v>19</v>
       </c>
       <c r="C79" t="s">
-        <v>319</v>
+        <v>272</v>
       </c>
       <c r="D79" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="E79" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="F79" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
       <c r="G79" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="H79" t="s">
-        <v>1092</v>
+        <v>953</v>
       </c>
       <c r="I79" t="s">
-        <v>1093</v>
+        <v>954</v>
       </c>
       <c r="K79">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>324</v>
+        <v>1081</v>
       </c>
       <c r="B80" t="s">
         <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="D80" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="E80" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="F80" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="G80" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="H80" t="s">
-        <v>1092</v>
+        <v>953</v>
       </c>
       <c r="I80" t="s">
-        <v>1093</v>
+        <v>954</v>
       </c>
       <c r="K80">
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>330</v>
+        <v>1082</v>
       </c>
       <c r="B81" t="s">
         <v>19</v>
       </c>
       <c r="C81" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="D81" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="E81" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="F81" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="G81" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="H81" t="s">
-        <v>1094</v>
+        <v>955</v>
       </c>
       <c r="I81" t="s">
-        <v>1095</v>
+        <v>956</v>
       </c>
       <c r="K81">
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>336</v>
+        <v>1083</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>337</v>
+        <v>287</v>
       </c>
       <c r="D82" t="s">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="E82" t="s">
-        <v>339</v>
+        <v>289</v>
       </c>
       <c r="F82" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="G82" t="s">
-        <v>341</v>
+        <v>291</v>
       </c>
       <c r="H82" t="s">
-        <v>1094</v>
+        <v>955</v>
       </c>
       <c r="I82" t="s">
-        <v>1095</v>
+        <v>956</v>
       </c>
       <c r="K82">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>342</v>
+        <v>1084</v>
       </c>
       <c r="B83" t="s">
         <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>343</v>
+        <v>292</v>
       </c>
       <c r="D83" t="s">
-        <v>344</v>
+        <v>293</v>
       </c>
       <c r="E83" t="s">
-        <v>345</v>
+        <v>294</v>
       </c>
       <c r="F83" t="s">
-        <v>346</v>
+        <v>295</v>
       </c>
       <c r="G83" t="s">
-        <v>347</v>
+        <v>296</v>
       </c>
       <c r="H83" t="s">
-        <v>1094</v>
+        <v>955</v>
       </c>
       <c r="I83" t="s">
-        <v>1095</v>
+        <v>956</v>
       </c>
       <c r="K83">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>348</v>
+        <v>1085</v>
       </c>
       <c r="B84" t="s">
         <v>19</v>
       </c>
       <c r="C84" t="s">
-        <v>349</v>
+        <v>297</v>
       </c>
       <c r="D84" t="s">
-        <v>350</v>
+        <v>298</v>
       </c>
       <c r="E84" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="F84" t="s">
-        <v>352</v>
+        <v>300</v>
       </c>
       <c r="G84" t="s">
-        <v>353</v>
+        <v>301</v>
       </c>
       <c r="H84" t="s">
-        <v>1096</v>
+        <v>957</v>
       </c>
       <c r="I84" t="s">
-        <v>1097</v>
+        <v>958</v>
       </c>
       <c r="K84">
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>354</v>
+        <v>1086</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
       <c r="D85" t="s">
-        <v>356</v>
+        <v>303</v>
       </c>
       <c r="E85" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
       <c r="F85" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="G85" t="s">
-        <v>359</v>
+        <v>306</v>
       </c>
       <c r="H85" t="s">
-        <v>1096</v>
+        <v>957</v>
       </c>
       <c r="I85" t="s">
-        <v>1097</v>
+        <v>958</v>
       </c>
       <c r="K85">
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>360</v>
+        <v>1087</v>
       </c>
       <c r="B86" t="s">
         <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="D86" t="s">
-        <v>362</v>
+        <v>308</v>
       </c>
       <c r="E86" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="F86" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="G86" t="s">
-        <v>365</v>
+        <v>311</v>
       </c>
       <c r="H86" t="s">
-        <v>1096</v>
+        <v>957</v>
       </c>
       <c r="I86" t="s">
-        <v>1097</v>
+        <v>958</v>
       </c>
       <c r="K86">
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>366</v>
+        <v>1088</v>
       </c>
       <c r="B87" t="s">
         <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>367</v>
+        <v>312</v>
       </c>
       <c r="D87" t="s">
-        <v>368</v>
+        <v>313</v>
       </c>
       <c r="E87" t="s">
-        <v>369</v>
+        <v>314</v>
       </c>
       <c r="F87" t="s">
-        <v>370</v>
+        <v>315</v>
       </c>
       <c r="G87" t="s">
-        <v>371</v>
+        <v>316</v>
       </c>
       <c r="H87" t="s">
-        <v>1098</v>
+        <v>959</v>
       </c>
       <c r="I87" t="s">
-        <v>1099</v>
+        <v>960</v>
       </c>
       <c r="K87">
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>372</v>
+        <v>1089</v>
       </c>
       <c r="B88" t="s">
         <v>19</v>
       </c>
       <c r="C88" t="s">
-        <v>373</v>
+        <v>317</v>
       </c>
       <c r="D88" t="s">
-        <v>374</v>
+        <v>318</v>
       </c>
       <c r="E88" t="s">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="F88" t="s">
-        <v>376</v>
+        <v>320</v>
       </c>
       <c r="G88" t="s">
-        <v>377</v>
+        <v>321</v>
       </c>
       <c r="H88" t="s">
-        <v>1098</v>
+        <v>959</v>
       </c>
       <c r="I88" t="s">
-        <v>1099</v>
+        <v>960</v>
       </c>
       <c r="K88">
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>378</v>
+        <v>1090</v>
       </c>
       <c r="B89" t="s">
         <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>379</v>
+        <v>322</v>
       </c>
       <c r="D89" t="s">
-        <v>380</v>
+        <v>323</v>
       </c>
       <c r="E89" t="s">
-        <v>381</v>
+        <v>324</v>
       </c>
       <c r="F89" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
       <c r="G89" t="s">
-        <v>383</v>
+        <v>326</v>
       </c>
       <c r="H89" t="s">
-        <v>1098</v>
+        <v>959</v>
       </c>
       <c r="I89" t="s">
-        <v>1099</v>
+        <v>960</v>
       </c>
       <c r="K89">
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>384</v>
+        <v>1091</v>
       </c>
       <c r="B90" t="s">
         <v>19</v>
       </c>
       <c r="C90" t="s">
-        <v>385</v>
+        <v>327</v>
       </c>
       <c r="D90" t="s">
-        <v>386</v>
+        <v>328</v>
       </c>
       <c r="E90" t="s">
-        <v>387</v>
+        <v>329</v>
       </c>
       <c r="F90" t="s">
-        <v>388</v>
+        <v>330</v>
       </c>
       <c r="G90" t="s">
-        <v>389</v>
+        <v>331</v>
       </c>
       <c r="H90" t="s">
-        <v>1100</v>
+        <v>961</v>
       </c>
       <c r="I90" t="s">
-        <v>1101</v>
+        <v>962</v>
       </c>
       <c r="K90">
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>390</v>
+        <v>1092</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>391</v>
+        <v>332</v>
       </c>
       <c r="D91" t="s">
-        <v>392</v>
+        <v>333</v>
       </c>
       <c r="E91" t="s">
-        <v>393</v>
+        <v>334</v>
       </c>
       <c r="F91" t="s">
-        <v>394</v>
+        <v>335</v>
       </c>
       <c r="G91" t="s">
-        <v>395</v>
+        <v>336</v>
       </c>
       <c r="H91" t="s">
-        <v>1100</v>
+        <v>961</v>
       </c>
       <c r="I91" t="s">
-        <v>1101</v>
+        <v>962</v>
       </c>
       <c r="K91">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>396</v>
+        <v>1087</v>
       </c>
       <c r="B92" t="s">
         <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>397</v>
+        <v>337</v>
       </c>
       <c r="D92" t="s">
-        <v>398</v>
+        <v>338</v>
       </c>
       <c r="E92" t="s">
-        <v>399</v>
+        <v>339</v>
       </c>
       <c r="F92" t="s">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="G92" t="s">
-        <v>401</v>
+        <v>341</v>
       </c>
       <c r="H92" t="s">
-        <v>1100</v>
+        <v>961</v>
       </c>
       <c r="I92" t="s">
-        <v>1101</v>
+        <v>962</v>
       </c>
       <c r="K92">
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>402</v>
+        <v>1093</v>
       </c>
       <c r="B93" t="s">
         <v>19</v>
       </c>
       <c r="C93" t="s">
-        <v>403</v>
+        <v>342</v>
       </c>
       <c r="D93" t="s">
-        <v>404</v>
+        <v>343</v>
       </c>
       <c r="E93" t="s">
-        <v>405</v>
+        <v>344</v>
       </c>
       <c r="F93" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="G93" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="H93" t="s">
-        <v>1102</v>
+        <v>963</v>
       </c>
       <c r="I93" t="s">
-        <v>1103</v>
+        <v>964</v>
       </c>
       <c r="K93">
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>406</v>
+        <v>1094</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>407</v>
+        <v>345</v>
       </c>
       <c r="D94" t="s">
-        <v>408</v>
+        <v>346</v>
       </c>
       <c r="E94" t="s">
-        <v>409</v>
+        <v>347</v>
       </c>
       <c r="F94" t="s">
-        <v>410</v>
+        <v>348</v>
       </c>
       <c r="G94" t="s">
-        <v>411</v>
+        <v>349</v>
       </c>
       <c r="H94" t="s">
-        <v>1102</v>
+        <v>963</v>
       </c>
       <c r="I94" t="s">
-        <v>1103</v>
+        <v>964</v>
       </c>
       <c r="K94">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>412</v>
+        <v>1095</v>
       </c>
       <c r="B95" t="s">
         <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>413</v>
+        <v>350</v>
       </c>
       <c r="D95" t="s">
-        <v>414</v>
+        <v>351</v>
       </c>
       <c r="E95" t="s">
-        <v>415</v>
+        <v>352</v>
       </c>
       <c r="F95" t="s">
-        <v>416</v>
+        <v>353</v>
       </c>
       <c r="G95" t="s">
-        <v>417</v>
+        <v>354</v>
       </c>
       <c r="H95" t="s">
-        <v>1102</v>
+        <v>963</v>
       </c>
       <c r="I95" t="s">
-        <v>1103</v>
+        <v>964</v>
       </c>
       <c r="K95">
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>418</v>
+        <v>1096</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>419</v>
+        <v>355</v>
       </c>
       <c r="D96" t="s">
-        <v>420</v>
+        <v>356</v>
       </c>
       <c r="E96" t="s">
-        <v>421</v>
+        <v>357</v>
       </c>
       <c r="F96" t="s">
-        <v>422</v>
+        <v>358</v>
       </c>
       <c r="G96" t="s">
-        <v>423</v>
+        <v>359</v>
       </c>
       <c r="H96" t="s">
-        <v>1104</v>
+        <v>965</v>
       </c>
       <c r="I96" t="s">
-        <v>1105</v>
+        <v>966</v>
       </c>
       <c r="J96" t="s">
-        <v>1106</v>
+        <v>967</v>
       </c>
       <c r="K96">
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>424</v>
+        <v>1097</v>
       </c>
       <c r="B97" t="s">
         <v>19</v>
       </c>
       <c r="C97" t="s">
-        <v>425</v>
+        <v>360</v>
       </c>
       <c r="D97" t="s">
-        <v>426</v>
+        <v>361</v>
       </c>
       <c r="E97" t="s">
-        <v>427</v>
+        <v>362</v>
       </c>
       <c r="F97" t="s">
-        <v>428</v>
+        <v>363</v>
       </c>
       <c r="G97" t="s">
-        <v>429</v>
+        <v>364</v>
       </c>
       <c r="H97" t="s">
-        <v>1104</v>
+        <v>965</v>
       </c>
       <c r="I97" t="s">
-        <v>1105</v>
+        <v>966</v>
       </c>
       <c r="J97" t="s">
-        <v>1106</v>
+        <v>967</v>
       </c>
       <c r="K97">
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>430</v>
+        <v>1098</v>
       </c>
       <c r="B98" t="s">
         <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>431</v>
+        <v>365</v>
       </c>
       <c r="D98" t="s">
-        <v>432</v>
+        <v>366</v>
       </c>
       <c r="E98" t="s">
-        <v>433</v>
+        <v>367</v>
       </c>
       <c r="F98" t="s">
-        <v>434</v>
+        <v>368</v>
       </c>
       <c r="G98" t="s">
-        <v>435</v>
+        <v>369</v>
       </c>
       <c r="H98" t="s">
-        <v>1104</v>
+        <v>965</v>
       </c>
       <c r="I98" t="s">
-        <v>1105</v>
+        <v>966</v>
       </c>
       <c r="J98" t="s">
-        <v>1106</v>
+        <v>967</v>
       </c>
       <c r="K98">
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>436</v>
+        <v>1099</v>
       </c>
       <c r="B99" t="s">
         <v>13</v>
       </c>
       <c r="C99" t="s">
-        <v>437</v>
+        <v>370</v>
       </c>
       <c r="D99" t="s">
-        <v>438</v>
+        <v>371</v>
       </c>
       <c r="E99" t="s">
-        <v>439</v>
+        <v>372</v>
       </c>
       <c r="F99" t="s">
-        <v>440</v>
+        <v>373</v>
       </c>
       <c r="G99" t="s">
-        <v>441</v>
+        <v>374</v>
       </c>
       <c r="H99" t="s">
-        <v>1107</v>
+        <v>968</v>
       </c>
       <c r="I99" t="s">
-        <v>1108</v>
+        <v>969</v>
       </c>
       <c r="J99" t="s">
-        <v>1109</v>
+        <v>970</v>
       </c>
       <c r="K99">
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>442</v>
+        <v>1100</v>
       </c>
       <c r="B100" t="s">
         <v>19</v>
       </c>
       <c r="C100" t="s">
-        <v>443</v>
+        <v>375</v>
       </c>
       <c r="D100" t="s">
-        <v>444</v>
+        <v>376</v>
       </c>
       <c r="E100" t="s">
-        <v>445</v>
+        <v>377</v>
       </c>
       <c r="F100" t="s">
-        <v>446</v>
+        <v>378</v>
       </c>
       <c r="G100" t="s">
-        <v>447</v>
+        <v>379</v>
       </c>
       <c r="H100" t="s">
-        <v>1107</v>
+        <v>968</v>
       </c>
       <c r="I100" t="s">
-        <v>1108</v>
+        <v>969</v>
       </c>
       <c r="J100" t="s">
-        <v>1109</v>
+        <v>970</v>
       </c>
       <c r="K100">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>448</v>
+        <v>1084</v>
       </c>
       <c r="B101" t="s">
         <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>449</v>
+        <v>380</v>
       </c>
       <c r="D101" t="s">
-        <v>450</v>
+        <v>381</v>
       </c>
       <c r="E101" t="s">
-        <v>451</v>
+        <v>382</v>
       </c>
       <c r="F101" t="s">
-        <v>452</v>
+        <v>383</v>
       </c>
       <c r="G101" t="s">
-        <v>453</v>
+        <v>384</v>
       </c>
       <c r="H101" t="s">
-        <v>1107</v>
+        <v>968</v>
       </c>
       <c r="I101" t="s">
-        <v>1108</v>
+        <v>969</v>
       </c>
       <c r="J101" t="s">
-        <v>1109</v>
+        <v>970</v>
       </c>
       <c r="K101">
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
       <c r="C102" t="s">
-        <v>454</v>
+        <v>385</v>
       </c>
       <c r="D102" t="s">
-        <v>455</v>
+        <v>386</v>
       </c>
       <c r="E102" t="s">
-        <v>456</v>
+        <v>387</v>
       </c>
       <c r="F102" t="s">
-        <v>457</v>
+        <v>388</v>
       </c>
       <c r="G102" t="s">
-        <v>458</v>
+        <v>389</v>
       </c>
       <c r="K102">
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B103" t="s">
+        <v>11</v>
+      </c>
       <c r="C103" t="s">
-        <v>459</v>
+        <v>390</v>
       </c>
       <c r="D103" t="s">
-        <v>460</v>
+        <v>391</v>
       </c>
       <c r="E103" t="s">
-        <v>461</v>
+        <v>392</v>
       </c>
       <c r="F103" t="s">
-        <v>462</v>
+        <v>393</v>
       </c>
       <c r="G103" t="s">
-        <v>463</v>
+        <v>394</v>
       </c>
       <c r="K103">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B104" t="s">
+        <v>13</v>
+      </c>
       <c r="C104" t="s">
-        <v>464</v>
+        <v>395</v>
       </c>
       <c r="D104" t="s">
-        <v>465</v>
+        <v>396</v>
       </c>
       <c r="E104" t="s">
-        <v>466</v>
+        <v>397</v>
       </c>
       <c r="F104" t="s">
-        <v>467</v>
+        <v>398</v>
       </c>
       <c r="G104" t="s">
-        <v>468</v>
+        <v>399</v>
       </c>
       <c r="K104">
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
       <c r="C105" t="s">
-        <v>469</v>
+        <v>400</v>
       </c>
       <c r="D105" t="s">
-        <v>470</v>
+        <v>401</v>
       </c>
       <c r="E105" t="s">
-        <v>471</v>
+        <v>402</v>
       </c>
       <c r="F105" t="s">
-        <v>472</v>
+        <v>403</v>
       </c>
       <c r="G105" t="s">
-        <v>473</v>
+        <v>404</v>
       </c>
       <c r="K105">
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B106" t="s">
+        <v>11</v>
+      </c>
       <c r="C106" t="s">
-        <v>474</v>
+        <v>405</v>
       </c>
       <c r="D106" t="s">
-        <v>475</v>
+        <v>406</v>
       </c>
       <c r="E106" t="s">
-        <v>476</v>
+        <v>407</v>
       </c>
       <c r="F106" t="s">
-        <v>477</v>
+        <v>408</v>
       </c>
       <c r="G106" t="s">
-        <v>478</v>
+        <v>409</v>
       </c>
       <c r="K106">
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B107" t="s">
+        <v>11</v>
+      </c>
       <c r="C107" t="s">
-        <v>479</v>
+        <v>410</v>
       </c>
       <c r="D107" t="s">
-        <v>480</v>
+        <v>411</v>
       </c>
       <c r="E107" t="s">
-        <v>481</v>
+        <v>412</v>
       </c>
       <c r="F107" t="s">
-        <v>482</v>
+        <v>413</v>
       </c>
       <c r="G107" t="s">
-        <v>483</v>
+        <v>414</v>
       </c>
       <c r="K107">
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B108" t="s">
+        <v>19</v>
+      </c>
       <c r="C108" t="s">
-        <v>484</v>
+        <v>415</v>
       </c>
       <c r="D108" t="s">
-        <v>485</v>
+        <v>416</v>
       </c>
       <c r="E108" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="F108" t="s">
-        <v>487</v>
+        <v>418</v>
       </c>
       <c r="G108" t="s">
-        <v>488</v>
+        <v>419</v>
       </c>
       <c r="K108">
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
       <c r="C109" t="s">
-        <v>489</v>
+        <v>420</v>
       </c>
       <c r="D109" t="s">
-        <v>490</v>
+        <v>421</v>
       </c>
       <c r="E109" t="s">
-        <v>491</v>
+        <v>422</v>
       </c>
       <c r="F109" t="s">
-        <v>492</v>
+        <v>423</v>
       </c>
       <c r="G109" t="s">
-        <v>493</v>
+        <v>424</v>
       </c>
       <c r="K109">
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B110" t="s">
+        <v>19</v>
+      </c>
       <c r="C110" t="s">
-        <v>494</v>
+        <v>425</v>
       </c>
       <c r="D110" t="s">
-        <v>495</v>
+        <v>426</v>
       </c>
       <c r="E110" t="s">
-        <v>496</v>
+        <v>427</v>
       </c>
       <c r="F110" t="s">
-        <v>497</v>
+        <v>428</v>
       </c>
       <c r="G110" t="s">
-        <v>498</v>
+        <v>429</v>
       </c>
       <c r="K110">
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
       <c r="C111" t="s">
-        <v>499</v>
+        <v>430</v>
       </c>
       <c r="D111" t="s">
-        <v>500</v>
+        <v>431</v>
       </c>
       <c r="E111" t="s">
-        <v>501</v>
+        <v>432</v>
       </c>
       <c r="F111" t="s">
-        <v>502</v>
+        <v>433</v>
       </c>
       <c r="G111" t="s">
-        <v>503</v>
+        <v>434</v>
       </c>
       <c r="K111">
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B112" t="s">
+        <v>19</v>
+      </c>
       <c r="C112" t="s">
-        <v>504</v>
+        <v>435</v>
       </c>
       <c r="D112" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="E112" t="s">
-        <v>506</v>
+        <v>437</v>
       </c>
       <c r="F112" t="s">
-        <v>507</v>
+        <v>438</v>
       </c>
       <c r="G112" t="s">
-        <v>508</v>
+        <v>439</v>
       </c>
       <c r="K112">
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
       <c r="C113" t="s">
-        <v>509</v>
+        <v>440</v>
       </c>
       <c r="D113" t="s">
-        <v>510</v>
+        <v>441</v>
       </c>
       <c r="E113" t="s">
-        <v>511</v>
+        <v>442</v>
       </c>
       <c r="F113" t="s">
-        <v>512</v>
+        <v>443</v>
       </c>
       <c r="G113" t="s">
-        <v>513</v>
+        <v>444</v>
       </c>
       <c r="K113">
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B114" t="s">
+        <v>19</v>
+      </c>
       <c r="C114" t="s">
-        <v>514</v>
+        <v>445</v>
       </c>
       <c r="D114" t="s">
-        <v>515</v>
+        <v>446</v>
       </c>
       <c r="E114" t="s">
-        <v>516</v>
+        <v>447</v>
       </c>
       <c r="F114" t="s">
-        <v>517</v>
+        <v>448</v>
       </c>
       <c r="G114" t="s">
-        <v>518</v>
+        <v>449</v>
       </c>
       <c r="K114">
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B115" t="s">
+        <v>13</v>
+      </c>
       <c r="C115" t="s">
-        <v>519</v>
+        <v>450</v>
       </c>
       <c r="D115" t="s">
-        <v>520</v>
+        <v>451</v>
       </c>
       <c r="E115" t="s">
-        <v>521</v>
+        <v>452</v>
       </c>
       <c r="F115" t="s">
-        <v>522</v>
+        <v>453</v>
       </c>
       <c r="G115" t="s">
-        <v>523</v>
+        <v>454</v>
       </c>
       <c r="K115">
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
       <c r="C116" t="s">
-        <v>524</v>
+        <v>455</v>
       </c>
       <c r="D116" t="s">
-        <v>525</v>
+        <v>456</v>
       </c>
       <c r="E116" t="s">
-        <v>526</v>
+        <v>457</v>
       </c>
       <c r="F116" t="s">
-        <v>527</v>
+        <v>458</v>
       </c>
       <c r="G116" t="s">
-        <v>528</v>
+        <v>459</v>
       </c>
       <c r="K116">
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B117" t="s">
+        <v>13</v>
+      </c>
       <c r="C117" t="s">
-        <v>529</v>
+        <v>460</v>
       </c>
       <c r="D117" t="s">
-        <v>530</v>
+        <v>461</v>
       </c>
       <c r="E117" t="s">
-        <v>531</v>
+        <v>462</v>
       </c>
       <c r="F117" t="s">
-        <v>532</v>
+        <v>463</v>
       </c>
       <c r="G117" t="s">
-        <v>533</v>
+        <v>464</v>
       </c>
       <c r="K117">
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
       <c r="C118" t="s">
-        <v>534</v>
+        <v>465</v>
       </c>
       <c r="D118" t="s">
-        <v>535</v>
+        <v>466</v>
       </c>
       <c r="E118" t="s">
-        <v>536</v>
+        <v>467</v>
       </c>
       <c r="F118" t="s">
-        <v>537</v>
+        <v>468</v>
       </c>
       <c r="G118" t="s">
-        <v>538</v>
+        <v>469</v>
       </c>
       <c r="K118">
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
       <c r="C119" t="s">
-        <v>539</v>
+        <v>470</v>
       </c>
       <c r="D119" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="E119" t="s">
-        <v>541</v>
+        <v>472</v>
       </c>
       <c r="F119" t="s">
-        <v>542</v>
+        <v>473</v>
       </c>
       <c r="G119" t="s">
-        <v>543</v>
+        <v>474</v>
       </c>
       <c r="K119">
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B120" t="s">
+        <v>19</v>
+      </c>
       <c r="C120" t="s">
-        <v>544</v>
+        <v>475</v>
       </c>
       <c r="D120" t="s">
-        <v>545</v>
+        <v>476</v>
       </c>
       <c r="E120" t="s">
-        <v>546</v>
+        <v>477</v>
       </c>
       <c r="F120" t="s">
-        <v>547</v>
+        <v>478</v>
       </c>
       <c r="G120" t="s">
-        <v>548</v>
+        <v>479</v>
       </c>
       <c r="K120">
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B121" t="s">
+        <v>19</v>
+      </c>
       <c r="C121" t="s">
-        <v>549</v>
+        <v>480</v>
       </c>
       <c r="D121" t="s">
-        <v>550</v>
+        <v>481</v>
       </c>
       <c r="E121" t="s">
-        <v>551</v>
+        <v>482</v>
       </c>
       <c r="F121" t="s">
-        <v>552</v>
+        <v>483</v>
       </c>
       <c r="G121" t="s">
-        <v>553</v>
+        <v>484</v>
       </c>
       <c r="K121">
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
       <c r="C122" t="s">
-        <v>554</v>
+        <v>485</v>
       </c>
       <c r="D122" t="s">
-        <v>555</v>
+        <v>486</v>
       </c>
       <c r="E122" t="s">
-        <v>556</v>
+        <v>487</v>
       </c>
       <c r="F122" t="s">
-        <v>557</v>
+        <v>488</v>
       </c>
       <c r="G122" t="s">
-        <v>558</v>
+        <v>489</v>
       </c>
       <c r="K122">
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B123" t="s">
+        <v>19</v>
+      </c>
       <c r="C123" t="s">
-        <v>559</v>
+        <v>490</v>
       </c>
       <c r="D123" t="s">
-        <v>560</v>
+        <v>491</v>
       </c>
       <c r="E123" t="s">
-        <v>561</v>
+        <v>492</v>
       </c>
       <c r="F123" t="s">
-        <v>562</v>
+        <v>493</v>
       </c>
       <c r="G123" t="s">
-        <v>563</v>
+        <v>494</v>
       </c>
       <c r="K123">
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
       <c r="C124" t="s">
-        <v>564</v>
+        <v>495</v>
       </c>
       <c r="D124" t="s">
-        <v>565</v>
+        <v>496</v>
       </c>
       <c r="E124" t="s">
-        <v>566</v>
+        <v>497</v>
       </c>
       <c r="F124" t="s">
-        <v>567</v>
+        <v>498</v>
       </c>
       <c r="G124" t="s">
-        <v>568</v>
+        <v>499</v>
       </c>
       <c r="K124">
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B125" t="s">
+        <v>19</v>
+      </c>
       <c r="C125" t="s">
-        <v>569</v>
+        <v>500</v>
       </c>
       <c r="D125" t="s">
-        <v>570</v>
+        <v>501</v>
       </c>
       <c r="E125" t="s">
-        <v>571</v>
+        <v>502</v>
       </c>
       <c r="F125" t="s">
-        <v>572</v>
+        <v>503</v>
       </c>
       <c r="G125" t="s">
-        <v>573</v>
+        <v>504</v>
       </c>
       <c r="K125">
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
       <c r="C126" t="s">
-        <v>574</v>
+        <v>505</v>
       </c>
       <c r="D126" t="s">
-        <v>575</v>
+        <v>506</v>
       </c>
       <c r="E126" t="s">
-        <v>576</v>
+        <v>507</v>
       </c>
       <c r="F126" t="s">
-        <v>577</v>
+        <v>508</v>
       </c>
       <c r="G126" t="s">
-        <v>578</v>
+        <v>509</v>
       </c>
       <c r="K126">
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
       <c r="C127" t="s">
-        <v>579</v>
+        <v>510</v>
       </c>
       <c r="D127" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="E127" t="s">
-        <v>581</v>
+        <v>512</v>
       </c>
       <c r="F127" t="s">
-        <v>582</v>
+        <v>513</v>
       </c>
       <c r="G127" t="s">
-        <v>583</v>
+        <v>514</v>
       </c>
       <c r="K127">
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
       <c r="C128" t="s">
-        <v>584</v>
+        <v>515</v>
       </c>
       <c r="D128" t="s">
-        <v>585</v>
+        <v>516</v>
       </c>
       <c r="E128" t="s">
-        <v>586</v>
+        <v>517</v>
       </c>
       <c r="F128" t="s">
-        <v>587</v>
+        <v>518</v>
       </c>
       <c r="G128" t="s">
-        <v>588</v>
+        <v>519</v>
       </c>
       <c r="K128">
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
       <c r="C129" t="s">
-        <v>589</v>
+        <v>520</v>
       </c>
       <c r="D129" t="s">
-        <v>590</v>
+        <v>521</v>
       </c>
       <c r="E129" t="s">
-        <v>591</v>
+        <v>522</v>
       </c>
       <c r="F129" t="s">
-        <v>592</v>
+        <v>523</v>
       </c>
       <c r="G129" t="s">
-        <v>593</v>
+        <v>524</v>
       </c>
       <c r="K129">
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
       <c r="C130" t="s">
-        <v>594</v>
+        <v>525</v>
       </c>
       <c r="D130" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="E130" t="s">
-        <v>596</v>
+        <v>527</v>
       </c>
       <c r="F130" t="s">
-        <v>597</v>
+        <v>528</v>
       </c>
       <c r="G130" t="s">
-        <v>598</v>
+        <v>529</v>
       </c>
       <c r="K130">
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
       <c r="C131" t="s">
-        <v>599</v>
+        <v>530</v>
       </c>
       <c r="D131" t="s">
-        <v>600</v>
+        <v>531</v>
       </c>
       <c r="E131" t="s">
-        <v>601</v>
+        <v>532</v>
       </c>
       <c r="F131" t="s">
-        <v>602</v>
+        <v>533</v>
       </c>
       <c r="G131" t="s">
-        <v>603</v>
+        <v>534</v>
       </c>
       <c r="K131">
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>604</v>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>605</v>
+        <v>535</v>
       </c>
       <c r="D132" t="s">
-        <v>606</v>
+        <v>536</v>
       </c>
       <c r="E132" t="s">
-        <v>607</v>
+        <v>537</v>
       </c>
       <c r="F132" t="s">
-        <v>608</v>
+        <v>538</v>
       </c>
       <c r="G132" t="s">
-        <v>609</v>
+        <v>539</v>
       </c>
       <c r="H132" t="s">
-        <v>1110</v>
+        <v>971</v>
       </c>
       <c r="J132" t="s">
-        <v>1111</v>
+        <v>972</v>
       </c>
       <c r="K132">
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>610</v>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>11</v>
       </c>
       <c r="C133" t="s">
-        <v>611</v>
+        <v>540</v>
       </c>
       <c r="D133" t="s">
-        <v>612</v>
+        <v>541</v>
       </c>
       <c r="E133" t="s">
-        <v>613</v>
+        <v>542</v>
       </c>
       <c r="F133" t="s">
-        <v>614</v>
+        <v>543</v>
       </c>
       <c r="G133" t="s">
-        <v>615</v>
+        <v>544</v>
       </c>
       <c r="H133" t="s">
-        <v>1110</v>
+        <v>971</v>
       </c>
       <c r="J133" t="s">
-        <v>1111</v>
+        <v>972</v>
       </c>
       <c r="K133">
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>616</v>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>19</v>
       </c>
       <c r="C134" t="s">
-        <v>617</v>
+        <v>545</v>
       </c>
       <c r="D134" t="s">
-        <v>618</v>
+        <v>546</v>
       </c>
       <c r="E134" t="s">
-        <v>619</v>
+        <v>547</v>
       </c>
       <c r="F134" t="s">
-        <v>620</v>
+        <v>548</v>
       </c>
       <c r="G134" t="s">
-        <v>621</v>
+        <v>549</v>
       </c>
       <c r="H134" t="s">
-        <v>1110</v>
+        <v>971</v>
       </c>
       <c r="J134" t="s">
-        <v>1111</v>
+        <v>972</v>
       </c>
       <c r="K134">
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>622</v>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>623</v>
+        <v>550</v>
       </c>
       <c r="D135" t="s">
-        <v>624</v>
+        <v>551</v>
       </c>
       <c r="E135" t="s">
-        <v>625</v>
+        <v>552</v>
       </c>
       <c r="F135" t="s">
-        <v>626</v>
+        <v>553</v>
       </c>
       <c r="G135" t="s">
-        <v>627</v>
+        <v>554</v>
       </c>
       <c r="H135" t="s">
-        <v>1110</v>
+        <v>971</v>
       </c>
       <c r="J135" t="s">
-        <v>1111</v>
+        <v>972</v>
       </c>
       <c r="K135">
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>628</v>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>13</v>
       </c>
       <c r="C136" t="s">
-        <v>629</v>
+        <v>555</v>
       </c>
       <c r="D136" t="s">
-        <v>630</v>
+        <v>556</v>
       </c>
       <c r="E136" t="s">
-        <v>631</v>
+        <v>557</v>
       </c>
       <c r="F136" t="s">
-        <v>632</v>
+        <v>558</v>
       </c>
       <c r="G136" t="s">
-        <v>633</v>
+        <v>559</v>
       </c>
       <c r="H136" t="s">
-        <v>1112</v>
+        <v>973</v>
       </c>
       <c r="J136" t="s">
-        <v>1113</v>
+        <v>974</v>
       </c>
       <c r="K136">
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>634</v>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>19</v>
       </c>
       <c r="C137" t="s">
-        <v>635</v>
+        <v>560</v>
       </c>
       <c r="D137" t="s">
-        <v>636</v>
+        <v>561</v>
       </c>
       <c r="E137" t="s">
-        <v>637</v>
+        <v>562</v>
       </c>
       <c r="F137" t="s">
-        <v>638</v>
+        <v>563</v>
       </c>
       <c r="G137" t="s">
-        <v>639</v>
+        <v>564</v>
       </c>
       <c r="H137" t="s">
-        <v>1112</v>
+        <v>973</v>
       </c>
       <c r="J137" t="s">
-        <v>1113</v>
+        <v>974</v>
       </c>
       <c r="K137">
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>640</v>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>641</v>
+        <v>565</v>
       </c>
       <c r="D138" t="s">
-        <v>642</v>
+        <v>566</v>
       </c>
       <c r="E138" t="s">
-        <v>643</v>
+        <v>567</v>
       </c>
       <c r="F138" t="s">
-        <v>644</v>
+        <v>568</v>
       </c>
       <c r="G138" t="s">
-        <v>645</v>
+        <v>569</v>
       </c>
       <c r="H138" t="s">
-        <v>1112</v>
+        <v>973</v>
       </c>
       <c r="J138" t="s">
-        <v>1113</v>
+        <v>974</v>
       </c>
       <c r="K138">
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>646</v>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>647</v>
+        <v>570</v>
       </c>
       <c r="D139" t="s">
-        <v>648</v>
+        <v>571</v>
       </c>
       <c r="E139" t="s">
-        <v>649</v>
+        <v>572</v>
       </c>
       <c r="F139" t="s">
-        <v>650</v>
+        <v>573</v>
       </c>
       <c r="G139" t="s">
-        <v>651</v>
+        <v>574</v>
       </c>
       <c r="H139" t="s">
-        <v>1112</v>
+        <v>973</v>
       </c>
       <c r="J139" t="s">
-        <v>1113</v>
+        <v>974</v>
       </c>
       <c r="K139">
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>652</v>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>19</v>
       </c>
       <c r="C140" t="s">
-        <v>653</v>
+        <v>575</v>
       </c>
       <c r="D140" t="s">
-        <v>654</v>
+        <v>576</v>
       </c>
       <c r="E140" t="s">
-        <v>655</v>
+        <v>577</v>
       </c>
       <c r="F140" t="s">
-        <v>656</v>
+        <v>578</v>
       </c>
       <c r="G140" t="s">
-        <v>657</v>
+        <v>579</v>
       </c>
       <c r="H140" t="s">
-        <v>1114</v>
+        <v>975</v>
       </c>
       <c r="J140" t="s">
-        <v>1115</v>
+        <v>976</v>
       </c>
       <c r="K140">
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>658</v>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>13</v>
       </c>
       <c r="C141" t="s">
-        <v>659</v>
+        <v>580</v>
       </c>
       <c r="D141" t="s">
-        <v>660</v>
+        <v>581</v>
       </c>
       <c r="E141" t="s">
-        <v>661</v>
+        <v>582</v>
       </c>
       <c r="F141" t="s">
-        <v>662</v>
+        <v>583</v>
       </c>
       <c r="G141" t="s">
-        <v>663</v>
+        <v>584</v>
       </c>
       <c r="H141" t="s">
-        <v>1114</v>
+        <v>975</v>
       </c>
       <c r="J141" t="s">
-        <v>1115</v>
+        <v>976</v>
       </c>
       <c r="K141">
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>664</v>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>665</v>
+        <v>585</v>
       </c>
       <c r="D142" t="s">
-        <v>666</v>
+        <v>586</v>
       </c>
       <c r="E142" t="s">
-        <v>667</v>
+        <v>587</v>
       </c>
       <c r="F142" t="s">
-        <v>668</v>
+        <v>588</v>
       </c>
       <c r="G142" t="s">
-        <v>669</v>
+        <v>589</v>
       </c>
       <c r="H142" t="s">
-        <v>1114</v>
+        <v>975</v>
       </c>
       <c r="J142" t="s">
-        <v>1115</v>
+        <v>976</v>
       </c>
       <c r="K142">
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>670</v>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>13</v>
       </c>
       <c r="C143" t="s">
-        <v>671</v>
+        <v>590</v>
       </c>
       <c r="D143" t="s">
-        <v>672</v>
+        <v>591</v>
       </c>
       <c r="E143" t="s">
-        <v>673</v>
+        <v>592</v>
       </c>
       <c r="F143" t="s">
-        <v>674</v>
+        <v>593</v>
       </c>
       <c r="G143" t="s">
-        <v>675</v>
+        <v>594</v>
       </c>
       <c r="H143" t="s">
-        <v>1114</v>
+        <v>975</v>
       </c>
       <c r="J143" t="s">
-        <v>1115</v>
+        <v>976</v>
       </c>
       <c r="K143">
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>676</v>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>19</v>
       </c>
       <c r="C144" t="s">
-        <v>677</v>
+        <v>595</v>
       </c>
       <c r="D144" t="s">
-        <v>678</v>
+        <v>596</v>
       </c>
       <c r="E144" t="s">
-        <v>679</v>
+        <v>597</v>
       </c>
       <c r="F144" t="s">
-        <v>680</v>
+        <v>598</v>
       </c>
       <c r="G144" t="s">
-        <v>681</v>
+        <v>599</v>
       </c>
       <c r="H144" t="s">
-        <v>1116</v>
+        <v>977</v>
       </c>
       <c r="J144" t="s">
-        <v>1117</v>
+        <v>978</v>
       </c>
       <c r="K144">
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>682</v>
-      </c>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>683</v>
+        <v>600</v>
       </c>
       <c r="D145" t="s">
-        <v>684</v>
+        <v>601</v>
       </c>
       <c r="E145" t="s">
-        <v>685</v>
+        <v>602</v>
       </c>
       <c r="F145" t="s">
-        <v>686</v>
+        <v>603</v>
       </c>
       <c r="G145" t="s">
-        <v>687</v>
+        <v>604</v>
       </c>
       <c r="H145" t="s">
-        <v>1116</v>
+        <v>977</v>
       </c>
       <c r="J145" t="s">
-        <v>1117</v>
+        <v>978</v>
       </c>
       <c r="K145">
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>688</v>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
+        <v>11</v>
       </c>
       <c r="C146" t="s">
-        <v>689</v>
+        <v>605</v>
       </c>
       <c r="D146" t="s">
-        <v>690</v>
+        <v>606</v>
       </c>
       <c r="E146" t="s">
-        <v>691</v>
+        <v>607</v>
       </c>
       <c r="F146" t="s">
-        <v>692</v>
+        <v>608</v>
       </c>
       <c r="G146" t="s">
-        <v>693</v>
+        <v>609</v>
       </c>
       <c r="H146" t="s">
-        <v>1116</v>
+        <v>977</v>
       </c>
       <c r="J146" t="s">
-        <v>1117</v>
+        <v>978</v>
       </c>
       <c r="K146">
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>694</v>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
+        <v>19</v>
       </c>
       <c r="C147" t="s">
-        <v>695</v>
+        <v>610</v>
       </c>
       <c r="D147" t="s">
-        <v>696</v>
+        <v>611</v>
       </c>
       <c r="E147" t="s">
-        <v>697</v>
+        <v>612</v>
       </c>
       <c r="F147" t="s">
-        <v>698</v>
+        <v>613</v>
       </c>
       <c r="G147" t="s">
-        <v>699</v>
+        <v>614</v>
       </c>
       <c r="H147" t="s">
-        <v>1116</v>
+        <v>977</v>
       </c>
       <c r="J147" t="s">
-        <v>1117</v>
+        <v>978</v>
       </c>
       <c r="K147">
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B148" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" t="s">
+        <v>615</v>
+      </c>
+      <c r="D148" t="s">
+        <v>616</v>
+      </c>
+      <c r="E148" t="s">
+        <v>617</v>
+      </c>
+      <c r="F148" t="s">
+        <v>618</v>
+      </c>
+      <c r="G148" t="s">
+        <v>619</v>
+      </c>
+      <c r="H148" t="s">
+        <v>979</v>
+      </c>
+      <c r="J148" t="s">
+        <v>980</v>
+      </c>
+      <c r="K148">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" t="s">
+        <v>620</v>
+      </c>
+      <c r="D149" t="s">
+        <v>621</v>
+      </c>
+      <c r="E149" t="s">
+        <v>622</v>
+      </c>
+      <c r="F149" t="s">
+        <v>623</v>
+      </c>
+      <c r="G149" t="s">
+        <v>624</v>
+      </c>
+      <c r="H149" t="s">
+        <v>979</v>
+      </c>
+      <c r="J149" t="s">
+        <v>980</v>
+      </c>
+      <c r="K149">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" t="s">
+        <v>625</v>
+      </c>
+      <c r="D150" t="s">
+        <v>626</v>
+      </c>
+      <c r="E150" t="s">
+        <v>627</v>
+      </c>
+      <c r="F150" t="s">
+        <v>628</v>
+      </c>
+      <c r="G150" t="s">
+        <v>629</v>
+      </c>
+      <c r="H150" t="s">
+        <v>981</v>
+      </c>
+      <c r="J150" t="s">
+        <v>982</v>
+      </c>
+      <c r="K150">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B151" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" t="s">
+        <v>630</v>
+      </c>
+      <c r="D151" t="s">
+        <v>631</v>
+      </c>
+      <c r="E151" t="s">
+        <v>632</v>
+      </c>
+      <c r="F151" t="s">
+        <v>633</v>
+      </c>
+      <c r="G151" t="s">
+        <v>634</v>
+      </c>
+      <c r="H151" t="s">
+        <v>981</v>
+      </c>
+      <c r="J151" t="s">
+        <v>982</v>
+      </c>
+      <c r="K151">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" t="s">
+        <v>635</v>
+      </c>
+      <c r="D152" t="s">
+        <v>636</v>
+      </c>
+      <c r="E152" t="s">
+        <v>637</v>
+      </c>
+      <c r="F152" t="s">
+        <v>638</v>
+      </c>
+      <c r="G152" t="s">
+        <v>639</v>
+      </c>
+      <c r="H152" t="s">
+        <v>983</v>
+      </c>
+      <c r="J152" t="s">
+        <v>984</v>
+      </c>
+      <c r="K152">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" t="s">
+        <v>640</v>
+      </c>
+      <c r="D153" t="s">
+        <v>641</v>
+      </c>
+      <c r="E153" t="s">
+        <v>642</v>
+      </c>
+      <c r="F153" t="s">
+        <v>643</v>
+      </c>
+      <c r="G153" t="s">
+        <v>644</v>
+      </c>
+      <c r="H153" t="s">
+        <v>983</v>
+      </c>
+      <c r="J153" t="s">
+        <v>984</v>
+      </c>
+      <c r="K153">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B154" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154" t="s">
+        <v>645</v>
+      </c>
+      <c r="D154" t="s">
+        <v>646</v>
+      </c>
+      <c r="E154" t="s">
+        <v>647</v>
+      </c>
+      <c r="F154" t="s">
+        <v>648</v>
+      </c>
+      <c r="G154" t="s">
+        <v>649</v>
+      </c>
+      <c r="H154" t="s">
+        <v>985</v>
+      </c>
+      <c r="J154" t="s">
+        <v>986</v>
+      </c>
+      <c r="K154">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B155" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" t="s">
+        <v>650</v>
+      </c>
+      <c r="D155" t="s">
+        <v>651</v>
+      </c>
+      <c r="E155" t="s">
+        <v>652</v>
+      </c>
+      <c r="F155" t="s">
+        <v>653</v>
+      </c>
+      <c r="G155" t="s">
+        <v>654</v>
+      </c>
+      <c r="H155" t="s">
+        <v>985</v>
+      </c>
+      <c r="J155" t="s">
+        <v>986</v>
+      </c>
+      <c r="K155">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B156" t="s">
+        <v>19</v>
+      </c>
+      <c r="C156" t="s">
+        <v>655</v>
+      </c>
+      <c r="D156" t="s">
+        <v>656</v>
+      </c>
+      <c r="E156" t="s">
+        <v>657</v>
+      </c>
+      <c r="F156" t="s">
+        <v>658</v>
+      </c>
+      <c r="G156" t="s">
+        <v>659</v>
+      </c>
+      <c r="H156" t="s">
+        <v>987</v>
+      </c>
+      <c r="J156" t="s">
+        <v>988</v>
+      </c>
+      <c r="K156">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" t="s">
+        <v>660</v>
+      </c>
+      <c r="D157" t="s">
+        <v>661</v>
+      </c>
+      <c r="E157" t="s">
+        <v>662</v>
+      </c>
+      <c r="F157" t="s">
+        <v>663</v>
+      </c>
+      <c r="G157" t="s">
+        <v>664</v>
+      </c>
+      <c r="H157" t="s">
+        <v>987</v>
+      </c>
+      <c r="J157" t="s">
+        <v>988</v>
+      </c>
+      <c r="K157">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" t="s">
+        <v>665</v>
+      </c>
+      <c r="D158" t="s">
+        <v>666</v>
+      </c>
+      <c r="E158" t="s">
+        <v>667</v>
+      </c>
+      <c r="F158" t="s">
+        <v>668</v>
+      </c>
+      <c r="G158" t="s">
+        <v>669</v>
+      </c>
+      <c r="H158" t="s">
+        <v>987</v>
+      </c>
+      <c r="J158" t="s">
+        <v>988</v>
+      </c>
+      <c r="K158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" t="s">
+        <v>670</v>
+      </c>
+      <c r="D159" t="s">
+        <v>671</v>
+      </c>
+      <c r="E159" t="s">
+        <v>672</v>
+      </c>
+      <c r="F159" t="s">
+        <v>344</v>
+      </c>
+      <c r="G159" t="s">
+        <v>673</v>
+      </c>
+      <c r="H159" t="s">
+        <v>989</v>
+      </c>
+      <c r="J159" t="s">
+        <v>990</v>
+      </c>
+      <c r="K159">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B160" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160" t="s">
+        <v>674</v>
+      </c>
+      <c r="D160" t="s">
+        <v>675</v>
+      </c>
+      <c r="E160" t="s">
+        <v>676</v>
+      </c>
+      <c r="F160" t="s">
+        <v>677</v>
+      </c>
+      <c r="G160" t="s">
+        <v>678</v>
+      </c>
+      <c r="H160" t="s">
+        <v>989</v>
+      </c>
+      <c r="J160" t="s">
+        <v>990</v>
+      </c>
+      <c r="K160">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" t="s">
+        <v>679</v>
+      </c>
+      <c r="D161" t="s">
+        <v>680</v>
+      </c>
+      <c r="E161" t="s">
+        <v>681</v>
+      </c>
+      <c r="F161" t="s">
+        <v>682</v>
+      </c>
+      <c r="G161" t="s">
+        <v>683</v>
+      </c>
+      <c r="H161" t="s">
+        <v>989</v>
+      </c>
+      <c r="J161" t="s">
+        <v>990</v>
+      </c>
+      <c r="K161">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B162" t="s">
+        <v>19</v>
+      </c>
+      <c r="C162" t="s">
+        <v>684</v>
+      </c>
+      <c r="D162" t="s">
+        <v>685</v>
+      </c>
+      <c r="E162" t="s">
+        <v>686</v>
+      </c>
+      <c r="F162" t="s">
+        <v>687</v>
+      </c>
+      <c r="G162" t="s">
+        <v>688</v>
+      </c>
+      <c r="H162" t="s">
+        <v>991</v>
+      </c>
+      <c r="J162" t="s">
+        <v>992</v>
+      </c>
+      <c r="K162">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B163" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" t="s">
+        <v>689</v>
+      </c>
+      <c r="D163" t="s">
+        <v>690</v>
+      </c>
+      <c r="E163" t="s">
+        <v>691</v>
+      </c>
+      <c r="F163" t="s">
+        <v>692</v>
+      </c>
+      <c r="G163" t="s">
+        <v>693</v>
+      </c>
+      <c r="H163" t="s">
+        <v>991</v>
+      </c>
+      <c r="J163" t="s">
+        <v>992</v>
+      </c>
+      <c r="K163">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B164" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" t="s">
+        <v>694</v>
+      </c>
+      <c r="D164" t="s">
+        <v>695</v>
+      </c>
+      <c r="E164" t="s">
+        <v>696</v>
+      </c>
+      <c r="F164" t="s">
+        <v>697</v>
+      </c>
+      <c r="G164" t="s">
+        <v>698</v>
+      </c>
+      <c r="H164" t="s">
+        <v>991</v>
+      </c>
+      <c r="J164" t="s">
+        <v>992</v>
+      </c>
+      <c r="K164">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B165" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165" t="s">
+        <v>699</v>
+      </c>
+      <c r="D165" t="s">
         <v>700</v>
       </c>
-      <c r="C148" t="s">
+      <c r="E165" t="s">
         <v>701</v>
       </c>
-      <c r="D148" t="s">
+      <c r="F165" t="s">
         <v>702</v>
       </c>
-      <c r="E148" t="s">
+      <c r="G165" t="s">
         <v>703</v>
       </c>
-      <c r="F148" t="s">
+      <c r="H165" t="s">
+        <v>991</v>
+      </c>
+      <c r="J165" t="s">
+        <v>992</v>
+      </c>
+      <c r="K165">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B166" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166" t="s">
         <v>704</v>
       </c>
-      <c r="G148" t="s">
+      <c r="D166" t="s">
         <v>705</v>
       </c>
-      <c r="H148" t="s">
-        <v>1118</v>
-      </c>
-      <c r="J148" t="s">
-        <v>1119</v>
-      </c>
-      <c r="K148">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="E166" t="s">
         <v>706</v>
       </c>
-      <c r="C149" t="s">
+      <c r="F166" t="s">
         <v>707</v>
       </c>
-      <c r="D149" t="s">
+      <c r="G166" t="s">
         <v>708</v>
       </c>
-      <c r="E149" t="s">
+      <c r="H166" t="s">
+        <v>993</v>
+      </c>
+      <c r="J166" t="s">
+        <v>994</v>
+      </c>
+      <c r="K166">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B167" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" t="s">
         <v>709</v>
       </c>
-      <c r="F149" t="s">
+      <c r="D167" t="s">
         <v>710</v>
       </c>
-      <c r="G149" t="s">
+      <c r="E167" t="s">
         <v>711</v>
       </c>
-      <c r="H149" t="s">
-        <v>1118</v>
-      </c>
-      <c r="J149" t="s">
-        <v>1119</v>
-      </c>
-      <c r="K149">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="F167" t="s">
         <v>712</v>
       </c>
-      <c r="C150" t="s">
+      <c r="G167" t="s">
         <v>713</v>
       </c>
-      <c r="D150" t="s">
+      <c r="H167" t="s">
+        <v>993</v>
+      </c>
+      <c r="J167" t="s">
+        <v>994</v>
+      </c>
+      <c r="K167">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B168" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168" t="s">
         <v>714</v>
       </c>
-      <c r="E150" t="s">
+      <c r="D168" t="s">
         <v>715</v>
       </c>
-      <c r="F150" t="s">
+      <c r="E168" t="s">
         <v>716</v>
       </c>
-      <c r="G150" t="s">
+      <c r="F168" t="s">
         <v>717</v>
       </c>
-      <c r="H150" t="s">
-        <v>1120</v>
-      </c>
-      <c r="J150" t="s">
-        <v>1121</v>
-      </c>
-      <c r="K150">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="G168" t="s">
         <v>718</v>
       </c>
-      <c r="C151" t="s">
+      <c r="H168" t="s">
+        <v>993</v>
+      </c>
+      <c r="J168" t="s">
+        <v>994</v>
+      </c>
+      <c r="K168">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B169" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" t="s">
         <v>719</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D169" t="s">
         <v>720</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E169" t="s">
         <v>721</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F169" t="s">
         <v>722</v>
       </c>
-      <c r="G151" t="s">
+      <c r="G169" t="s">
         <v>723</v>
       </c>
-      <c r="H151" t="s">
-        <v>1120</v>
-      </c>
-      <c r="J151" t="s">
-        <v>1121</v>
-      </c>
-      <c r="K151">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="H169" t="s">
+        <v>995</v>
+      </c>
+      <c r="J169" t="s">
+        <v>996</v>
+      </c>
+      <c r="K169">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B170" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" t="s">
         <v>724</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D170" t="s">
         <v>725</v>
       </c>
-      <c r="D152" t="s">
+      <c r="E170" t="s">
         <v>726</v>
       </c>
-      <c r="E152" t="s">
+      <c r="F170" t="s">
         <v>727</v>
       </c>
-      <c r="F152" t="s">
+      <c r="G170" t="s">
         <v>728</v>
       </c>
-      <c r="G152" t="s">
+      <c r="H170" t="s">
+        <v>995</v>
+      </c>
+      <c r="J170" t="s">
+        <v>996</v>
+      </c>
+      <c r="K170">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B171" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" t="s">
         <v>729</v>
       </c>
-      <c r="H152" t="s">
-        <v>1122</v>
-      </c>
-      <c r="J152" t="s">
-        <v>1123</v>
-      </c>
-      <c r="K152">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="D171" t="s">
         <v>730</v>
       </c>
-      <c r="C153" t="s">
+      <c r="E171" t="s">
         <v>731</v>
       </c>
-      <c r="D153" t="s">
+      <c r="F171" t="s">
         <v>732</v>
       </c>
-      <c r="E153" t="s">
+      <c r="G171" t="s">
         <v>733</v>
       </c>
-      <c r="F153" t="s">
+      <c r="H171" t="s">
+        <v>995</v>
+      </c>
+      <c r="J171" t="s">
+        <v>996</v>
+      </c>
+      <c r="K171">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B172" t="s">
+        <v>19</v>
+      </c>
+      <c r="C172" t="s">
         <v>734</v>
       </c>
-      <c r="G153" t="s">
+      <c r="D172" t="s">
+        <v>680</v>
+      </c>
+      <c r="E172" t="s">
+        <v>681</v>
+      </c>
+      <c r="F172" t="s">
+        <v>682</v>
+      </c>
+      <c r="G172" t="s">
+        <v>683</v>
+      </c>
+      <c r="H172" t="s">
+        <v>995</v>
+      </c>
+      <c r="J172" t="s">
+        <v>996</v>
+      </c>
+      <c r="K172">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B173" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" t="s">
         <v>735</v>
       </c>
-      <c r="H153" t="s">
-        <v>1122</v>
-      </c>
-      <c r="J153" t="s">
-        <v>1123</v>
-      </c>
-      <c r="K153">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="D173" t="s">
         <v>736</v>
       </c>
-      <c r="C154" t="s">
+      <c r="E173" t="s">
         <v>737</v>
       </c>
-      <c r="D154" t="s">
+      <c r="F173" t="s">
         <v>738</v>
       </c>
-      <c r="E154" t="s">
+      <c r="G173" t="s">
         <v>739</v>
       </c>
-      <c r="F154" t="s">
+      <c r="H173" t="s">
+        <v>997</v>
+      </c>
+      <c r="J173" t="s">
+        <v>998</v>
+      </c>
+      <c r="K173">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B174" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" t="s">
         <v>740</v>
       </c>
-      <c r="G154" t="s">
+      <c r="D174" t="s">
         <v>741</v>
       </c>
-      <c r="H154" t="s">
-        <v>1124</v>
-      </c>
-      <c r="J154" t="s">
-        <v>1125</v>
-      </c>
-      <c r="K154">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="E174" t="s">
         <v>742</v>
       </c>
-      <c r="C155" t="s">
+      <c r="F174" t="s">
         <v>743</v>
       </c>
-      <c r="D155" t="s">
+      <c r="G174" t="s">
         <v>744</v>
       </c>
-      <c r="E155" t="s">
+      <c r="H174" t="s">
+        <v>997</v>
+      </c>
+      <c r="J174" t="s">
+        <v>998</v>
+      </c>
+      <c r="K174">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B175" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" t="s">
         <v>745</v>
       </c>
-      <c r="F155" t="s">
+      <c r="D175" t="s">
         <v>746</v>
       </c>
-      <c r="G155" t="s">
+      <c r="E175" t="s">
         <v>747</v>
       </c>
-      <c r="H155" t="s">
-        <v>1124</v>
-      </c>
-      <c r="J155" t="s">
-        <v>1125</v>
-      </c>
-      <c r="K155">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="F175" t="s">
         <v>748</v>
       </c>
-      <c r="C156" t="s">
+      <c r="G175" t="s">
         <v>749</v>
       </c>
-      <c r="D156" t="s">
+      <c r="H175" t="s">
+        <v>997</v>
+      </c>
+      <c r="J175" t="s">
+        <v>998</v>
+      </c>
+      <c r="K175">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B176" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176" t="s">
         <v>750</v>
       </c>
-      <c r="E156" t="s">
+      <c r="D176" t="s">
         <v>751</v>
       </c>
-      <c r="F156" t="s">
+      <c r="E176" t="s">
         <v>752</v>
       </c>
-      <c r="G156" t="s">
+      <c r="F176" t="s">
         <v>753</v>
       </c>
-      <c r="H156" t="s">
-        <v>1126</v>
-      </c>
-      <c r="J156" t="s">
-        <v>1127</v>
-      </c>
-      <c r="K156">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="G176" t="s">
         <v>754</v>
       </c>
-      <c r="C157" t="s">
+      <c r="H176" t="s">
+        <v>997</v>
+      </c>
+      <c r="J176" t="s">
+        <v>998</v>
+      </c>
+      <c r="K176">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B177" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" t="s">
         <v>755</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D177" t="s">
         <v>756</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E177" t="s">
         <v>757</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F177" t="s">
         <v>758</v>
       </c>
-      <c r="G157" t="s">
+      <c r="G177" t="s">
         <v>759</v>
       </c>
-      <c r="H157" t="s">
-        <v>1126</v>
-      </c>
-      <c r="J157" t="s">
-        <v>1127</v>
-      </c>
-      <c r="K157">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="H177" t="s">
+        <v>999</v>
+      </c>
+      <c r="J177" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K177">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B178" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" t="s">
         <v>760</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D178" t="s">
         <v>761</v>
       </c>
-      <c r="D158" t="s">
+      <c r="E178" t="s">
         <v>762</v>
       </c>
-      <c r="E158" t="s">
+      <c r="F178" t="s">
         <v>763</v>
       </c>
-      <c r="F158" t="s">
+      <c r="G178" t="s">
         <v>764</v>
       </c>
-      <c r="G158" t="s">
+      <c r="H178" t="s">
+        <v>999</v>
+      </c>
+      <c r="J178" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K178">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B179" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" t="s">
         <v>765</v>
       </c>
-      <c r="H158" t="s">
-        <v>1126</v>
-      </c>
-      <c r="J158" t="s">
-        <v>1127</v>
-      </c>
-      <c r="K158">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="D179" t="s">
         <v>766</v>
       </c>
-      <c r="C159" t="s">
+      <c r="E179" t="s">
         <v>767</v>
       </c>
-      <c r="D159" t="s">
+      <c r="F179" t="s">
         <v>768</v>
       </c>
-      <c r="E159" t="s">
+      <c r="G179" t="s">
         <v>769</v>
       </c>
-      <c r="F159" t="s">
-        <v>405</v>
-      </c>
-      <c r="G159" t="s">
+      <c r="H179" t="s">
+        <v>999</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K179">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B180" t="s">
+        <v>19</v>
+      </c>
+      <c r="C180" t="s">
         <v>770</v>
       </c>
-      <c r="H159" t="s">
-        <v>1128</v>
-      </c>
-      <c r="J159" t="s">
-        <v>1129</v>
-      </c>
-      <c r="K159">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="D180" t="s">
         <v>771</v>
       </c>
-      <c r="C160" t="s">
+      <c r="E180" t="s">
         <v>772</v>
       </c>
-      <c r="D160" t="s">
+      <c r="F180" t="s">
         <v>773</v>
       </c>
-      <c r="E160" t="s">
+      <c r="G180" t="s">
         <v>774</v>
       </c>
-      <c r="F160" t="s">
+      <c r="H180" t="s">
+        <v>999</v>
+      </c>
+      <c r="J180" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K180">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181" t="s">
         <v>775</v>
       </c>
-      <c r="G160" t="s">
+      <c r="D181" t="s">
         <v>776</v>
       </c>
-      <c r="H160" t="s">
-        <v>1128</v>
-      </c>
-      <c r="J160" t="s">
-        <v>1129</v>
-      </c>
-      <c r="K160">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="E181" t="s">
         <v>777</v>
       </c>
-      <c r="C161" t="s">
+      <c r="F181" t="s">
         <v>778</v>
       </c>
-      <c r="D161" t="s">
+      <c r="G181" t="s">
         <v>779</v>
       </c>
-      <c r="E161" t="s">
+      <c r="H181" t="s">
+        <v>999</v>
+      </c>
+      <c r="J181" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K181">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B182" t="s">
+        <v>19</v>
+      </c>
+      <c r="C182" t="s">
         <v>780</v>
       </c>
-      <c r="F161" t="s">
+      <c r="D182" t="s">
         <v>781</v>
       </c>
-      <c r="G161" t="s">
+      <c r="E182" t="s">
         <v>782</v>
       </c>
-      <c r="H161" t="s">
-        <v>1128</v>
-      </c>
-      <c r="J161" t="s">
-        <v>1129</v>
-      </c>
-      <c r="K161">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="F182" t="s">
         <v>783</v>
       </c>
-      <c r="C162" t="s">
+      <c r="G182" t="s">
         <v>784</v>
       </c>
-      <c r="D162" t="s">
+      <c r="H182" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J182" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="K182">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B183" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183" t="s">
         <v>785</v>
       </c>
-      <c r="E162" t="s">
+      <c r="D183" t="s">
         <v>786</v>
       </c>
-      <c r="F162" t="s">
+      <c r="E183" t="s">
         <v>787</v>
       </c>
-      <c r="G162" t="s">
+      <c r="F183" t="s">
         <v>788</v>
       </c>
-      <c r="H162" t="s">
-        <v>1130</v>
-      </c>
-      <c r="J162" t="s">
-        <v>1131</v>
-      </c>
-      <c r="K162">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="G183" t="s">
         <v>789</v>
       </c>
-      <c r="C163" t="s">
+      <c r="H183" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J183" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="K183">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B184" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" t="s">
         <v>790</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D184" t="s">
         <v>791</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E184" t="s">
         <v>792</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F184" t="s">
         <v>793</v>
       </c>
-      <c r="G163" t="s">
+      <c r="G184" t="s">
         <v>794</v>
       </c>
-      <c r="H163" t="s">
-        <v>1130</v>
-      </c>
-      <c r="J163" t="s">
-        <v>1131</v>
-      </c>
-      <c r="K163">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="H184" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J184" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="K184">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B185" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185" t="s">
         <v>795</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D185" t="s">
         <v>796</v>
       </c>
-      <c r="D164" t="s">
+      <c r="E185" t="s">
         <v>797</v>
       </c>
-      <c r="E164" t="s">
+      <c r="F185" t="s">
         <v>798</v>
       </c>
-      <c r="F164" t="s">
+      <c r="G185" t="s">
         <v>799</v>
       </c>
-      <c r="G164" t="s">
+      <c r="H185" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J185" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="K185">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B186" t="s">
+        <v>13</v>
+      </c>
+      <c r="C186" t="s">
         <v>800</v>
       </c>
-      <c r="H164" t="s">
-        <v>1130</v>
-      </c>
-      <c r="J164" t="s">
-        <v>1131</v>
-      </c>
-      <c r="K164">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="D186" t="s">
         <v>801</v>
       </c>
-      <c r="C165" t="s">
+      <c r="E186" t="s">
         <v>802</v>
       </c>
-      <c r="D165" t="s">
+      <c r="F186" t="s">
         <v>803</v>
       </c>
-      <c r="E165" t="s">
+      <c r="G186" t="s">
         <v>804</v>
       </c>
-      <c r="F165" t="s">
+      <c r="H186" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J186" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="K186">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B187" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187" t="s">
         <v>805</v>
       </c>
-      <c r="G165" t="s">
+      <c r="D187" t="s">
         <v>806</v>
       </c>
-      <c r="H165" t="s">
-        <v>1130</v>
-      </c>
-      <c r="J165" t="s">
-        <v>1131</v>
-      </c>
-      <c r="K165">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="E187" t="s">
         <v>807</v>
       </c>
-      <c r="C166" t="s">
+      <c r="F187" t="s">
         <v>808</v>
       </c>
-      <c r="D166" t="s">
+      <c r="G187" t="s">
         <v>809</v>
       </c>
-      <c r="E166" t="s">
+      <c r="H187" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J187" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="K187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B188" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188" t="s">
         <v>810</v>
       </c>
-      <c r="F166" t="s">
+      <c r="D188" t="s">
         <v>811</v>
       </c>
-      <c r="G166" t="s">
+      <c r="E188" t="s">
         <v>812</v>
       </c>
-      <c r="H166" t="s">
-        <v>1132</v>
-      </c>
-      <c r="J166" t="s">
-        <v>1133</v>
-      </c>
-      <c r="K166">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="F188" t="s">
         <v>813</v>
       </c>
-      <c r="C167" t="s">
+      <c r="G188" t="s">
         <v>814</v>
       </c>
-      <c r="D167" t="s">
+      <c r="H188" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J188" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="K188">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B189" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" t="s">
         <v>815</v>
       </c>
-      <c r="E167" t="s">
+      <c r="D189" t="s">
         <v>816</v>
       </c>
-      <c r="F167" t="s">
+      <c r="E189" t="s">
         <v>817</v>
       </c>
-      <c r="G167" t="s">
+      <c r="F189" t="s">
         <v>818</v>
       </c>
-      <c r="H167" t="s">
-        <v>1132</v>
-      </c>
-      <c r="J167" t="s">
-        <v>1133</v>
-      </c>
-      <c r="K167">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="G189" t="s">
         <v>819</v>
       </c>
-      <c r="C168" t="s">
+      <c r="H189" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J189" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="K189">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B190" t="s">
+        <v>19</v>
+      </c>
+      <c r="C190" t="s">
         <v>820</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D190" t="s">
         <v>821</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E190" t="s">
         <v>822</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F190" t="s">
         <v>823</v>
       </c>
-      <c r="G168" t="s">
+      <c r="G190" t="s">
         <v>824</v>
       </c>
-      <c r="H168" t="s">
-        <v>1132</v>
-      </c>
-      <c r="J168" t="s">
-        <v>1133</v>
-      </c>
-      <c r="K168">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="H190" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J190" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="K190">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B191" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" t="s">
         <v>825</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D191" t="s">
         <v>826</v>
       </c>
-      <c r="D169" t="s">
+      <c r="E191" t="s">
         <v>827</v>
       </c>
-      <c r="E169" t="s">
+      <c r="F191" t="s">
         <v>828</v>
       </c>
-      <c r="F169" t="s">
+      <c r="G191" t="s">
         <v>829</v>
       </c>
-      <c r="G169" t="s">
+      <c r="H191" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J191" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="K191">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B192" t="s">
+        <v>11</v>
+      </c>
+      <c r="C192" t="s">
         <v>830</v>
       </c>
-      <c r="H169" t="s">
-        <v>1134</v>
-      </c>
-      <c r="J169" t="s">
-        <v>1135</v>
-      </c>
-      <c r="K169">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="D192" t="s">
         <v>831</v>
       </c>
-      <c r="C170" t="s">
+      <c r="E192" t="s">
         <v>832</v>
       </c>
-      <c r="D170" t="s">
+      <c r="F192" t="s">
         <v>833</v>
       </c>
-      <c r="E170" t="s">
+      <c r="G192" t="s">
         <v>834</v>
       </c>
-      <c r="F170" t="s">
+      <c r="H192" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J192" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="K192">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B193" t="s">
+        <v>13</v>
+      </c>
+      <c r="C193" t="s">
         <v>835</v>
       </c>
-      <c r="G170" t="s">
+      <c r="D193" t="s">
         <v>836</v>
       </c>
-      <c r="H170" t="s">
-        <v>1134</v>
-      </c>
-      <c r="J170" t="s">
-        <v>1135</v>
-      </c>
-      <c r="K170">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="E193" t="s">
         <v>837</v>
       </c>
-      <c r="C171" t="s">
+      <c r="F193" t="s">
         <v>838</v>
       </c>
-      <c r="D171" t="s">
+      <c r="G193" t="s">
         <v>839</v>
       </c>
-      <c r="E171" t="s">
+      <c r="H193" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J193" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="K193">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B194" t="s">
+        <v>19</v>
+      </c>
+      <c r="C194" t="s">
         <v>840</v>
       </c>
-      <c r="F171" t="s">
+      <c r="D194" t="s">
         <v>841</v>
       </c>
-      <c r="G171" t="s">
+      <c r="E194" t="s">
         <v>842</v>
       </c>
-      <c r="H171" t="s">
-        <v>1134</v>
-      </c>
-      <c r="J171" t="s">
-        <v>1135</v>
-      </c>
-      <c r="K171">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="F194" t="s">
         <v>843</v>
       </c>
-      <c r="C172" t="s">
+      <c r="G194" t="s">
         <v>844</v>
       </c>
-      <c r="D172" t="s">
-        <v>779</v>
-      </c>
-      <c r="E172" t="s">
-        <v>780</v>
-      </c>
-      <c r="F172" t="s">
-        <v>781</v>
-      </c>
-      <c r="G172" t="s">
-        <v>782</v>
-      </c>
-      <c r="H172" t="s">
-        <v>1134</v>
-      </c>
-      <c r="J172" t="s">
-        <v>1135</v>
-      </c>
-      <c r="K172">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="H194" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J194" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="K194">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B195" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" t="s">
         <v>845</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D195" t="s">
         <v>846</v>
       </c>
-      <c r="D173" t="s">
+      <c r="E195" t="s">
         <v>847</v>
       </c>
-      <c r="E173" t="s">
+      <c r="F195" t="s">
         <v>848</v>
       </c>
-      <c r="F173" t="s">
+      <c r="G195" t="s">
         <v>849</v>
       </c>
-      <c r="G173" t="s">
+      <c r="H195" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J195" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="K195">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B196" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196" t="s">
         <v>850</v>
       </c>
-      <c r="H173" t="s">
-        <v>1136</v>
-      </c>
-      <c r="J173" t="s">
-        <v>1137</v>
-      </c>
-      <c r="K173">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="D196" t="s">
         <v>851</v>
       </c>
-      <c r="C174" t="s">
+      <c r="E196" t="s">
         <v>852</v>
       </c>
-      <c r="D174" t="s">
+      <c r="F196" t="s">
         <v>853</v>
       </c>
-      <c r="E174" t="s">
+      <c r="G196" t="s">
         <v>854</v>
       </c>
-      <c r="F174" t="s">
+      <c r="H196" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J196" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="K196">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B197" t="s">
+        <v>19</v>
+      </c>
+      <c r="C197" t="s">
         <v>855</v>
       </c>
-      <c r="G174" t="s">
+      <c r="D197" t="s">
         <v>856</v>
       </c>
-      <c r="H174" t="s">
-        <v>1136</v>
-      </c>
-      <c r="J174" t="s">
-        <v>1137</v>
-      </c>
-      <c r="K174">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="E197" t="s">
         <v>857</v>
       </c>
-      <c r="C175" t="s">
+      <c r="F197" t="s">
         <v>858</v>
       </c>
-      <c r="D175" t="s">
+      <c r="G197" t="s">
         <v>859</v>
       </c>
-      <c r="E175" t="s">
+      <c r="H197" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J197" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K197">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B198" t="s">
+        <v>13</v>
+      </c>
+      <c r="C198" t="s">
         <v>860</v>
       </c>
-      <c r="F175" t="s">
+      <c r="D198" t="s">
         <v>861</v>
       </c>
-      <c r="G175" t="s">
+      <c r="E198" t="s">
         <v>862</v>
       </c>
-      <c r="H175" t="s">
-        <v>1136</v>
-      </c>
-      <c r="J175" t="s">
-        <v>1137</v>
-      </c>
-      <c r="K175">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="F198" t="s">
         <v>863</v>
       </c>
-      <c r="C176" t="s">
+      <c r="G198" t="s">
         <v>864</v>
       </c>
-      <c r="D176" t="s">
+      <c r="H198" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J198" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K198">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B199" t="s">
+        <v>13</v>
+      </c>
+      <c r="C199" t="s">
         <v>865</v>
       </c>
-      <c r="E176" t="s">
+      <c r="D199" t="s">
         <v>866</v>
       </c>
-      <c r="F176" t="s">
+      <c r="E199" t="s">
         <v>867</v>
       </c>
-      <c r="G176" t="s">
+      <c r="F199" t="s">
         <v>868</v>
       </c>
-      <c r="H176" t="s">
-        <v>1136</v>
-      </c>
-      <c r="J176" t="s">
-        <v>1137</v>
-      </c>
-      <c r="K176">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="G199" t="s">
         <v>869</v>
       </c>
-      <c r="C177" t="s">
+      <c r="H199" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J199" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K199">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B200" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200" t="s">
         <v>870</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D200" t="s">
         <v>871</v>
       </c>
-      <c r="E177" t="s">
+      <c r="E200" t="s">
         <v>872</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F200" t="s">
         <v>873</v>
       </c>
-      <c r="G177" t="s">
+      <c r="G200" t="s">
         <v>874</v>
       </c>
-      <c r="H177" t="s">
-        <v>1138</v>
-      </c>
-      <c r="J177" t="s">
-        <v>1139</v>
-      </c>
-      <c r="K177">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="H200" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J200" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K200">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B201" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" t="s">
         <v>875</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D201" t="s">
         <v>876</v>
       </c>
-      <c r="D178" t="s">
+      <c r="E201" t="s">
         <v>877</v>
       </c>
-      <c r="E178" t="s">
+      <c r="F201" t="s">
         <v>878</v>
       </c>
-      <c r="F178" t="s">
+      <c r="G201" t="s">
         <v>879</v>
       </c>
-      <c r="G178" t="s">
-        <v>880</v>
-      </c>
-      <c r="H178" t="s">
-        <v>1138</v>
-      </c>
-      <c r="J178" t="s">
-        <v>1139</v>
-      </c>
-      <c r="K178">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>881</v>
-      </c>
-      <c r="C179" t="s">
-        <v>882</v>
-      </c>
-      <c r="D179" t="s">
-        <v>883</v>
-      </c>
-      <c r="E179" t="s">
-        <v>884</v>
-      </c>
-      <c r="F179" t="s">
-        <v>885</v>
-      </c>
-      <c r="G179" t="s">
-        <v>886</v>
-      </c>
-      <c r="H179" t="s">
-        <v>1138</v>
-      </c>
-      <c r="J179" t="s">
-        <v>1139</v>
-      </c>
-      <c r="K179">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>887</v>
-      </c>
-      <c r="C180" t="s">
-        <v>888</v>
-      </c>
-      <c r="D180" t="s">
-        <v>889</v>
-      </c>
-      <c r="E180" t="s">
-        <v>890</v>
-      </c>
-      <c r="F180" t="s">
-        <v>891</v>
-      </c>
-      <c r="G180" t="s">
-        <v>892</v>
-      </c>
-      <c r="H180" t="s">
-        <v>1138</v>
-      </c>
-      <c r="J180" t="s">
-        <v>1139</v>
-      </c>
-      <c r="K180">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>893</v>
-      </c>
-      <c r="C181" t="s">
-        <v>894</v>
-      </c>
-      <c r="D181" t="s">
-        <v>895</v>
-      </c>
-      <c r="E181" t="s">
-        <v>896</v>
-      </c>
-      <c r="F181" t="s">
-        <v>897</v>
-      </c>
-      <c r="G181" t="s">
-        <v>898</v>
-      </c>
-      <c r="H181" t="s">
-        <v>1138</v>
-      </c>
-      <c r="J181" t="s">
-        <v>1139</v>
-      </c>
-      <c r="K181">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>899</v>
-      </c>
-      <c r="C182" t="s">
-        <v>900</v>
-      </c>
-      <c r="D182" t="s">
-        <v>901</v>
-      </c>
-      <c r="E182" t="s">
-        <v>902</v>
-      </c>
-      <c r="F182" t="s">
-        <v>903</v>
-      </c>
-      <c r="G182" t="s">
-        <v>904</v>
-      </c>
-      <c r="H182" t="s">
-        <v>1140</v>
-      </c>
-      <c r="J182" t="s">
-        <v>1141</v>
-      </c>
-      <c r="K182">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>905</v>
-      </c>
-      <c r="C183" t="s">
-        <v>906</v>
-      </c>
-      <c r="D183" t="s">
-        <v>907</v>
-      </c>
-      <c r="E183" t="s">
-        <v>908</v>
-      </c>
-      <c r="F183" t="s">
-        <v>909</v>
-      </c>
-      <c r="G183" t="s">
-        <v>910</v>
-      </c>
-      <c r="H183" t="s">
-        <v>1140</v>
-      </c>
-      <c r="J183" t="s">
-        <v>1141</v>
-      </c>
-      <c r="K183">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>911</v>
-      </c>
-      <c r="C184" t="s">
-        <v>912</v>
-      </c>
-      <c r="D184" t="s">
-        <v>913</v>
-      </c>
-      <c r="E184" t="s">
-        <v>914</v>
-      </c>
-      <c r="F184" t="s">
-        <v>915</v>
-      </c>
-      <c r="G184" t="s">
-        <v>916</v>
-      </c>
-      <c r="H184" t="s">
-        <v>1140</v>
-      </c>
-      <c r="J184" t="s">
-        <v>1141</v>
-      </c>
-      <c r="K184">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>917</v>
-      </c>
-      <c r="C185" t="s">
-        <v>918</v>
-      </c>
-      <c r="D185" t="s">
-        <v>919</v>
-      </c>
-      <c r="E185" t="s">
-        <v>920</v>
-      </c>
-      <c r="F185" t="s">
-        <v>921</v>
-      </c>
-      <c r="G185" t="s">
-        <v>922</v>
-      </c>
-      <c r="H185" t="s">
-        <v>1140</v>
-      </c>
-      <c r="J185" t="s">
-        <v>1141</v>
-      </c>
-      <c r="K185">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>923</v>
-      </c>
-      <c r="C186" t="s">
-        <v>924</v>
-      </c>
-      <c r="D186" t="s">
-        <v>925</v>
-      </c>
-      <c r="E186" t="s">
-        <v>926</v>
-      </c>
-      <c r="F186" t="s">
-        <v>927</v>
-      </c>
-      <c r="G186" t="s">
-        <v>928</v>
-      </c>
-      <c r="H186" t="s">
-        <v>1140</v>
-      </c>
-      <c r="J186" t="s">
-        <v>1141</v>
-      </c>
-      <c r="K186">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>929</v>
-      </c>
-      <c r="C187" t="s">
-        <v>930</v>
-      </c>
-      <c r="D187" t="s">
-        <v>931</v>
-      </c>
-      <c r="E187" t="s">
-        <v>932</v>
-      </c>
-      <c r="F187" t="s">
-        <v>933</v>
-      </c>
-      <c r="G187" t="s">
-        <v>934</v>
-      </c>
-      <c r="H187" t="s">
-        <v>1142</v>
-      </c>
-      <c r="J187" t="s">
-        <v>1143</v>
-      </c>
-      <c r="K187">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>935</v>
-      </c>
-      <c r="C188" t="s">
-        <v>936</v>
-      </c>
-      <c r="D188" t="s">
-        <v>937</v>
-      </c>
-      <c r="E188" t="s">
-        <v>938</v>
-      </c>
-      <c r="F188" t="s">
-        <v>939</v>
-      </c>
-      <c r="G188" t="s">
-        <v>940</v>
-      </c>
-      <c r="H188" t="s">
-        <v>1142</v>
-      </c>
-      <c r="J188" t="s">
-        <v>1143</v>
-      </c>
-      <c r="K188">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>941</v>
-      </c>
-      <c r="C189" t="s">
-        <v>942</v>
-      </c>
-      <c r="D189" t="s">
-        <v>943</v>
-      </c>
-      <c r="E189" t="s">
-        <v>944</v>
-      </c>
-      <c r="F189" t="s">
-        <v>945</v>
-      </c>
-      <c r="G189" t="s">
-        <v>946</v>
-      </c>
-      <c r="H189" t="s">
-        <v>1142</v>
-      </c>
-      <c r="J189" t="s">
-        <v>1143</v>
-      </c>
-      <c r="K189">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>947</v>
-      </c>
-      <c r="C190" t="s">
-        <v>948</v>
-      </c>
-      <c r="D190" t="s">
-        <v>949</v>
-      </c>
-      <c r="E190" t="s">
-        <v>950</v>
-      </c>
-      <c r="F190" t="s">
-        <v>951</v>
-      </c>
-      <c r="G190" t="s">
-        <v>952</v>
-      </c>
-      <c r="H190" t="s">
-        <v>1142</v>
-      </c>
-      <c r="J190" t="s">
-        <v>1143</v>
-      </c>
-      <c r="K190">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>953</v>
-      </c>
-      <c r="C191" t="s">
-        <v>954</v>
-      </c>
-      <c r="D191" t="s">
-        <v>955</v>
-      </c>
-      <c r="E191" t="s">
-        <v>956</v>
-      </c>
-      <c r="F191" t="s">
-        <v>957</v>
-      </c>
-      <c r="G191" t="s">
-        <v>958</v>
-      </c>
-      <c r="H191" t="s">
-        <v>1142</v>
-      </c>
-      <c r="J191" t="s">
-        <v>1143</v>
-      </c>
-      <c r="K191">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>959</v>
-      </c>
-      <c r="C192" t="s">
-        <v>960</v>
-      </c>
-      <c r="D192" t="s">
-        <v>961</v>
-      </c>
-      <c r="E192" t="s">
-        <v>962</v>
-      </c>
-      <c r="F192" t="s">
-        <v>963</v>
-      </c>
-      <c r="G192" t="s">
-        <v>964</v>
-      </c>
-      <c r="H192" t="s">
-        <v>1144</v>
-      </c>
-      <c r="J192" t="s">
-        <v>1145</v>
-      </c>
-      <c r="K192">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>965</v>
-      </c>
-      <c r="C193" t="s">
-        <v>966</v>
-      </c>
-      <c r="D193" t="s">
-        <v>967</v>
-      </c>
-      <c r="E193" t="s">
-        <v>968</v>
-      </c>
-      <c r="F193" t="s">
-        <v>969</v>
-      </c>
-      <c r="G193" t="s">
-        <v>970</v>
-      </c>
-      <c r="H193" t="s">
-        <v>1144</v>
-      </c>
-      <c r="J193" t="s">
-        <v>1145</v>
-      </c>
-      <c r="K193">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>971</v>
-      </c>
-      <c r="C194" t="s">
-        <v>972</v>
-      </c>
-      <c r="D194" t="s">
-        <v>973</v>
-      </c>
-      <c r="E194" t="s">
-        <v>974</v>
-      </c>
-      <c r="F194" t="s">
-        <v>975</v>
-      </c>
-      <c r="G194" t="s">
-        <v>976</v>
-      </c>
-      <c r="H194" t="s">
-        <v>1144</v>
-      </c>
-      <c r="J194" t="s">
-        <v>1145</v>
-      </c>
-      <c r="K194">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>977</v>
-      </c>
-      <c r="C195" t="s">
-        <v>978</v>
-      </c>
-      <c r="D195" t="s">
-        <v>979</v>
-      </c>
-      <c r="E195" t="s">
-        <v>980</v>
-      </c>
-      <c r="F195" t="s">
-        <v>981</v>
-      </c>
-      <c r="G195" t="s">
-        <v>982</v>
-      </c>
-      <c r="H195" t="s">
-        <v>1144</v>
-      </c>
-      <c r="J195" t="s">
-        <v>1145</v>
-      </c>
-      <c r="K195">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>983</v>
-      </c>
-      <c r="C196" t="s">
-        <v>984</v>
-      </c>
-      <c r="D196" t="s">
-        <v>985</v>
-      </c>
-      <c r="E196" t="s">
-        <v>986</v>
-      </c>
-      <c r="F196" t="s">
-        <v>987</v>
-      </c>
-      <c r="G196" t="s">
-        <v>988</v>
-      </c>
-      <c r="H196" t="s">
-        <v>1144</v>
-      </c>
-      <c r="J196" t="s">
-        <v>1145</v>
-      </c>
-      <c r="K196">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>989</v>
-      </c>
-      <c r="C197" t="s">
-        <v>990</v>
-      </c>
-      <c r="D197" t="s">
-        <v>991</v>
-      </c>
-      <c r="E197" t="s">
-        <v>992</v>
-      </c>
-      <c r="F197" t="s">
-        <v>993</v>
-      </c>
-      <c r="G197" t="s">
-        <v>994</v>
-      </c>
-      <c r="H197" t="s">
-        <v>1146</v>
-      </c>
-      <c r="J197" t="s">
-        <v>1147</v>
-      </c>
-      <c r="K197">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>995</v>
-      </c>
-      <c r="C198" t="s">
-        <v>996</v>
-      </c>
-      <c r="D198" t="s">
-        <v>997</v>
-      </c>
-      <c r="E198" t="s">
-        <v>998</v>
-      </c>
-      <c r="F198" t="s">
-        <v>999</v>
-      </c>
-      <c r="G198" t="s">
-        <v>1000</v>
-      </c>
-      <c r="H198" t="s">
-        <v>1146</v>
-      </c>
-      <c r="J198" t="s">
-        <v>1147</v>
-      </c>
-      <c r="K198">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C199" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D199" t="s">
+      <c r="H201" t="s">
         <v>1003</v>
       </c>
-      <c r="E199" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F199" t="s">
-        <v>1005</v>
-      </c>
-      <c r="G199" t="s">
-        <v>1006</v>
-      </c>
-      <c r="H199" t="s">
-        <v>1146</v>
-      </c>
-      <c r="J199" t="s">
-        <v>1147</v>
-      </c>
-      <c r="K199">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C200" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D200" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E200" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F200" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G200" t="s">
-        <v>1012</v>
-      </c>
-      <c r="H200" t="s">
-        <v>1146</v>
-      </c>
-      <c r="J200" t="s">
-        <v>1147</v>
-      </c>
-      <c r="K200">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C201" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D201" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E201" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F201" t="s">
-        <v>1017</v>
-      </c>
-      <c r="G201" t="s">
-        <v>1018</v>
-      </c>
-      <c r="H201" t="s">
-        <v>1146</v>
-      </c>
-      <c r="J201" t="s">
-        <v>1147</v>
+      <c r="J201" s="3" t="s">
+        <v>1035</v>
       </c>
       <c r="K201">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J198:J201" r:id="rId1" display="https://res.cloudinary.com/dv7574j3j/image/upload/v1746026026/question196-200_rhtwcu.png" xr:uid="{CDE30FC2-BC99-40E7-B38E-060587C9900A}"/>
+    <hyperlink ref="J193:J196" r:id="rId2" display="https://res.cloudinary.com/dv7574j3j/image/upload/v1746026027/question191-195_iwixwa.png" xr:uid="{EE261E27-77B0-40E4-9971-FC69D4EB34AC}"/>
+    <hyperlink ref="J197" r:id="rId3" xr:uid="{7223CFDB-21D5-473C-BFAF-4317612C8C28}"/>
+    <hyperlink ref="J192" r:id="rId4" xr:uid="{7C92A3BA-8DA2-4564-BA71-E23F0E741B5A}"/>
+    <hyperlink ref="J188:J191" r:id="rId5" display="https://res.cloudinary.com/dv7574j3j/image/upload/v1746026026/question186-190_rojrcg.png" xr:uid="{9E0B5558-EF47-4406-9A5F-0060E05CDA8D}"/>
+    <hyperlink ref="J187" r:id="rId6" xr:uid="{83D4F09F-3F07-43AC-9D77-229AE994A6A8}"/>
+    <hyperlink ref="J183:J186" r:id="rId7" display="https://res.cloudinary.com/dv7574j3j/image/upload/v1746026026/question181-185_ireihp.png" xr:uid="{A10E90E9-5DE4-4A7F-9192-1F974DEFEA73}"/>
+    <hyperlink ref="J182" r:id="rId8" xr:uid="{5BA27862-6E6C-494A-A508-90CDB1B94111}"/>
+    <hyperlink ref="J178:J181" r:id="rId9" display="https://res.cloudinary.com/dv7574j3j/image/upload/v1746026026/question_176-180_rccmdl.png" xr:uid="{011743B4-5575-416D-AB23-CCD9EE18BD21}"/>
+    <hyperlink ref="J177" r:id="rId10" xr:uid="{76B63B01-5A05-4725-9D90-922BB2491308}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>